--- a/name/vnindex/20221214/VNINDEX_HOSE_5p_20221214.xlsx
+++ b/name/vnindex/20221214/VNINDEX_HOSE_5p_20221214.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,2507 +504,6057 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671009300000</v>
+        <v>1671009240000</v>
       </c>
       <c r="B3">
-        <v>15788100</v>
+        <v>5708800</v>
       </c>
       <c r="C3">
-        <v>14801500</v>
+        <v>6623500</v>
       </c>
       <c r="D3">
-        <v>6935000</v>
+        <v>6789900</v>
       </c>
       <c r="E3">
-        <v>269680818000</v>
+        <v>95355136000</v>
       </c>
       <c r="F3">
-        <v>229095564000</v>
+        <v>110270109000</v>
       </c>
       <c r="G3">
-        <v>102230367000</v>
+        <v>100210897000</v>
       </c>
       <c r="H3">
-        <v>37524600</v>
+        <v>19122200</v>
       </c>
       <c r="I3">
-        <v>601006749000</v>
+        <v>305836142000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-14T09:15:00.000Z</v>
+        <v>2022-12-14T09:14:00.000Z</v>
       </c>
       <c r="K3">
-        <v>601007759000</v>
+        <v>305837152000</v>
       </c>
       <c r="L3">
-        <v>37524700</v>
+        <v>19122300</v>
       </c>
       <c r="M3">
-        <v>-986600</v>
+        <v>914700</v>
       </c>
       <c r="N3">
-        <v>-40585254000</v>
+        <v>14914973000</v>
       </c>
       <c r="O3">
-        <v>-986600</v>
+        <v>914700</v>
       </c>
       <c r="P3">
-        <v>-40585254000</v>
+        <v>14914973000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671009600000</v>
+        <v>1671009360000</v>
       </c>
       <c r="B4">
-        <v>9392300</v>
+        <v>5424000</v>
       </c>
       <c r="C4">
-        <v>9355900</v>
+        <v>3838600</v>
       </c>
       <c r="D4">
-        <v>60500</v>
+        <v>99700</v>
       </c>
       <c r="E4">
-        <v>152949642000</v>
+        <v>97733398000</v>
       </c>
       <c r="F4">
-        <v>162789960000</v>
+        <v>62281155000</v>
       </c>
       <c r="G4">
-        <v>1338967000</v>
+        <v>1420093000</v>
       </c>
       <c r="H4">
-        <v>18808700</v>
+        <v>9362300</v>
       </c>
       <c r="I4">
-        <v>317078569000</v>
+        <v>161434646000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-14T09:20:00.000Z</v>
+        <v>2022-12-14T09:16:00.000Z</v>
       </c>
       <c r="K4">
-        <v>918086328000</v>
+        <v>467271798000</v>
       </c>
       <c r="L4">
-        <v>56333400</v>
+        <v>28484600</v>
       </c>
       <c r="M4">
-        <v>-36400</v>
+        <v>-1585400</v>
       </c>
       <c r="N4">
-        <v>9840318000</v>
+        <v>-35452243000</v>
       </c>
       <c r="O4">
-        <v>-1023000</v>
+        <v>-670700</v>
       </c>
       <c r="P4">
-        <v>-30744936000</v>
+        <v>-20537270000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671009900000</v>
+        <v>1671009480000</v>
       </c>
       <c r="B5">
-        <v>5805000</v>
+        <v>4655300</v>
       </c>
       <c r="C5">
-        <v>6802200</v>
+        <v>4339400</v>
       </c>
       <c r="D5">
-        <v>17600</v>
+        <v>45400</v>
       </c>
       <c r="E5">
-        <v>94350119000</v>
+        <v>76592284000</v>
       </c>
       <c r="F5">
-        <v>107386884000</v>
+        <v>56544300000</v>
       </c>
       <c r="G5">
-        <v>358410000</v>
+        <v>599377000</v>
       </c>
       <c r="H5">
-        <v>12624800</v>
+        <v>9040100</v>
       </c>
       <c r="I5">
-        <v>202095413000</v>
+        <v>133735961000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-14T09:25:00.000Z</v>
+        <v>2022-12-14T09:18:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1120181741000</v>
+        <v>601007759000</v>
       </c>
       <c r="L5">
-        <v>68958200</v>
+        <v>37524700</v>
       </c>
       <c r="M5">
-        <v>997200</v>
+        <v>-315900</v>
       </c>
       <c r="N5">
-        <v>13036765000</v>
+        <v>-20047984000</v>
       </c>
       <c r="O5">
-        <v>-25800</v>
+        <v>-986600</v>
       </c>
       <c r="P5">
-        <v>-17708171000</v>
+        <v>-40585254000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671010200000</v>
+        <v>1671009600000</v>
       </c>
       <c r="B6">
-        <v>6093700</v>
+        <v>3901200</v>
       </c>
       <c r="C6">
-        <v>8553300</v>
+        <v>3612500</v>
       </c>
       <c r="D6">
-        <v>94500</v>
+        <v>38700</v>
       </c>
       <c r="E6">
-        <v>101267719000</v>
+        <v>60856295000</v>
       </c>
       <c r="F6">
-        <v>128861268000</v>
+        <v>65114876000</v>
       </c>
       <c r="G6">
-        <v>894034000</v>
+        <v>854789000</v>
       </c>
       <c r="H6">
-        <v>14741500</v>
+        <v>7552400</v>
       </c>
       <c r="I6">
-        <v>231023021000</v>
+        <v>126825960000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-14T09:30:00.000Z</v>
+        <v>2022-12-14T09:20:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1351204762000</v>
+        <v>727833719000</v>
       </c>
       <c r="L6">
-        <v>83699700</v>
+        <v>45077100</v>
       </c>
       <c r="M6">
-        <v>2459600</v>
+        <v>-288700</v>
       </c>
       <c r="N6">
-        <v>27593549000</v>
+        <v>4258581000</v>
       </c>
       <c r="O6">
-        <v>2433800</v>
+        <v>-1275300</v>
       </c>
       <c r="P6">
-        <v>9885378000</v>
+        <v>-36326673000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671010500000</v>
+        <v>1671009720000</v>
       </c>
       <c r="B7">
-        <v>7786700</v>
+        <v>3223000</v>
       </c>
       <c r="C7">
-        <v>10908800</v>
+        <v>4391900</v>
       </c>
       <c r="D7">
-        <v>155900</v>
+        <v>14100</v>
       </c>
       <c r="E7">
-        <v>125256193000</v>
+        <v>56003647000</v>
       </c>
       <c r="F7">
-        <v>139765437000</v>
+        <v>74579199000</v>
       </c>
       <c r="G7">
-        <v>2781205000</v>
+        <v>324100000</v>
       </c>
       <c r="H7">
-        <v>18851400</v>
+        <v>7629000</v>
       </c>
       <c r="I7">
-        <v>267802835000</v>
+        <v>130906946000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-14T09:35:00.000Z</v>
+        <v>2022-12-14T09:22:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1619007597000</v>
+        <v>858740665000</v>
       </c>
       <c r="L7">
-        <v>102551100</v>
+        <v>52706100</v>
       </c>
       <c r="M7">
-        <v>3122100</v>
+        <v>1168900</v>
       </c>
       <c r="N7">
-        <v>14509244000</v>
+        <v>18575552000</v>
       </c>
       <c r="O7">
-        <v>5555900</v>
+        <v>-106400</v>
       </c>
       <c r="P7">
-        <v>24394622000</v>
+        <v>-17751121000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671010800000</v>
+        <v>1671009840000</v>
       </c>
       <c r="B8">
-        <v>8565200</v>
+        <v>4312100</v>
       </c>
       <c r="C8">
-        <v>7314500</v>
+        <v>2698000</v>
       </c>
       <c r="D8">
-        <v>82700</v>
+        <v>10900</v>
       </c>
       <c r="E8">
-        <v>123770243000</v>
+        <v>64763877000</v>
       </c>
       <c r="F8">
-        <v>101281693000</v>
+        <v>47252202000</v>
       </c>
       <c r="G8">
-        <v>1129717000</v>
+        <v>199343000</v>
       </c>
       <c r="H8">
-        <v>15962400</v>
+        <v>7021000</v>
       </c>
       <c r="I8">
-        <v>226181653000</v>
+        <v>112215422000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-14T09:40:00.000Z</v>
+        <v>2022-12-14T09:24:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1845189250000</v>
+        <v>970956087000</v>
       </c>
       <c r="L8">
-        <v>118513500</v>
+        <v>59727100</v>
       </c>
       <c r="M8">
-        <v>-1250700</v>
+        <v>-1614100</v>
       </c>
       <c r="N8">
-        <v>-22488550000</v>
+        <v>-17511675000</v>
       </c>
       <c r="O8">
-        <v>4305200</v>
+        <v>-1720500</v>
       </c>
       <c r="P8">
-        <v>1906072000</v>
+        <v>-35262796000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671011100000</v>
+        <v>1671009960000</v>
       </c>
       <c r="B9">
-        <v>11481700</v>
+        <v>1808700</v>
       </c>
       <c r="C9">
-        <v>7722000</v>
+        <v>3021500</v>
       </c>
       <c r="D9">
-        <v>18800</v>
+        <v>6700</v>
       </c>
       <c r="E9">
-        <v>152616220000</v>
+        <v>33428692000</v>
       </c>
       <c r="F9">
-        <v>100621842000</v>
+        <v>49602862000</v>
       </c>
       <c r="G9">
-        <v>332745000</v>
+        <v>196254000</v>
       </c>
       <c r="H9">
-        <v>19222500</v>
+        <v>4836900</v>
       </c>
       <c r="I9">
-        <v>253570807000</v>
+        <v>83227808000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-14T09:45:00.000Z</v>
+        <v>2022-12-14T09:26:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2098760057000</v>
+        <v>1054183895000</v>
       </c>
       <c r="L9">
-        <v>137736000</v>
+        <v>64564000</v>
       </c>
       <c r="M9">
-        <v>-3759700</v>
+        <v>1212800</v>
       </c>
       <c r="N9">
-        <v>-51994378000</v>
+        <v>16174170000</v>
       </c>
       <c r="O9">
-        <v>545500</v>
+        <v>-507700</v>
       </c>
       <c r="P9">
-        <v>-50088306000</v>
+        <v>-19088626000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671011400000</v>
+        <v>1671010080000</v>
       </c>
       <c r="B10">
-        <v>9497100</v>
+        <v>1952300</v>
       </c>
       <c r="C10">
-        <v>4983400</v>
+        <v>2434200</v>
       </c>
       <c r="D10">
-        <v>31100</v>
+        <v>7700</v>
       </c>
       <c r="E10">
-        <v>138333377000</v>
+        <v>32247250000</v>
       </c>
       <c r="F10">
-        <v>118345789000</v>
+        <v>33627705000</v>
       </c>
       <c r="G10">
-        <v>828782000</v>
+        <v>122891000</v>
       </c>
       <c r="H10">
-        <v>14511600</v>
+        <v>4394200</v>
       </c>
       <c r="I10">
-        <v>257507948000</v>
+        <v>65997846000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-14T09:50:00.000Z</v>
+        <v>2022-12-14T09:28:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2356268005000</v>
+        <v>1120181741000</v>
       </c>
       <c r="L10">
-        <v>152247600</v>
+        <v>68958200</v>
       </c>
       <c r="M10">
-        <v>-4513700</v>
+        <v>481900</v>
       </c>
       <c r="N10">
-        <v>-19987588000</v>
+        <v>1380455000</v>
       </c>
       <c r="O10">
-        <v>-3968200</v>
+        <v>-25800</v>
       </c>
       <c r="P10">
-        <v>-70075894000</v>
+        <v>-17708171000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671011700000</v>
+        <v>1671010200000</v>
       </c>
       <c r="B11">
-        <v>4657200</v>
+        <v>2740700</v>
       </c>
       <c r="C11">
-        <v>6967100</v>
+        <v>2945400</v>
       </c>
       <c r="D11">
-        <v>50900</v>
+        <v>3900</v>
       </c>
       <c r="E11">
-        <v>95213998000</v>
+        <v>43796148000</v>
       </c>
       <c r="F11">
-        <v>107799408000</v>
+        <v>43836186000</v>
       </c>
       <c r="G11">
-        <v>905742000</v>
+        <v>37550000</v>
       </c>
       <c r="H11">
-        <v>11675200</v>
+        <v>5690000</v>
       </c>
       <c r="I11">
-        <v>203919148000</v>
+        <v>87669884000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-14T09:55:00.000Z</v>
+        <v>2022-12-14T09:30:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2560187153000</v>
+        <v>1207851625000</v>
       </c>
       <c r="L11">
-        <v>163922800</v>
+        <v>74648200</v>
       </c>
       <c r="M11">
-        <v>2309900</v>
+        <v>204700</v>
       </c>
       <c r="N11">
-        <v>12585410000</v>
+        <v>40038000</v>
       </c>
       <c r="O11">
-        <v>-1658300</v>
+        <v>178900</v>
       </c>
       <c r="P11">
-        <v>-57490484000</v>
+        <v>-17668133000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671012000000</v>
+        <v>1671010320000</v>
       </c>
       <c r="B12">
-        <v>4320500</v>
+        <v>2063200</v>
       </c>
       <c r="C12">
-        <v>6242300</v>
+        <v>3611200</v>
       </c>
       <c r="D12">
-        <v>29300</v>
+        <v>80400</v>
       </c>
       <c r="E12">
-        <v>68206892000</v>
+        <v>35757515000</v>
       </c>
       <c r="F12">
-        <v>109021915000</v>
+        <v>49520840000</v>
       </c>
       <c r="G12">
-        <v>648934000</v>
+        <v>695239000</v>
       </c>
       <c r="H12">
-        <v>10592100</v>
+        <v>5754800</v>
       </c>
       <c r="I12">
-        <v>177877741000</v>
+        <v>85973594000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-14T10:00:00.000Z</v>
+        <v>2022-12-14T09:32:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2738064894000</v>
+        <v>1293825219000</v>
       </c>
       <c r="L12">
-        <v>174514900</v>
+        <v>80403000</v>
       </c>
       <c r="M12">
-        <v>1921800</v>
+        <v>1548000</v>
       </c>
       <c r="N12">
-        <v>40815023000</v>
+        <v>13763325000</v>
       </c>
       <c r="O12">
-        <v>263500</v>
+        <v>1726900</v>
       </c>
       <c r="P12">
-        <v>-16675461000</v>
+        <v>-3904808000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671012300000</v>
+        <v>1671010440000</v>
       </c>
       <c r="B13">
-        <v>3783800</v>
+        <v>2474200</v>
       </c>
       <c r="C13">
-        <v>10216000</v>
+        <v>4622600</v>
       </c>
       <c r="D13">
-        <v>38800</v>
+        <v>96100</v>
       </c>
       <c r="E13">
-        <v>64485741000</v>
+        <v>42349089000</v>
       </c>
       <c r="F13">
-        <v>160968199000</v>
+        <v>70167787000</v>
       </c>
       <c r="G13">
-        <v>512954000</v>
+        <v>2084110000</v>
       </c>
       <c r="H13">
-        <v>14038600</v>
+        <v>7192900</v>
       </c>
       <c r="I13">
-        <v>225966894000</v>
+        <v>114600986000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-14T10:05:00.000Z</v>
+        <v>2022-12-14T09:34:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2964031788000</v>
+        <v>1408426205000</v>
       </c>
       <c r="L13">
-        <v>188553500</v>
+        <v>87595900</v>
       </c>
       <c r="M13">
-        <v>6432200</v>
+        <v>2148400</v>
       </c>
       <c r="N13">
-        <v>96482458000</v>
+        <v>27818698000</v>
       </c>
       <c r="O13">
-        <v>6695700</v>
+        <v>3875300</v>
       </c>
       <c r="P13">
-        <v>79806997000</v>
+        <v>23913890000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671012600000</v>
+        <v>1671010560000</v>
       </c>
       <c r="B14">
-        <v>4190800</v>
+        <v>3036200</v>
       </c>
       <c r="C14">
-        <v>8911600</v>
+        <v>5072500</v>
       </c>
       <c r="D14">
-        <v>45400</v>
+        <v>49900</v>
       </c>
       <c r="E14">
-        <v>78963991000</v>
+        <v>48445198000</v>
       </c>
       <c r="F14">
-        <v>166057846000</v>
+        <v>58218979000</v>
       </c>
       <c r="G14">
-        <v>1461801000</v>
+        <v>614937000</v>
       </c>
       <c r="H14">
-        <v>13147800</v>
+        <v>8158600</v>
       </c>
       <c r="I14">
-        <v>246483638000</v>
+        <v>107279114000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-14T10:10:00.000Z</v>
+        <v>2022-12-14T09:36:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3210515426000</v>
+        <v>1515705319000</v>
       </c>
       <c r="L14">
-        <v>201701300</v>
+        <v>95754500</v>
       </c>
       <c r="M14">
-        <v>4720800</v>
+        <v>2036300</v>
       </c>
       <c r="N14">
-        <v>87093855000</v>
+        <v>9773781000</v>
       </c>
       <c r="O14">
-        <v>11416500</v>
+        <v>5911600</v>
       </c>
       <c r="P14">
-        <v>166900852000</v>
+        <v>33687671000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671012900000</v>
+        <v>1671010680000</v>
       </c>
       <c r="B15">
-        <v>5047000</v>
+        <v>3566100</v>
       </c>
       <c r="C15">
-        <v>7144800</v>
+        <v>3210400</v>
       </c>
       <c r="D15">
-        <v>31300</v>
+        <v>20100</v>
       </c>
       <c r="E15">
-        <v>102276250000</v>
+        <v>56175962000</v>
       </c>
       <c r="F15">
-        <v>135584362000</v>
+        <v>46882913000</v>
       </c>
       <c r="G15">
-        <v>626751000</v>
+        <v>243403000</v>
       </c>
       <c r="H15">
-        <v>12223100</v>
+        <v>6796600</v>
       </c>
       <c r="I15">
-        <v>238487363000</v>
+        <v>103302278000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-14T10:15:00.000Z</v>
+        <v>2022-12-14T09:38:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3449002789000</v>
+        <v>1619007597000</v>
       </c>
       <c r="L15">
-        <v>213924400</v>
+        <v>102551100</v>
       </c>
       <c r="M15">
-        <v>2097800</v>
+        <v>-355700</v>
       </c>
       <c r="N15">
-        <v>33308112000</v>
+        <v>-9293049000</v>
       </c>
       <c r="O15">
-        <v>13514300</v>
+        <v>5555900</v>
       </c>
       <c r="P15">
-        <v>200208964000</v>
+        <v>24394622000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671013200000</v>
+        <v>1671010800000</v>
       </c>
       <c r="B16">
-        <v>7836000</v>
+        <v>2963100</v>
       </c>
       <c r="C16">
-        <v>2659800</v>
+        <v>3999400</v>
       </c>
       <c r="D16">
-        <v>32500</v>
+        <v>52900</v>
       </c>
       <c r="E16">
-        <v>144183850000</v>
+        <v>42344840000</v>
       </c>
       <c r="F16">
-        <v>46263056000</v>
+        <v>51187887000</v>
       </c>
       <c r="G16">
-        <v>927481000</v>
+        <v>623219000</v>
       </c>
       <c r="H16">
-        <v>10528300</v>
+        <v>7015400</v>
       </c>
       <c r="I16">
-        <v>191374387000</v>
+        <v>94155946000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-14T10:20:00.000Z</v>
+        <v>2022-12-14T09:40:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3640377176000</v>
+        <v>1713163543000</v>
       </c>
       <c r="L16">
-        <v>224452700</v>
+        <v>109566500</v>
       </c>
       <c r="M16">
-        <v>-5176200</v>
+        <v>1036300</v>
       </c>
       <c r="N16">
-        <v>-97920794000</v>
+        <v>8843047000</v>
       </c>
       <c r="O16">
-        <v>8338100</v>
+        <v>6592200</v>
       </c>
       <c r="P16">
-        <v>102288170000</v>
+        <v>33237669000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671013500000</v>
+        <v>1671010920000</v>
       </c>
       <c r="B17">
-        <v>5576100</v>
+        <v>2777400</v>
       </c>
       <c r="C17">
-        <v>2796300</v>
+        <v>2016200</v>
       </c>
       <c r="D17">
-        <v>54300</v>
+        <v>11800</v>
       </c>
       <c r="E17">
-        <v>97652178000</v>
+        <v>42869864000</v>
       </c>
       <c r="F17">
-        <v>54229981000</v>
+        <v>32277759000</v>
       </c>
       <c r="G17">
-        <v>715466000</v>
+        <v>172952000</v>
       </c>
       <c r="H17">
-        <v>8426700</v>
+        <v>4805400</v>
       </c>
       <c r="I17">
-        <v>152597625000</v>
+        <v>75320575000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-14T10:25:00.000Z</v>
+        <v>2022-12-14T09:42:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3792974801000</v>
+        <v>1788484118000</v>
       </c>
       <c r="L17">
-        <v>232879400</v>
+        <v>114371900</v>
       </c>
       <c r="M17">
-        <v>-2779800</v>
+        <v>-761200</v>
       </c>
       <c r="N17">
-        <v>-43422197000</v>
+        <v>-10592105000</v>
       </c>
       <c r="O17">
-        <v>5558300</v>
+        <v>5831000</v>
       </c>
       <c r="P17">
-        <v>58865973000</v>
+        <v>22645564000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671013800000</v>
+        <v>1671011040000</v>
       </c>
       <c r="B18">
-        <v>3400700</v>
+        <v>6497000</v>
       </c>
       <c r="C18">
-        <v>3050600</v>
+        <v>3683900</v>
       </c>
       <c r="D18">
-        <v>21100</v>
+        <v>23200</v>
       </c>
       <c r="E18">
-        <v>60858906000</v>
+        <v>72790955000</v>
       </c>
       <c r="F18">
-        <v>57775957000</v>
+        <v>42433803000</v>
       </c>
       <c r="G18">
-        <v>624971000</v>
+        <v>358506000</v>
       </c>
       <c r="H18">
-        <v>6472400</v>
+        <v>10204100</v>
       </c>
       <c r="I18">
-        <v>119259834000</v>
+        <v>115583264000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-14T10:30:00.000Z</v>
+        <v>2022-12-14T09:44:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3912234635000</v>
+        <v>1904067382000</v>
       </c>
       <c r="L18">
-        <v>239351800</v>
+        <v>124576000</v>
       </c>
       <c r="M18">
-        <v>-350100</v>
+        <v>-2813100</v>
       </c>
       <c r="N18">
-        <v>-3082949000</v>
+        <v>-30357152000</v>
       </c>
       <c r="O18">
-        <v>5208200</v>
+        <v>3017900</v>
       </c>
       <c r="P18">
-        <v>55783024000</v>
+        <v>-7711588000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671014100000</v>
+        <v>1671011160000</v>
       </c>
       <c r="B19">
-        <v>3794300</v>
+        <v>3698900</v>
       </c>
       <c r="C19">
-        <v>2498500</v>
+        <v>3053100</v>
       </c>
       <c r="D19">
-        <v>65500</v>
+        <v>6900</v>
       </c>
       <c r="E19">
-        <v>64963164000</v>
+        <v>60536278000</v>
       </c>
       <c r="F19">
-        <v>44752883000</v>
+        <v>39528907000</v>
       </c>
       <c r="G19">
-        <v>1017068000</v>
+        <v>166164000</v>
       </c>
       <c r="H19">
-        <v>6358300</v>
+        <v>6758900</v>
       </c>
       <c r="I19">
-        <v>110733115000</v>
+        <v>100231349000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-14T10:35:00.000Z</v>
+        <v>2022-12-14T09:46:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4022967750000</v>
+        <v>2004298731000</v>
       </c>
       <c r="L19">
-        <v>245710100</v>
+        <v>131334900</v>
       </c>
       <c r="M19">
-        <v>-1295800</v>
+        <v>-645800</v>
       </c>
       <c r="N19">
-        <v>-20210281000</v>
+        <v>-21007371000</v>
       </c>
       <c r="O19">
-        <v>3912400</v>
+        <v>2372100</v>
       </c>
       <c r="P19">
-        <v>35572743000</v>
+        <v>-28718959000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671014400000</v>
+        <v>1671011280000</v>
       </c>
       <c r="B20">
-        <v>10705500</v>
+        <v>4110500</v>
       </c>
       <c r="C20">
-        <v>2843000</v>
+        <v>2283900</v>
       </c>
       <c r="D20">
-        <v>66000</v>
+        <v>6700</v>
       </c>
       <c r="E20">
-        <v>199599942000</v>
+        <v>57844526000</v>
       </c>
       <c r="F20">
-        <v>45511394000</v>
+        <v>36475179000</v>
       </c>
       <c r="G20">
-        <v>1322002000</v>
+        <v>141621000</v>
       </c>
       <c r="H20">
-        <v>13614500</v>
+        <v>6401100</v>
       </c>
       <c r="I20">
-        <v>246433338000</v>
+        <v>94461326000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-14T10:40:00.000Z</v>
+        <v>2022-12-14T09:48:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4269401088000</v>
+        <v>2098760057000</v>
       </c>
       <c r="L20">
-        <v>259324600</v>
+        <v>137736000</v>
       </c>
       <c r="M20">
-        <v>-7862500</v>
+        <v>-1826600</v>
       </c>
       <c r="N20">
-        <v>-154088548000</v>
+        <v>-21369347000</v>
       </c>
       <c r="O20">
-        <v>-3950100</v>
+        <v>545500</v>
       </c>
       <c r="P20">
-        <v>-118515805000</v>
+        <v>-50088306000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671014700000</v>
+        <v>1671011400000</v>
       </c>
       <c r="B21">
-        <v>6891700</v>
+        <v>5488400</v>
       </c>
       <c r="C21">
-        <v>3883200</v>
+        <v>1664100</v>
       </c>
       <c r="D21">
-        <v>102200</v>
+        <v>18700</v>
       </c>
       <c r="E21">
-        <v>117269823000</v>
+        <v>72111575000</v>
       </c>
       <c r="F21">
-        <v>64995521000</v>
+        <v>49885561000</v>
       </c>
       <c r="G21">
-        <v>1764870000</v>
+        <v>421112000</v>
       </c>
       <c r="H21">
-        <v>10877100</v>
+        <v>7171200</v>
       </c>
       <c r="I21">
-        <v>184030214000</v>
+        <v>122418248000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-14T10:45:00.000Z</v>
+        <v>2022-12-14T09:50:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4453431302000</v>
+        <v>2221178305000</v>
       </c>
       <c r="L21">
-        <v>270201700</v>
+        <v>144907200</v>
       </c>
       <c r="M21">
-        <v>-3008500</v>
+        <v>-3824300</v>
       </c>
       <c r="N21">
-        <v>-52274302000</v>
+        <v>-22226014000</v>
       </c>
       <c r="O21">
-        <v>-6958600</v>
+        <v>-3278800</v>
       </c>
       <c r="P21">
-        <v>-170790107000</v>
+        <v>-72314320000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671015000000</v>
+        <v>1671011520000</v>
       </c>
       <c r="B22">
-        <v>2524600</v>
+        <v>3213400</v>
       </c>
       <c r="C22">
-        <v>3325200</v>
+        <v>2145600</v>
       </c>
       <c r="D22">
-        <v>14900</v>
+        <v>12300</v>
       </c>
       <c r="E22">
-        <v>45641312000</v>
+        <v>49196866000</v>
       </c>
       <c r="F22">
-        <v>60439512000</v>
+        <v>46314635000</v>
       </c>
       <c r="G22">
-        <v>309725000</v>
+        <v>405920000</v>
       </c>
       <c r="H22">
-        <v>5864700</v>
+        <v>5371300</v>
       </c>
       <c r="I22">
-        <v>106390549000</v>
+        <v>95917421000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-14T10:50:00.000Z</v>
+        <v>2022-12-14T09:52:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4559821851000</v>
+        <v>2317095726000</v>
       </c>
       <c r="L22">
-        <v>276066400</v>
+        <v>150278500</v>
       </c>
       <c r="M22">
-        <v>800600</v>
+        <v>-1067800</v>
       </c>
       <c r="N22">
-        <v>14798200000</v>
+        <v>-2882231000</v>
       </c>
       <c r="O22">
-        <v>-6158000</v>
+        <v>-4346600</v>
       </c>
       <c r="P22">
-        <v>-155991907000</v>
+        <v>-75196551000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671015300000</v>
+        <v>1671011640000</v>
       </c>
       <c r="B23">
-        <v>2610500</v>
+        <v>1589100</v>
       </c>
       <c r="C23">
-        <v>2053700</v>
+        <v>2396500</v>
       </c>
       <c r="D23">
-        <v>15800</v>
+        <v>10500</v>
       </c>
       <c r="E23">
-        <v>47580369000</v>
+        <v>34682905000</v>
       </c>
       <c r="F23">
-        <v>39753031000</v>
+        <v>39399372000</v>
       </c>
       <c r="G23">
-        <v>242962000</v>
+        <v>163488000</v>
       </c>
       <c r="H23">
-        <v>4680000</v>
+        <v>3996100</v>
       </c>
       <c r="I23">
-        <v>87576362000</v>
+        <v>74245765000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-14T10:55:00.000Z</v>
+        <v>2022-12-14T09:54:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4647398213000</v>
+        <v>2391341491000</v>
       </c>
       <c r="L23">
-        <v>280746400</v>
+        <v>154274600</v>
       </c>
       <c r="M23">
-        <v>-556800</v>
+        <v>807400</v>
       </c>
       <c r="N23">
-        <v>-7827338000</v>
+        <v>4716467000</v>
       </c>
       <c r="O23">
-        <v>-6714800</v>
+        <v>-3539200</v>
       </c>
       <c r="P23">
-        <v>-163819245000</v>
+        <v>-70480084000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671015600000</v>
+        <v>1671011760000</v>
       </c>
       <c r="B24">
-        <v>2882800</v>
+        <v>1796700</v>
       </c>
       <c r="C24">
-        <v>3130000</v>
+        <v>3224000</v>
       </c>
       <c r="D24">
-        <v>2600</v>
+        <v>11500</v>
       </c>
       <c r="E24">
-        <v>55150759000</v>
+        <v>36589207000</v>
       </c>
       <c r="F24">
-        <v>59464622000</v>
+        <v>51132494000</v>
       </c>
       <c r="G24">
-        <v>40086000</v>
+        <v>254058000</v>
       </c>
       <c r="H24">
-        <v>6015400</v>
+        <v>5032200</v>
       </c>
       <c r="I24">
-        <v>114655467000</v>
+        <v>87975759000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-14T11:00:00.000Z</v>
+        <v>2022-12-14T09:56:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4762053680000</v>
+        <v>2479317250000</v>
       </c>
       <c r="L24">
-        <v>286761800</v>
+        <v>159306800</v>
       </c>
       <c r="M24">
-        <v>247200</v>
+        <v>1427300</v>
       </c>
       <c r="N24">
-        <v>4313863000</v>
+        <v>14543287000</v>
       </c>
       <c r="O24">
-        <v>-6467600</v>
+        <v>-2111900</v>
       </c>
       <c r="P24">
-        <v>-159505382000</v>
+        <v>-55936797000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671015900000</v>
+        <v>1671011880000</v>
       </c>
       <c r="B25">
-        <v>2751600</v>
+        <v>2066700</v>
       </c>
       <c r="C25">
-        <v>2592100</v>
+        <v>2520300</v>
       </c>
       <c r="D25">
-        <v>24900</v>
+        <v>29000</v>
       </c>
       <c r="E25">
-        <v>49274691000</v>
+        <v>40966822000</v>
       </c>
       <c r="F25">
-        <v>49413032000</v>
+        <v>39413135000</v>
       </c>
       <c r="G25">
-        <v>475837000</v>
+        <v>489946000</v>
       </c>
       <c r="H25">
-        <v>5368600</v>
+        <v>4616000</v>
       </c>
       <c r="I25">
-        <v>99163560000</v>
+        <v>80869903000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-14T11:05:00.000Z</v>
+        <v>2022-12-14T09:58:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4861217240000</v>
+        <v>2560187153000</v>
       </c>
       <c r="L25">
-        <v>292130400</v>
+        <v>163922800</v>
       </c>
       <c r="M25">
-        <v>-159500</v>
+        <v>453600</v>
       </c>
       <c r="N25">
-        <v>138341000</v>
+        <v>-1553687000</v>
       </c>
       <c r="O25">
-        <v>-6627100</v>
+        <v>-1658300</v>
       </c>
       <c r="P25">
-        <v>-159367041000</v>
+        <v>-57490484000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671016200000</v>
+        <v>1671012000000</v>
       </c>
       <c r="B26">
-        <v>2751700</v>
+        <v>1685400</v>
       </c>
       <c r="C26">
-        <v>5851400</v>
+        <v>1867600</v>
       </c>
       <c r="D26">
-        <v>64200</v>
+        <v>13700</v>
       </c>
       <c r="E26">
-        <v>51133846000</v>
+        <v>27267541000</v>
       </c>
       <c r="F26">
-        <v>106962086000</v>
+        <v>32260691000</v>
       </c>
       <c r="G26">
-        <v>799648000</v>
+        <v>237248000</v>
       </c>
       <c r="H26">
-        <v>8667300</v>
+        <v>3566700</v>
       </c>
       <c r="I26">
-        <v>158895580000</v>
+        <v>59765480000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-14T11:10:00.000Z</v>
+        <v>2022-12-14T10:00:00.000Z</v>
       </c>
       <c r="K26">
-        <v>5020112820000</v>
+        <v>2619952633000</v>
       </c>
       <c r="L26">
-        <v>300797700</v>
+        <v>167489500</v>
       </c>
       <c r="M26">
-        <v>3099700</v>
+        <v>182200</v>
       </c>
       <c r="N26">
-        <v>55828240000</v>
+        <v>4993150000</v>
       </c>
       <c r="O26">
-        <v>-3527400</v>
+        <v>-1476100</v>
       </c>
       <c r="P26">
-        <v>-103538801000</v>
+        <v>-52497334000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671016500000</v>
+        <v>1671012120000</v>
       </c>
       <c r="B27">
-        <v>2523700</v>
+        <v>1759800</v>
       </c>
       <c r="C27">
-        <v>6679400</v>
+        <v>2755200</v>
       </c>
       <c r="D27">
-        <v>48200</v>
+        <v>9400</v>
       </c>
       <c r="E27">
-        <v>45732488000</v>
+        <v>25450038000</v>
       </c>
       <c r="F27">
-        <v>134900010000</v>
+        <v>48078965000</v>
       </c>
       <c r="G27">
-        <v>1228529000</v>
+        <v>125836000</v>
       </c>
       <c r="H27">
-        <v>9251300</v>
+        <v>4524400</v>
       </c>
       <c r="I27">
-        <v>181861027000</v>
+        <v>73654839000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-14T11:15:00.000Z</v>
+        <v>2022-12-14T10:02:00.000Z</v>
       </c>
       <c r="K27">
-        <v>5201973847000</v>
+        <v>2693607472000</v>
       </c>
       <c r="L27">
-        <v>310049000</v>
+        <v>172013900</v>
       </c>
       <c r="M27">
-        <v>4155700</v>
+        <v>995400</v>
       </c>
       <c r="N27">
-        <v>89167522000</v>
+        <v>22628927000</v>
       </c>
       <c r="O27">
-        <v>628300</v>
+        <v>-480700</v>
       </c>
       <c r="P27">
-        <v>-14371279000</v>
+        <v>-29868407000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671016800000</v>
+        <v>1671012240000</v>
       </c>
       <c r="B28">
-        <v>7305200</v>
+        <v>1494900</v>
       </c>
       <c r="C28">
-        <v>4591900</v>
+        <v>2917400</v>
       </c>
       <c r="D28">
-        <v>27100</v>
+        <v>15600</v>
       </c>
       <c r="E28">
-        <v>166212551000</v>
+        <v>28302174000</v>
       </c>
       <c r="F28">
-        <v>99715890000</v>
+        <v>50316680000</v>
       </c>
       <c r="G28">
-        <v>792822000</v>
+        <v>468150000</v>
       </c>
       <c r="H28">
-        <v>11924200</v>
+        <v>4427900</v>
       </c>
       <c r="I28">
-        <v>266721263000</v>
+        <v>79087004000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-14T11:20:00.000Z</v>
+        <v>2022-12-14T10:04:00.000Z</v>
       </c>
       <c r="K28">
-        <v>5468695110000</v>
+        <v>2772694476000</v>
       </c>
       <c r="L28">
-        <v>321973200</v>
+        <v>176441800</v>
       </c>
       <c r="M28">
-        <v>-2713300</v>
+        <v>1422500</v>
       </c>
       <c r="N28">
-        <v>-66496661000</v>
+        <v>22014506000</v>
       </c>
       <c r="O28">
-        <v>-2085000</v>
+        <v>941800</v>
       </c>
       <c r="P28">
-        <v>-80867940000</v>
+        <v>-7853901000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671017100000</v>
+        <v>1671012360000</v>
       </c>
       <c r="B29">
-        <v>4737800</v>
+        <v>1596000</v>
       </c>
       <c r="C29">
-        <v>3337700</v>
+        <v>4841000</v>
       </c>
       <c r="D29">
-        <v>33400</v>
+        <v>6700</v>
       </c>
       <c r="E29">
-        <v>99593641000</v>
+        <v>24459177000</v>
       </c>
       <c r="F29">
-        <v>67710473000</v>
+        <v>72062357000</v>
       </c>
       <c r="G29">
-        <v>723829000</v>
+        <v>188490000</v>
       </c>
       <c r="H29">
-        <v>8108900</v>
+        <v>6443700</v>
       </c>
       <c r="I29">
-        <v>168027943000</v>
+        <v>96710024000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-14T11:25:00.000Z</v>
+        <v>2022-12-14T10:06:00.000Z</v>
       </c>
       <c r="K29">
-        <v>5636723053000</v>
+        <v>2869404500000</v>
       </c>
       <c r="L29">
-        <v>330082100</v>
+        <v>182885500</v>
       </c>
       <c r="M29">
-        <v>-1400100</v>
+        <v>3245000</v>
       </c>
       <c r="N29">
-        <v>-31883168000</v>
+        <v>47603180000</v>
       </c>
       <c r="O29">
-        <v>-3485100</v>
+        <v>4186800</v>
       </c>
       <c r="P29">
-        <v>-112751108000</v>
+        <v>39749279000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671017400000</v>
+        <v>1671012480000</v>
       </c>
       <c r="B30">
-        <v>2100</v>
+        <v>1568200</v>
       </c>
       <c r="C30">
-        <v>1000</v>
+        <v>4077100</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>22700</v>
       </c>
       <c r="E30">
-        <v>33160000</v>
+        <v>27213703000</v>
       </c>
       <c r="F30">
-        <v>32525000</v>
+        <v>67271421000</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>142164000</v>
       </c>
       <c r="H30">
-        <v>3100</v>
+        <v>5668000</v>
       </c>
       <c r="I30">
-        <v>65685000</v>
+        <v>94627288000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-14T11:30:00.000Z</v>
+        <v>2022-12-14T10:08:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5636788738000</v>
+        <v>2964031788000</v>
       </c>
       <c r="L30">
-        <v>330085200</v>
+        <v>188553500</v>
       </c>
       <c r="M30">
-        <v>-1100</v>
+        <v>2508900</v>
       </c>
       <c r="N30">
-        <v>-635000</v>
+        <v>40057718000</v>
       </c>
       <c r="O30">
-        <v>-3486200</v>
+        <v>6695700</v>
       </c>
       <c r="P30">
-        <v>-112751743000</v>
+        <v>79806997000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671022800000</v>
+        <v>1671012600000</v>
       </c>
       <c r="B31">
-        <v>12391700</v>
+        <v>1764100</v>
       </c>
       <c r="C31">
-        <v>7085800</v>
+        <v>3724500</v>
       </c>
       <c r="D31">
-        <v>286200</v>
+        <v>25000</v>
       </c>
       <c r="E31">
-        <v>196034776000</v>
+        <v>33977008000</v>
       </c>
       <c r="F31">
-        <v>127789636000</v>
+        <v>73759348000</v>
       </c>
       <c r="G31">
-        <v>4495653000</v>
+        <v>1204061000</v>
       </c>
       <c r="H31">
-        <v>19763700</v>
+        <v>5513600</v>
       </c>
       <c r="I31">
-        <v>328320065000</v>
+        <v>108940417000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-14T13:00:00.000Z</v>
+        <v>2022-12-14T10:10:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5965108803000</v>
+        <v>3072972205000</v>
       </c>
       <c r="L31">
-        <v>349848900</v>
+        <v>194067100</v>
       </c>
       <c r="M31">
-        <v>-5305900</v>
+        <v>1960400</v>
       </c>
       <c r="N31">
-        <v>-68245140000</v>
+        <v>39782340000</v>
       </c>
       <c r="O31">
-        <v>-8792100</v>
+        <v>8656100</v>
       </c>
       <c r="P31">
-        <v>-180996883000</v>
+        <v>119589337000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671023100000</v>
+        <v>1671012720000</v>
       </c>
       <c r="B32">
-        <v>17056500</v>
+        <v>1582100</v>
       </c>
       <c r="C32">
-        <v>5511200</v>
+        <v>3560700</v>
       </c>
       <c r="D32">
-        <v>73200</v>
+        <v>12500</v>
       </c>
       <c r="E32">
-        <v>260945031000</v>
+        <v>28490984000</v>
       </c>
       <c r="F32">
-        <v>82572297000</v>
+        <v>60253373000</v>
       </c>
       <c r="G32">
-        <v>1157891000</v>
+        <v>166130000</v>
       </c>
       <c r="H32">
-        <v>22640900</v>
+        <v>5155300</v>
       </c>
       <c r="I32">
-        <v>344675219000</v>
+        <v>88910487000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-14T13:05:00.000Z</v>
+        <v>2022-12-14T10:12:00.000Z</v>
       </c>
       <c r="K32">
-        <v>6309784022000</v>
+        <v>3161882692000</v>
       </c>
       <c r="L32">
-        <v>372489800</v>
+        <v>199222400</v>
       </c>
       <c r="M32">
-        <v>-11545300</v>
+        <v>1978600</v>
       </c>
       <c r="N32">
-        <v>-178372734000</v>
+        <v>31762389000</v>
       </c>
       <c r="O32">
-        <v>-20337400</v>
+        <v>10634700</v>
       </c>
       <c r="P32">
-        <v>-359369617000</v>
+        <v>151351726000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671023400000</v>
+        <v>1671012840000</v>
       </c>
       <c r="B33">
-        <v>8681200</v>
+        <v>1684700</v>
       </c>
       <c r="C33">
-        <v>7727900</v>
+        <v>2803400</v>
       </c>
       <c r="D33">
-        <v>34300</v>
+        <v>19300</v>
       </c>
       <c r="E33">
-        <v>111799970000</v>
+        <v>29400403000</v>
       </c>
       <c r="F33">
-        <v>123724703000</v>
+        <v>54360153000</v>
       </c>
       <c r="G33">
-        <v>410611000</v>
+        <v>416285000</v>
       </c>
       <c r="H33">
-        <v>16443400</v>
+        <v>4507400</v>
       </c>
       <c r="I33">
-        <v>235935284000</v>
+        <v>84176841000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-14T13:10:00.000Z</v>
+        <v>2022-12-14T10:14:00.000Z</v>
       </c>
       <c r="K33">
-        <v>6545719306000</v>
+        <v>3246059533000</v>
       </c>
       <c r="L33">
-        <v>388933200</v>
+        <v>203729800</v>
       </c>
       <c r="M33">
-        <v>-953300</v>
+        <v>1118700</v>
       </c>
       <c r="N33">
-        <v>11924733000</v>
+        <v>24959750000</v>
       </c>
       <c r="O33">
-        <v>-21290700</v>
+        <v>11753400</v>
       </c>
       <c r="P33">
-        <v>-347444884000</v>
+        <v>176311476000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671023700000</v>
+        <v>1671012960000</v>
       </c>
       <c r="B34">
-        <v>6018300</v>
+        <v>1713000</v>
       </c>
       <c r="C34">
-        <v>6366400</v>
+        <v>3219100</v>
       </c>
       <c r="D34">
-        <v>54100</v>
+        <v>3600</v>
       </c>
       <c r="E34">
-        <v>115141845000</v>
+        <v>34074961000</v>
       </c>
       <c r="F34">
-        <v>111785172000</v>
+        <v>61850757000</v>
       </c>
       <c r="G34">
-        <v>911572000</v>
+        <v>93708000</v>
       </c>
       <c r="H34">
-        <v>12438800</v>
+        <v>4935700</v>
       </c>
       <c r="I34">
-        <v>227838589000</v>
+        <v>96019426000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-14T13:15:00.000Z</v>
+        <v>2022-12-14T10:16:00.000Z</v>
       </c>
       <c r="K34">
-        <v>6773557895000</v>
+        <v>3342078959000</v>
       </c>
       <c r="L34">
-        <v>401372000</v>
+        <v>208665500</v>
       </c>
       <c r="M34">
-        <v>348100</v>
+        <v>1506100</v>
       </c>
       <c r="N34">
-        <v>-3356673000</v>
+        <v>27775796000</v>
       </c>
       <c r="O34">
-        <v>-20942600</v>
+        <v>13259500</v>
       </c>
       <c r="P34">
-        <v>-350801557000</v>
+        <v>204087272000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671024000000</v>
+        <v>1671013080000</v>
       </c>
       <c r="B35">
-        <v>6971200</v>
+        <v>2493900</v>
       </c>
       <c r="C35">
-        <v>9575500</v>
+        <v>2748700</v>
       </c>
       <c r="D35">
-        <v>77500</v>
+        <v>16300</v>
       </c>
       <c r="E35">
-        <v>117015164000</v>
+        <v>55296885000</v>
       </c>
       <c r="F35">
-        <v>169246378000</v>
+        <v>51418577000</v>
       </c>
       <c r="G35">
-        <v>1244956000</v>
+        <v>208368000</v>
       </c>
       <c r="H35">
-        <v>16624200</v>
+        <v>5258900</v>
       </c>
       <c r="I35">
-        <v>287506498000</v>
+        <v>106923830000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-14T13:20:00.000Z</v>
+        <v>2022-12-14T10:18:00.000Z</v>
       </c>
       <c r="K35">
-        <v>7061064393000</v>
+        <v>3449002789000</v>
       </c>
       <c r="L35">
-        <v>417996200</v>
+        <v>213924400</v>
       </c>
       <c r="M35">
-        <v>2604300</v>
+        <v>254800</v>
       </c>
       <c r="N35">
-        <v>52231214000</v>
+        <v>-3878308000</v>
       </c>
       <c r="O35">
-        <v>-18338300</v>
+        <v>13514300</v>
       </c>
       <c r="P35">
-        <v>-298570343000</v>
+        <v>200208964000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671024300000</v>
+        <v>1671013200000</v>
       </c>
       <c r="B36">
-        <v>7130300</v>
+        <v>3448400</v>
       </c>
       <c r="C36">
-        <v>18810700</v>
+        <v>1113000</v>
       </c>
       <c r="D36">
-        <v>58900</v>
+        <v>17400</v>
       </c>
       <c r="E36">
-        <v>126089640000</v>
+        <v>66829296000</v>
       </c>
       <c r="F36">
-        <v>327722618000</v>
+        <v>19290674000</v>
       </c>
       <c r="G36">
-        <v>1357687000</v>
+        <v>441421000</v>
       </c>
       <c r="H36">
-        <v>25999900</v>
+        <v>4578800</v>
       </c>
       <c r="I36">
-        <v>455169945000</v>
+        <v>86561391000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-14T13:25:00.000Z</v>
+        <v>2022-12-14T10:20:00.000Z</v>
       </c>
       <c r="K36">
-        <v>7516234338000</v>
+        <v>3535564180000</v>
       </c>
       <c r="L36">
-        <v>443996100</v>
+        <v>218503200</v>
       </c>
       <c r="M36">
-        <v>11680400</v>
+        <v>-2335400</v>
       </c>
       <c r="N36">
-        <v>201632978000</v>
+        <v>-47538622000</v>
       </c>
       <c r="O36">
-        <v>-6657900</v>
+        <v>11178900</v>
       </c>
       <c r="P36">
-        <v>-96937365000</v>
+        <v>152670342000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671024600000</v>
+        <v>1671013320000</v>
       </c>
       <c r="B37">
-        <v>9656900</v>
+        <v>3334200</v>
       </c>
       <c r="C37">
-        <v>6153400</v>
+        <v>946900</v>
       </c>
       <c r="D37">
-        <v>71500</v>
+        <v>15100</v>
       </c>
       <c r="E37">
-        <v>184798138000</v>
+        <v>59861214000</v>
       </c>
       <c r="F37">
-        <v>111550972000</v>
+        <v>17071176000</v>
       </c>
       <c r="G37">
-        <v>2172947000</v>
+        <v>486060000</v>
       </c>
       <c r="H37">
-        <v>15881800</v>
+        <v>4296200</v>
       </c>
       <c r="I37">
-        <v>298522057000</v>
+        <v>77418450000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-14T13:30:00.000Z</v>
+        <v>2022-12-14T10:22:00.000Z</v>
       </c>
       <c r="K37">
-        <v>7814756395000</v>
+        <v>3612982630000</v>
       </c>
       <c r="L37">
-        <v>459877900</v>
+        <v>222799400</v>
       </c>
       <c r="M37">
-        <v>-3503500</v>
+        <v>-2387300</v>
       </c>
       <c r="N37">
-        <v>-73247166000</v>
+        <v>-42790038000</v>
       </c>
       <c r="O37">
-        <v>-10161400</v>
+        <v>8791600</v>
       </c>
       <c r="P37">
-        <v>-170184531000</v>
+        <v>109880304000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671024900000</v>
+        <v>1671013440000</v>
       </c>
       <c r="B38">
-        <v>7449700</v>
+        <v>2194800</v>
       </c>
       <c r="C38">
-        <v>4376900</v>
+        <v>1160300</v>
       </c>
       <c r="D38">
-        <v>79300</v>
+        <v>9100</v>
       </c>
       <c r="E38">
-        <v>136759659000</v>
+        <v>42170369000</v>
       </c>
       <c r="F38">
-        <v>78840017000</v>
+        <v>21473104000</v>
       </c>
       <c r="G38">
-        <v>1135132000</v>
+        <v>118480000</v>
       </c>
       <c r="H38">
-        <v>11905900</v>
+        <v>3364200</v>
       </c>
       <c r="I38">
-        <v>216734808000</v>
+        <v>63761953000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-14T13:35:00.000Z</v>
+        <v>2022-12-14T10:24:00.000Z</v>
       </c>
       <c r="K38">
-        <v>8031491203000</v>
+        <v>3676744583000</v>
       </c>
       <c r="L38">
-        <v>471783800</v>
+        <v>226163600</v>
       </c>
       <c r="M38">
-        <v>-3072800</v>
+        <v>-1034500</v>
       </c>
       <c r="N38">
-        <v>-57919642000</v>
+        <v>-20697265000</v>
       </c>
       <c r="O38">
-        <v>-13234200</v>
+        <v>7757100</v>
       </c>
       <c r="P38">
-        <v>-228104173000</v>
+        <v>89183039000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671025200000</v>
+        <v>1671013560000</v>
       </c>
       <c r="B39">
-        <v>6780300</v>
+        <v>2512200</v>
       </c>
       <c r="C39">
-        <v>4597500</v>
+        <v>1126700</v>
       </c>
       <c r="D39">
-        <v>23500</v>
+        <v>36300</v>
       </c>
       <c r="E39">
-        <v>124534972000</v>
+        <v>41349862000</v>
       </c>
       <c r="F39">
-        <v>77440010000</v>
+        <v>21803918000</v>
       </c>
       <c r="G39">
-        <v>536245000</v>
+        <v>498865000</v>
       </c>
       <c r="H39">
-        <v>11401300</v>
+        <v>3675200</v>
       </c>
       <c r="I39">
-        <v>202511227000</v>
+        <v>63652645000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-14T13:40:00.000Z</v>
+        <v>2022-12-14T10:26:00.000Z</v>
       </c>
       <c r="K39">
-        <v>8234002430000</v>
+        <v>3740397228000</v>
       </c>
       <c r="L39">
-        <v>483185100</v>
+        <v>229838800</v>
       </c>
       <c r="M39">
-        <v>-2182800</v>
+        <v>-1385500</v>
       </c>
       <c r="N39">
-        <v>-47094962000</v>
+        <v>-19545944000</v>
       </c>
       <c r="O39">
-        <v>-15417000</v>
+        <v>6371600</v>
       </c>
       <c r="P39">
-        <v>-275199135000</v>
+        <v>69637095000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671025500000</v>
+        <v>1671013680000</v>
       </c>
       <c r="B40">
-        <v>11481300</v>
+        <v>1922500</v>
       </c>
       <c r="C40">
-        <v>3354100</v>
+        <v>1109200</v>
       </c>
       <c r="D40">
-        <v>36400</v>
+        <v>8900</v>
       </c>
       <c r="E40">
-        <v>226790413000</v>
+        <v>31625287000</v>
       </c>
       <c r="F40">
-        <v>63101331000</v>
+        <v>20854165000</v>
       </c>
       <c r="G40">
-        <v>631548000</v>
+        <v>98121000</v>
       </c>
       <c r="H40">
-        <v>14871800</v>
+        <v>3040600</v>
       </c>
       <c r="I40">
-        <v>290523292000</v>
+        <v>52577573000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-14T13:45:00.000Z</v>
+        <v>2022-12-14T10:28:00.000Z</v>
       </c>
       <c r="K40">
-        <v>8524525722000</v>
+        <v>3792974801000</v>
       </c>
       <c r="L40">
-        <v>498056900</v>
+        <v>232879400</v>
       </c>
       <c r="M40">
-        <v>-8127200</v>
+        <v>-813300</v>
       </c>
       <c r="N40">
-        <v>-163689082000</v>
+        <v>-10771122000</v>
       </c>
       <c r="O40">
-        <v>-23544200</v>
+        <v>5558300</v>
       </c>
       <c r="P40">
-        <v>-438888217000</v>
+        <v>58865973000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671025800000</v>
+        <v>1671013800000</v>
       </c>
       <c r="B41">
-        <v>6321400</v>
+        <v>1288400</v>
       </c>
       <c r="C41">
-        <v>5060200</v>
+        <v>896500</v>
       </c>
       <c r="D41">
-        <v>40000</v>
+        <v>6600</v>
       </c>
       <c r="E41">
-        <v>118787735000</v>
+        <v>21891784000</v>
       </c>
       <c r="F41">
-        <v>92141324000</v>
+        <v>15983909000</v>
       </c>
       <c r="G41">
-        <v>364119000</v>
+        <v>95072000</v>
       </c>
       <c r="H41">
-        <v>11421600</v>
+        <v>2191500</v>
       </c>
       <c r="I41">
-        <v>211293178000</v>
+        <v>37970765000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-14T13:50:00.000Z</v>
+        <v>2022-12-14T10:30:00.000Z</v>
       </c>
       <c r="K41">
-        <v>8735818900000</v>
+        <v>3830945566000</v>
       </c>
       <c r="L41">
-        <v>509478500</v>
+        <v>235070900</v>
       </c>
       <c r="M41">
-        <v>-1261200</v>
+        <v>-391900</v>
       </c>
       <c r="N41">
-        <v>-26646411000</v>
+        <v>-5907875000</v>
       </c>
       <c r="O41">
-        <v>-24805400</v>
+        <v>5166400</v>
       </c>
       <c r="P41">
-        <v>-465534628000</v>
+        <v>52958098000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671026100000</v>
+        <v>1671013920000</v>
       </c>
       <c r="B42">
-        <v>7446600</v>
+        <v>1434600</v>
       </c>
       <c r="C42">
-        <v>3117800</v>
+        <v>1578100</v>
       </c>
       <c r="D42">
-        <v>19300</v>
+        <v>13200</v>
       </c>
       <c r="E42">
-        <v>137091071000</v>
+        <v>27642003000</v>
       </c>
       <c r="F42">
-        <v>60860018000</v>
+        <v>31350569000</v>
       </c>
       <c r="G42">
-        <v>399821000</v>
+        <v>500064000</v>
       </c>
       <c r="H42">
-        <v>10583700</v>
+        <v>3025900</v>
       </c>
       <c r="I42">
-        <v>198350910000</v>
+        <v>59492636000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-14T13:55:00.000Z</v>
+        <v>2022-12-14T10:32:00.000Z</v>
       </c>
       <c r="K42">
-        <v>8934169810000</v>
+        <v>3890438202000</v>
       </c>
       <c r="L42">
-        <v>520062200</v>
+        <v>238096800</v>
       </c>
       <c r="M42">
-        <v>-4328800</v>
+        <v>143500</v>
       </c>
       <c r="N42">
-        <v>-76231053000</v>
+        <v>3708566000</v>
       </c>
       <c r="O42">
-        <v>-29134200</v>
+        <v>5309900</v>
       </c>
       <c r="P42">
-        <v>-541765681000</v>
+        <v>56666664000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671026400000</v>
+        <v>1671014040000</v>
       </c>
       <c r="B43">
-        <v>10763700</v>
+        <v>1384700</v>
       </c>
       <c r="C43">
-        <v>9188800</v>
+        <v>1006700</v>
       </c>
       <c r="D43">
-        <v>145600</v>
+        <v>56200</v>
       </c>
       <c r="E43">
-        <v>191006681000</v>
+        <v>22642859000</v>
       </c>
       <c r="F43">
-        <v>196476394000</v>
+        <v>18669595000</v>
       </c>
       <c r="G43">
-        <v>2799065000</v>
+        <v>957681000</v>
       </c>
       <c r="H43">
-        <v>20098100</v>
+        <v>2447600</v>
       </c>
       <c r="I43">
-        <v>390282140000</v>
+        <v>42270135000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-14T14:00:00.000Z</v>
+        <v>2022-12-14T10:34:00.000Z</v>
       </c>
       <c r="K43">
-        <v>9324451950000</v>
+        <v>3932708337000</v>
       </c>
       <c r="L43">
-        <v>540160300</v>
+        <v>240544400</v>
       </c>
       <c r="M43">
-        <v>-1574900</v>
+        <v>-378000</v>
       </c>
       <c r="N43">
-        <v>5469713000</v>
+        <v>-3973264000</v>
       </c>
       <c r="O43">
-        <v>-30709100</v>
+        <v>4931900</v>
       </c>
       <c r="P43">
-        <v>-536295968000</v>
+        <v>52693400000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671026700000</v>
+        <v>1671014160000</v>
       </c>
       <c r="B44">
-        <v>6411200</v>
+        <v>1305500</v>
       </c>
       <c r="C44">
-        <v>7434000</v>
+        <v>1033700</v>
       </c>
       <c r="D44">
-        <v>16500</v>
+        <v>2100</v>
       </c>
       <c r="E44">
-        <v>118576373000</v>
+        <v>23451646000</v>
       </c>
       <c r="F44">
-        <v>132850856000</v>
+        <v>18452048000</v>
       </c>
       <c r="G44">
-        <v>316895000</v>
+        <v>9042000</v>
       </c>
       <c r="H44">
-        <v>13861700</v>
+        <v>2341300</v>
       </c>
       <c r="I44">
-        <v>251744124000</v>
+        <v>41912736000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-14T14:05:00.000Z</v>
+        <v>2022-12-14T10:36:00.000Z</v>
       </c>
       <c r="K44">
-        <v>9576196074000</v>
+        <v>3974621073000</v>
       </c>
       <c r="L44">
-        <v>554022000</v>
+        <v>242885700</v>
       </c>
       <c r="M44">
-        <v>1022800</v>
+        <v>-271800</v>
       </c>
       <c r="N44">
-        <v>14274483000</v>
+        <v>-4999598000</v>
       </c>
       <c r="O44">
-        <v>-29686300</v>
+        <v>4660100</v>
       </c>
       <c r="P44">
-        <v>-522021485000</v>
+        <v>47693802000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671027000000</v>
+        <v>1671014280000</v>
       </c>
       <c r="B45">
-        <v>5056800</v>
+        <v>1781800</v>
       </c>
       <c r="C45">
-        <v>4589500</v>
+        <v>1034100</v>
       </c>
       <c r="D45">
-        <v>24100</v>
+        <v>8500</v>
       </c>
       <c r="E45">
-        <v>101419088000</v>
+        <v>30193778000</v>
       </c>
       <c r="F45">
-        <v>97145340000</v>
+        <v>18072719000</v>
       </c>
       <c r="G45">
-        <v>793234000</v>
+        <v>80180000</v>
       </c>
       <c r="H45">
-        <v>9670400</v>
+        <v>2824400</v>
       </c>
       <c r="I45">
-        <v>199357662000</v>
+        <v>48346677000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-14T14:10:00.000Z</v>
+        <v>2022-12-14T10:38:00.000Z</v>
       </c>
       <c r="K45">
-        <v>9775553736000</v>
+        <v>4022967750000</v>
       </c>
       <c r="L45">
-        <v>563692400</v>
+        <v>245710100</v>
       </c>
       <c r="M45">
-        <v>-467300</v>
+        <v>-747700</v>
       </c>
       <c r="N45">
-        <v>-4273748000</v>
+        <v>-12121059000</v>
       </c>
       <c r="O45">
-        <v>-30153600</v>
+        <v>3912400</v>
       </c>
       <c r="P45">
-        <v>-526295233000</v>
+        <v>35572743000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671027300000</v>
+        <v>1671014400000</v>
       </c>
       <c r="B46">
-        <v>5775800</v>
+        <v>4621500</v>
       </c>
       <c r="C46">
-        <v>5371500</v>
+        <v>1298300</v>
       </c>
       <c r="D46">
-        <v>13800</v>
+        <v>33600</v>
       </c>
       <c r="E46">
-        <v>106582255000</v>
+        <v>91733250000</v>
       </c>
       <c r="F46">
-        <v>109152800000</v>
+        <v>21042893000</v>
       </c>
       <c r="G46">
-        <v>386280000</v>
+        <v>919238000</v>
       </c>
       <c r="H46">
-        <v>11161100</v>
+        <v>5953400</v>
       </c>
       <c r="I46">
-        <v>216121335000</v>
+        <v>113695381000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-14T14:15:00.000Z</v>
+        <v>2022-12-14T10:40:00.000Z</v>
       </c>
       <c r="K46">
-        <v>9991675071000</v>
+        <v>4136663131000</v>
       </c>
       <c r="L46">
-        <v>574853500</v>
+        <v>251663500</v>
       </c>
       <c r="M46">
-        <v>-404300</v>
+        <v>-3323200</v>
       </c>
       <c r="N46">
-        <v>2570545000</v>
+        <v>-70690357000</v>
       </c>
       <c r="O46">
-        <v>-30557900</v>
+        <v>589200</v>
       </c>
       <c r="P46">
-        <v>-523724688000</v>
+        <v>-35117614000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671027600000</v>
+        <v>1671014520000</v>
       </c>
       <c r="B47">
-        <v>10560000</v>
+        <v>3393100</v>
       </c>
       <c r="C47">
-        <v>3502600</v>
+        <v>1017100</v>
       </c>
       <c r="D47">
-        <v>37700</v>
+        <v>19900</v>
       </c>
       <c r="E47">
-        <v>197700660000</v>
+        <v>59038058000</v>
       </c>
       <c r="F47">
-        <v>63731065000</v>
+        <v>15260733000</v>
       </c>
       <c r="G47">
-        <v>610191000</v>
+        <v>293491000</v>
       </c>
       <c r="H47">
-        <v>14100300</v>
+        <v>4430100</v>
       </c>
       <c r="I47">
-        <v>262041916000</v>
+        <v>74592282000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-14T14:20:00.000Z</v>
+        <v>2022-12-14T10:42:00.000Z</v>
       </c>
       <c r="K47">
-        <v>10253716987000</v>
+        <v>4211255413000</v>
       </c>
       <c r="L47">
-        <v>588953800</v>
+        <v>256093600</v>
       </c>
       <c r="M47">
-        <v>-7057400</v>
+        <v>-2376000</v>
       </c>
       <c r="N47">
-        <v>-133969595000</v>
+        <v>-43777325000</v>
       </c>
       <c r="O47">
-        <v>-37615300</v>
+        <v>-1786800</v>
       </c>
       <c r="P47">
-        <v>-657694283000</v>
+        <v>-78894939000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671027900000</v>
+        <v>1671014640000</v>
       </c>
       <c r="B48">
-        <v>13859000</v>
+        <v>5037500</v>
       </c>
       <c r="C48">
-        <v>5882200</v>
+        <v>1069100</v>
       </c>
       <c r="D48">
-        <v>90300</v>
+        <v>15000</v>
       </c>
       <c r="E48">
-        <v>208071377000</v>
+        <v>91694867000</v>
       </c>
       <c r="F48">
-        <v>115024386000</v>
+        <v>17875127000</v>
       </c>
       <c r="G48">
-        <v>1314473000</v>
+        <v>162211000</v>
       </c>
       <c r="H48">
-        <v>19831500</v>
+        <v>6121600</v>
       </c>
       <c r="I48">
-        <v>324410236000</v>
+        <v>109732205000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-14T14:25:00.000Z</v>
+        <v>2022-12-14T10:44:00.000Z</v>
       </c>
       <c r="K48">
-        <v>10578127223000</v>
+        <v>4320987618000</v>
       </c>
       <c r="L48">
-        <v>608785300</v>
+        <v>262215200</v>
       </c>
       <c r="M48">
-        <v>-7976800</v>
+        <v>-3968400</v>
       </c>
       <c r="N48">
-        <v>-93046991000</v>
+        <v>-73819740000</v>
       </c>
       <c r="O48">
-        <v>-45592100</v>
+        <v>-5755200</v>
       </c>
       <c r="P48">
-        <v>-750741274000</v>
+        <v>-152714679000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671028200000</v>
+        <v>1671014760000</v>
       </c>
       <c r="B49">
-        <v>26100</v>
+        <v>3461700</v>
       </c>
       <c r="C49">
-        <v>11800</v>
+        <v>1148900</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>82300</v>
       </c>
       <c r="E49">
-        <v>214773000</v>
+        <v>56472319000</v>
       </c>
       <c r="F49">
-        <v>138419000</v>
+        <v>18879225000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1475362000</v>
       </c>
       <c r="H49">
-        <v>37900</v>
+        <v>4692900</v>
       </c>
       <c r="I49">
-        <v>353192000</v>
+        <v>76826906000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-14T14:30:00.000Z</v>
+        <v>2022-12-14T10:46:00.000Z</v>
       </c>
       <c r="K49">
-        <v>10578480415000</v>
+        <v>4397814524000</v>
       </c>
       <c r="L49">
-        <v>608823200</v>
+        <v>266908100</v>
       </c>
       <c r="M49">
-        <v>-14300</v>
+        <v>-2312800</v>
       </c>
       <c r="N49">
-        <v>-76354000</v>
+        <v>-37593094000</v>
       </c>
       <c r="O49">
-        <v>-45606400</v>
+        <v>-8068000</v>
       </c>
       <c r="P49">
-        <v>-750817628000</v>
+        <v>-190307773000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671028500000</v>
+        <v>1671014880000</v>
       </c>
       <c r="B50">
-        <v>100</v>
+        <v>1083400</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2192800</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="E50">
-        <v>1019999.9999999999</v>
+        <v>17931271000</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>37448937000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>236570000</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>3293600</v>
       </c>
       <c r="I50">
-        <v>1019999.9999999999</v>
+        <v>55616778000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-14T14:35:00.000Z</v>
+        <v>2022-12-14T10:48:00.000Z</v>
       </c>
       <c r="K50">
-        <v>10578481435000</v>
+        <v>4453431302000</v>
       </c>
       <c r="L50">
-        <v>608823300</v>
+        <v>270201700</v>
       </c>
       <c r="M50">
-        <v>-100</v>
+        <v>1109400</v>
       </c>
       <c r="N50">
-        <v>-1019999.9999999999</v>
+        <v>19517666000</v>
       </c>
       <c r="O50">
-        <v>-45606500</v>
+        <v>-6958600</v>
       </c>
       <c r="P50">
-        <v>-750818648000</v>
+        <v>-170790107000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1671029100000</v>
+        <v>1671015000000</v>
       </c>
       <c r="B51">
-        <v>973500</v>
+        <v>1115800</v>
       </c>
       <c r="C51">
-        <v>870200</v>
+        <v>1095800</v>
       </c>
       <c r="D51">
-        <v>23226400</v>
+        <v>400</v>
       </c>
       <c r="E51">
-        <v>16867075000</v>
+        <v>20213011000</v>
       </c>
       <c r="F51">
-        <v>14183692000</v>
+        <v>20407179000</v>
       </c>
       <c r="G51">
-        <v>534796295000</v>
+        <v>11496000</v>
       </c>
       <c r="H51">
-        <v>25070100</v>
+        <v>2212000</v>
       </c>
       <c r="I51">
-        <v>565847062000</v>
+        <v>40631686000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-14T14:45:00.000Z</v>
+        <v>2022-12-14T10:50:00.000Z</v>
       </c>
       <c r="K51">
-        <v>11144328497000</v>
+        <v>4494062988000</v>
       </c>
       <c r="L51">
-        <v>633893400</v>
+        <v>272413700</v>
       </c>
       <c r="M51">
-        <v>-103300</v>
+        <v>-20000</v>
       </c>
       <c r="N51">
-        <v>-2683383000</v>
+        <v>194168000</v>
       </c>
       <c r="O51">
-        <v>-45709800</v>
+        <v>-6978600</v>
       </c>
       <c r="P51">
-        <v>-753502031000</v>
+        <v>-170595939000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>1671015120000</v>
+      </c>
+      <c r="B52">
+        <v>859700</v>
+      </c>
+      <c r="C52">
+        <v>1424200</v>
+      </c>
+      <c r="D52">
+        <v>900</v>
+      </c>
+      <c r="E52">
+        <v>14198619000</v>
+      </c>
+      <c r="F52">
+        <v>26343854000</v>
+      </c>
+      <c r="G52">
+        <v>8660000</v>
+      </c>
+      <c r="H52">
+        <v>2284800</v>
+      </c>
+      <c r="I52">
+        <v>40551133000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-14T10:52:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>4534614121000</v>
+      </c>
+      <c r="L52">
+        <v>274698500</v>
+      </c>
+      <c r="M52">
+        <v>564500</v>
+      </c>
+      <c r="N52">
+        <v>12145235000</v>
+      </c>
+      <c r="O52">
+        <v>-6414100</v>
+      </c>
+      <c r="P52">
+        <v>-158450704000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1671015240000</v>
+      </c>
+      <c r="B53">
+        <v>1071800</v>
+      </c>
+      <c r="C53">
+        <v>1200600</v>
+      </c>
+      <c r="D53">
+        <v>13600</v>
+      </c>
+      <c r="E53">
+        <v>20867203000</v>
+      </c>
+      <c r="F53">
+        <v>21462877000</v>
+      </c>
+      <c r="G53">
+        <v>289569000</v>
+      </c>
+      <c r="H53">
+        <v>2286000</v>
+      </c>
+      <c r="I53">
+        <v>42619649000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-14T10:54:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4577233770000</v>
+      </c>
+      <c r="L53">
+        <v>276984500</v>
+      </c>
+      <c r="M53">
+        <v>128800</v>
+      </c>
+      <c r="N53">
+        <v>595674000</v>
+      </c>
+      <c r="O53">
+        <v>-6285300</v>
+      </c>
+      <c r="P53">
+        <v>-157855030000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1671015360000</v>
+      </c>
+      <c r="B54">
+        <v>900800</v>
+      </c>
+      <c r="C54">
+        <v>908100</v>
+      </c>
+      <c r="D54">
+        <v>8000</v>
+      </c>
+      <c r="E54">
+        <v>16643233000</v>
+      </c>
+      <c r="F54">
+        <v>17207737000</v>
+      </c>
+      <c r="G54">
+        <v>132000000</v>
+      </c>
+      <c r="H54">
+        <v>1816900</v>
+      </c>
+      <c r="I54">
+        <v>33982970000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-14T10:56:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4611216740000</v>
+      </c>
+      <c r="L54">
+        <v>278801400</v>
+      </c>
+      <c r="M54">
+        <v>7300</v>
+      </c>
+      <c r="N54">
+        <v>564504000</v>
+      </c>
+      <c r="O54">
+        <v>-6278000</v>
+      </c>
+      <c r="P54">
+        <v>-157290526000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671015480000</v>
+      </c>
+      <c r="B55">
+        <v>1187000</v>
+      </c>
+      <c r="C55">
+        <v>750200</v>
+      </c>
+      <c r="D55">
+        <v>7800</v>
+      </c>
+      <c r="E55">
+        <v>21299615000</v>
+      </c>
+      <c r="F55">
+        <v>14770896000</v>
+      </c>
+      <c r="G55">
+        <v>110962000</v>
+      </c>
+      <c r="H55">
+        <v>1945000</v>
+      </c>
+      <c r="I55">
+        <v>36181473000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-14T10:58:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4647398213000</v>
+      </c>
+      <c r="L55">
+        <v>280746400</v>
+      </c>
+      <c r="M55">
+        <v>-436800</v>
+      </c>
+      <c r="N55">
+        <v>-6528719000</v>
+      </c>
+      <c r="O55">
+        <v>-6714800</v>
+      </c>
+      <c r="P55">
+        <v>-163819245000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671015600000</v>
+      </c>
+      <c r="B56">
+        <v>1315800</v>
+      </c>
+      <c r="C56">
+        <v>1253100</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>21907241000</v>
+      </c>
+      <c r="F56">
+        <v>28265388000</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>2568900</v>
+      </c>
+      <c r="I56">
+        <v>50172629000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-14T11:00:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4697570842000</v>
+      </c>
+      <c r="L56">
+        <v>283315300</v>
+      </c>
+      <c r="M56">
+        <v>-62700</v>
+      </c>
+      <c r="N56">
+        <v>6358147000</v>
+      </c>
+      <c r="O56">
+        <v>-6777500</v>
+      </c>
+      <c r="P56">
+        <v>-157461098000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671015720000</v>
+      </c>
+      <c r="B57">
+        <v>1014600</v>
+      </c>
+      <c r="C57">
+        <v>1409500</v>
+      </c>
+      <c r="D57">
+        <v>2200</v>
+      </c>
+      <c r="E57">
+        <v>20825704000</v>
+      </c>
+      <c r="F57">
+        <v>23465805000</v>
+      </c>
+      <c r="G57">
+        <v>36614000</v>
+      </c>
+      <c r="H57">
+        <v>2426300</v>
+      </c>
+      <c r="I57">
+        <v>44328123000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-14T11:02:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4741898965000</v>
+      </c>
+      <c r="L57">
+        <v>285741600</v>
+      </c>
+      <c r="M57">
+        <v>394900</v>
+      </c>
+      <c r="N57">
+        <v>2640101000</v>
+      </c>
+      <c r="O57">
+        <v>-6382600</v>
+      </c>
+      <c r="P57">
+        <v>-154820997000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671015840000</v>
+      </c>
+      <c r="B58">
+        <v>1045500</v>
+      </c>
+      <c r="C58">
+        <v>1085800</v>
+      </c>
+      <c r="D58">
+        <v>13400</v>
+      </c>
+      <c r="E58">
+        <v>21204492000</v>
+      </c>
+      <c r="F58">
+        <v>18676782000</v>
+      </c>
+      <c r="G58">
+        <v>140077000</v>
+      </c>
+      <c r="H58">
+        <v>2144700</v>
+      </c>
+      <c r="I58">
+        <v>40021351000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-14T11:04:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4781920316000</v>
+      </c>
+      <c r="L58">
+        <v>287886300</v>
+      </c>
+      <c r="M58">
+        <v>40300</v>
+      </c>
+      <c r="N58">
+        <v>-2527710000</v>
+      </c>
+      <c r="O58">
+        <v>-6342300</v>
+      </c>
+      <c r="P58">
+        <v>-157348707000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671015960000</v>
+      </c>
+      <c r="B59">
+        <v>980000</v>
+      </c>
+      <c r="C59">
+        <v>792900</v>
+      </c>
+      <c r="D59">
+        <v>7100</v>
+      </c>
+      <c r="E59">
+        <v>15868292000</v>
+      </c>
+      <c r="F59">
+        <v>15092972000</v>
+      </c>
+      <c r="G59">
+        <v>214462000</v>
+      </c>
+      <c r="H59">
+        <v>1780000</v>
+      </c>
+      <c r="I59">
+        <v>31175726000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-14T11:06:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4813096042000</v>
+      </c>
+      <c r="L59">
+        <v>289666300</v>
+      </c>
+      <c r="M59">
+        <v>-187100</v>
+      </c>
+      <c r="N59">
+        <v>-775320000</v>
+      </c>
+      <c r="O59">
+        <v>-6529400</v>
+      </c>
+      <c r="P59">
+        <v>-158124027000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671016080000</v>
+      </c>
+      <c r="B60">
+        <v>1278500</v>
+      </c>
+      <c r="C60">
+        <v>1180800</v>
+      </c>
+      <c r="D60">
+        <v>4800</v>
+      </c>
+      <c r="E60">
+        <v>24619721000</v>
+      </c>
+      <c r="F60">
+        <v>23376707000</v>
+      </c>
+      <c r="G60">
+        <v>124770000</v>
+      </c>
+      <c r="H60">
+        <v>2464100</v>
+      </c>
+      <c r="I60">
+        <v>48121198000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-14T11:08:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4861217240000</v>
+      </c>
+      <c r="L60">
+        <v>292130400</v>
+      </c>
+      <c r="M60">
+        <v>-97700</v>
+      </c>
+      <c r="N60">
+        <v>-1243014000</v>
+      </c>
+      <c r="O60">
+        <v>-6627100</v>
+      </c>
+      <c r="P60">
+        <v>-159367041000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671016200000</v>
+      </c>
+      <c r="B61">
+        <v>1087900</v>
+      </c>
+      <c r="C61">
+        <v>1449200</v>
+      </c>
+      <c r="D61">
+        <v>8600</v>
+      </c>
+      <c r="E61">
+        <v>20053517000</v>
+      </c>
+      <c r="F61">
+        <v>27329142000</v>
+      </c>
+      <c r="G61">
+        <v>104635000</v>
+      </c>
+      <c r="H61">
+        <v>2545700</v>
+      </c>
+      <c r="I61">
+        <v>47487294000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-14T11:10:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4908704534000</v>
+      </c>
+      <c r="L61">
+        <v>294676100</v>
+      </c>
+      <c r="M61">
+        <v>361300</v>
+      </c>
+      <c r="N61">
+        <v>7275625000</v>
+      </c>
+      <c r="O61">
+        <v>-6265800</v>
+      </c>
+      <c r="P61">
+        <v>-152091416000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671016320000</v>
+      </c>
+      <c r="B62">
+        <v>1092600</v>
+      </c>
+      <c r="C62">
+        <v>2625500</v>
+      </c>
+      <c r="D62">
+        <v>49600</v>
+      </c>
+      <c r="E62">
+        <v>19348576000</v>
+      </c>
+      <c r="F62">
+        <v>46848828000</v>
+      </c>
+      <c r="G62">
+        <v>583373000</v>
+      </c>
+      <c r="H62">
+        <v>3767700</v>
+      </c>
+      <c r="I62">
+        <v>66780777000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-14T11:12:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4975485311000</v>
+      </c>
+      <c r="L62">
+        <v>298443800</v>
+      </c>
+      <c r="M62">
+        <v>1532900</v>
+      </c>
+      <c r="N62">
+        <v>27500252000</v>
+      </c>
+      <c r="O62">
+        <v>-4732900</v>
+      </c>
+      <c r="P62">
+        <v>-124591164000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671016440000</v>
+      </c>
+      <c r="B63">
+        <v>1063400</v>
+      </c>
+      <c r="C63">
+        <v>2855400</v>
+      </c>
+      <c r="D63">
+        <v>21700</v>
+      </c>
+      <c r="E63">
+        <v>20678615000</v>
+      </c>
+      <c r="F63">
+        <v>56333577000</v>
+      </c>
+      <c r="G63">
+        <v>578810000</v>
+      </c>
+      <c r="H63">
+        <v>3940500</v>
+      </c>
+      <c r="I63">
+        <v>77591002000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-14T11:14:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>5053076313000</v>
+      </c>
+      <c r="L63">
+        <v>302384300</v>
+      </c>
+      <c r="M63">
+        <v>1792000</v>
+      </c>
+      <c r="N63">
+        <v>35654962000</v>
+      </c>
+      <c r="O63">
+        <v>-2940900</v>
+      </c>
+      <c r="P63">
+        <v>-88936202000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671016560000</v>
+      </c>
+      <c r="B64">
+        <v>1113700</v>
+      </c>
+      <c r="C64">
+        <v>3111700</v>
+      </c>
+      <c r="D64">
+        <v>2600</v>
+      </c>
+      <c r="E64">
+        <v>20674623000</v>
+      </c>
+      <c r="F64">
+        <v>61894315000</v>
+      </c>
+      <c r="G64">
+        <v>35845000</v>
+      </c>
+      <c r="H64">
+        <v>4228000</v>
+      </c>
+      <c r="I64">
+        <v>82604783000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-14T11:16:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>5135681096000</v>
+      </c>
+      <c r="L64">
+        <v>306612300</v>
+      </c>
+      <c r="M64">
+        <v>1998000</v>
+      </c>
+      <c r="N64">
+        <v>41219692000</v>
+      </c>
+      <c r="O64">
+        <v>-942900</v>
+      </c>
+      <c r="P64">
+        <v>-47716510000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671016680000</v>
+      </c>
+      <c r="B65">
+        <v>917800</v>
+      </c>
+      <c r="C65">
+        <v>2489000</v>
+      </c>
+      <c r="D65">
+        <v>29900</v>
+      </c>
+      <c r="E65">
+        <v>16111003000</v>
+      </c>
+      <c r="F65">
+        <v>49456234000</v>
+      </c>
+      <c r="G65">
+        <v>725514000</v>
+      </c>
+      <c r="H65">
+        <v>3436700</v>
+      </c>
+      <c r="I65">
+        <v>66292751000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-14T11:18:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>5201973847000</v>
+      </c>
+      <c r="L65">
+        <v>310049000</v>
+      </c>
+      <c r="M65">
+        <v>1571200</v>
+      </c>
+      <c r="N65">
+        <v>33345231000</v>
+      </c>
+      <c r="O65">
+        <v>628300</v>
+      </c>
+      <c r="P65">
+        <v>-14371279000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671016800000</v>
+      </c>
+      <c r="B66">
+        <v>2654600</v>
+      </c>
+      <c r="C66">
+        <v>1969900</v>
+      </c>
+      <c r="D66">
+        <v>4800</v>
+      </c>
+      <c r="E66">
+        <v>61598775000</v>
+      </c>
+      <c r="F66">
+        <v>41217804000</v>
+      </c>
+      <c r="G66">
+        <v>218270000</v>
+      </c>
+      <c r="H66">
+        <v>4629300</v>
+      </c>
+      <c r="I66">
+        <v>103034849000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-14T11:20:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>5305008696000</v>
+      </c>
+      <c r="L66">
+        <v>314678300</v>
+      </c>
+      <c r="M66">
+        <v>-684700</v>
+      </c>
+      <c r="N66">
+        <v>-20380971000</v>
+      </c>
+      <c r="O66">
+        <v>-56400</v>
+      </c>
+      <c r="P66">
+        <v>-34752250000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671016920000</v>
+      </c>
+      <c r="B67">
+        <v>3468800</v>
+      </c>
+      <c r="C67">
+        <v>1198800</v>
+      </c>
+      <c r="D67">
+        <v>21000</v>
+      </c>
+      <c r="E67">
+        <v>77587447000</v>
+      </c>
+      <c r="F67">
+        <v>32208442000</v>
+      </c>
+      <c r="G67">
+        <v>538778000</v>
+      </c>
+      <c r="H67">
+        <v>4688600</v>
+      </c>
+      <c r="I67">
+        <v>110334667000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-14T11:22:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>5415343363000</v>
+      </c>
+      <c r="L67">
+        <v>319366900</v>
+      </c>
+      <c r="M67">
+        <v>-2270000</v>
+      </c>
+      <c r="N67">
+        <v>-45379005000</v>
+      </c>
+      <c r="O67">
+        <v>-2326400</v>
+      </c>
+      <c r="P67">
+        <v>-80131255000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671017040000</v>
+      </c>
+      <c r="B68">
+        <v>2666300</v>
+      </c>
+      <c r="C68">
+        <v>2067800</v>
+      </c>
+      <c r="D68">
+        <v>2400</v>
+      </c>
+      <c r="E68">
+        <v>61648949000</v>
+      </c>
+      <c r="F68">
+        <v>39102733000</v>
+      </c>
+      <c r="G68">
+        <v>81914000</v>
+      </c>
+      <c r="H68">
+        <v>4736500</v>
+      </c>
+      <c r="I68">
+        <v>100833596000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-14T11:24:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>5516176959000</v>
+      </c>
+      <c r="L68">
+        <v>324103400</v>
+      </c>
+      <c r="M68">
+        <v>-598500</v>
+      </c>
+      <c r="N68">
+        <v>-22546216000</v>
+      </c>
+      <c r="O68">
+        <v>-2924900</v>
+      </c>
+      <c r="P68">
+        <v>-102677471000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671017160000</v>
+      </c>
+      <c r="B69">
+        <v>1873700</v>
+      </c>
+      <c r="C69">
+        <v>1523100</v>
+      </c>
+      <c r="D69">
+        <v>13900</v>
+      </c>
+      <c r="E69">
+        <v>36418944000</v>
+      </c>
+      <c r="F69">
+        <v>29597518000</v>
+      </c>
+      <c r="G69">
+        <v>230730000</v>
+      </c>
+      <c r="H69">
+        <v>3410700</v>
+      </c>
+      <c r="I69">
+        <v>66247192000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-14T11:26:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>5582424151000</v>
+      </c>
+      <c r="L69">
+        <v>327514100</v>
+      </c>
+      <c r="M69">
+        <v>-350600</v>
+      </c>
+      <c r="N69">
+        <v>-6821426000</v>
+      </c>
+      <c r="O69">
+        <v>-3275500</v>
+      </c>
+      <c r="P69">
+        <v>-109498897000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671017280000</v>
+      </c>
+      <c r="B70">
+        <v>1379600</v>
+      </c>
+      <c r="C70">
+        <v>1170000</v>
+      </c>
+      <c r="D70">
+        <v>18400</v>
+      </c>
+      <c r="E70">
+        <v>28552077000</v>
+      </c>
+      <c r="F70">
+        <v>25299866000</v>
+      </c>
+      <c r="G70">
+        <v>446959000</v>
+      </c>
+      <c r="H70">
+        <v>2568000</v>
+      </c>
+      <c r="I70">
+        <v>54298902000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-14T11:28:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5636723053000</v>
+      </c>
+      <c r="L70">
+        <v>330082100</v>
+      </c>
+      <c r="M70">
+        <v>-209600</v>
+      </c>
+      <c r="N70">
+        <v>-3252211000</v>
+      </c>
+      <c r="O70">
+        <v>-3485100</v>
+      </c>
+      <c r="P70">
+        <v>-112751108000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671017400000</v>
+      </c>
+      <c r="B71">
+        <v>2100</v>
+      </c>
+      <c r="C71">
+        <v>1000</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>33160000</v>
+      </c>
+      <c r="F71">
+        <v>32525000</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>3100</v>
+      </c>
+      <c r="I71">
+        <v>65685000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-14T11:30:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5636788738000</v>
+      </c>
+      <c r="L71">
+        <v>330085200</v>
+      </c>
+      <c r="M71">
+        <v>-1100</v>
+      </c>
+      <c r="N71">
+        <v>-635000</v>
+      </c>
+      <c r="O71">
+        <v>-3486200</v>
+      </c>
+      <c r="P71">
+        <v>-112751743000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671022800000</v>
+      </c>
+      <c r="B72">
+        <v>7734000</v>
+      </c>
+      <c r="C72">
+        <v>4103500</v>
+      </c>
+      <c r="D72">
+        <v>261900</v>
+      </c>
+      <c r="E72">
+        <v>117713036000</v>
+      </c>
+      <c r="F72">
+        <v>73212748000</v>
+      </c>
+      <c r="G72">
+        <v>4103695000</v>
+      </c>
+      <c r="H72">
+        <v>12099400</v>
+      </c>
+      <c r="I72">
+        <v>195029479000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-14T13:00:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5831818217000</v>
+      </c>
+      <c r="L72">
+        <v>342184600</v>
+      </c>
+      <c r="M72">
+        <v>-3630500</v>
+      </c>
+      <c r="N72">
+        <v>-44500288000</v>
+      </c>
+      <c r="O72">
+        <v>-7116700</v>
+      </c>
+      <c r="P72">
+        <v>-157252031000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671022920000</v>
+      </c>
+      <c r="B73">
+        <v>3262200</v>
+      </c>
+      <c r="C73">
+        <v>1947900</v>
+      </c>
+      <c r="D73">
+        <v>21300</v>
+      </c>
+      <c r="E73">
+        <v>55714480000</v>
+      </c>
+      <c r="F73">
+        <v>37930071000</v>
+      </c>
+      <c r="G73">
+        <v>320758000</v>
+      </c>
+      <c r="H73">
+        <v>5231400</v>
+      </c>
+      <c r="I73">
+        <v>93965309000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-14T13:02:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5925783526000</v>
+      </c>
+      <c r="L73">
+        <v>347416000</v>
+      </c>
+      <c r="M73">
+        <v>-1314300</v>
+      </c>
+      <c r="N73">
+        <v>-17784409000</v>
+      </c>
+      <c r="O73">
+        <v>-8431000</v>
+      </c>
+      <c r="P73">
+        <v>-175036440000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671023040000</v>
+      </c>
+      <c r="B74">
+        <v>3327400</v>
+      </c>
+      <c r="C74">
+        <v>2310800</v>
+      </c>
+      <c r="D74">
+        <v>42100</v>
+      </c>
+      <c r="E74">
+        <v>59340061000</v>
+      </c>
+      <c r="F74">
+        <v>36929207000</v>
+      </c>
+      <c r="G74">
+        <v>688800000</v>
+      </c>
+      <c r="H74">
+        <v>5680300</v>
+      </c>
+      <c r="I74">
+        <v>96958068000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-14T13:04:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>6022741594000</v>
+      </c>
+      <c r="L74">
+        <v>353096300</v>
+      </c>
+      <c r="M74">
+        <v>-1016600</v>
+      </c>
+      <c r="N74">
+        <v>-22410854000</v>
+      </c>
+      <c r="O74">
+        <v>-9447600</v>
+      </c>
+      <c r="P74">
+        <v>-197447294000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671023160000</v>
+      </c>
+      <c r="B75">
+        <v>8591600</v>
+      </c>
+      <c r="C75">
+        <v>1369200</v>
+      </c>
+      <c r="D75">
+        <v>29000</v>
+      </c>
+      <c r="E75">
+        <v>131299845000</v>
+      </c>
+      <c r="F75">
+        <v>23817941000</v>
+      </c>
+      <c r="G75">
+        <v>403948000</v>
+      </c>
+      <c r="H75">
+        <v>9989800</v>
+      </c>
+      <c r="I75">
+        <v>155521734000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-14T13:06:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>6178263328000</v>
+      </c>
+      <c r="L75">
+        <v>363086100</v>
+      </c>
+      <c r="M75">
+        <v>-7222400</v>
+      </c>
+      <c r="N75">
+        <v>-107481904000</v>
+      </c>
+      <c r="O75">
+        <v>-16670000</v>
+      </c>
+      <c r="P75">
+        <v>-304929198000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671023280000</v>
+      </c>
+      <c r="B76">
+        <v>6533000</v>
+      </c>
+      <c r="C76">
+        <v>2865600</v>
+      </c>
+      <c r="D76">
+        <v>5100</v>
+      </c>
+      <c r="E76">
+        <v>92912385000</v>
+      </c>
+      <c r="F76">
+        <v>38471966000</v>
+      </c>
+      <c r="G76">
+        <v>136343000</v>
+      </c>
+      <c r="H76">
+        <v>9403700</v>
+      </c>
+      <c r="I76">
+        <v>131520694000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-14T13:08:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>6309784022000</v>
+      </c>
+      <c r="L76">
+        <v>372489800</v>
+      </c>
+      <c r="M76">
+        <v>-3667400</v>
+      </c>
+      <c r="N76">
+        <v>-54440419000</v>
+      </c>
+      <c r="O76">
+        <v>-20337400</v>
+      </c>
+      <c r="P76">
+        <v>-359369617000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671023400000</v>
+      </c>
+      <c r="B77">
+        <v>5217600</v>
+      </c>
+      <c r="C77">
+        <v>2331400</v>
+      </c>
+      <c r="D77">
+        <v>15800</v>
+      </c>
+      <c r="E77">
+        <v>62670356000</v>
+      </c>
+      <c r="F77">
+        <v>37639352000</v>
+      </c>
+      <c r="G77">
+        <v>173430000</v>
+      </c>
+      <c r="H77">
+        <v>7564800</v>
+      </c>
+      <c r="I77">
+        <v>100483138000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-14T13:10:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>6410267160000</v>
+      </c>
+      <c r="L77">
+        <v>380054600</v>
+      </c>
+      <c r="M77">
+        <v>-2886200</v>
+      </c>
+      <c r="N77">
+        <v>-25031004000</v>
+      </c>
+      <c r="O77">
+        <v>-23223600</v>
+      </c>
+      <c r="P77">
+        <v>-384400621000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671023520000</v>
+      </c>
+      <c r="B78">
+        <v>2455900</v>
+      </c>
+      <c r="C78">
+        <v>3405500</v>
+      </c>
+      <c r="D78">
+        <v>11500</v>
+      </c>
+      <c r="E78">
+        <v>33842105000</v>
+      </c>
+      <c r="F78">
+        <v>54571704000</v>
+      </c>
+      <c r="G78">
+        <v>102872000</v>
+      </c>
+      <c r="H78">
+        <v>5872900</v>
+      </c>
+      <c r="I78">
+        <v>88516681000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-14T13:12:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>6498783841000</v>
+      </c>
+      <c r="L78">
+        <v>385927500</v>
+      </c>
+      <c r="M78">
+        <v>949600</v>
+      </c>
+      <c r="N78">
+        <v>20729599000</v>
+      </c>
+      <c r="O78">
+        <v>-22274000</v>
+      </c>
+      <c r="P78">
+        <v>-363671022000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671023640000</v>
+      </c>
+      <c r="B79">
+        <v>2335400</v>
+      </c>
+      <c r="C79">
+        <v>3817100</v>
+      </c>
+      <c r="D79">
+        <v>17200</v>
+      </c>
+      <c r="E79">
+        <v>44331999000</v>
+      </c>
+      <c r="F79">
+        <v>66295484000</v>
+      </c>
+      <c r="G79">
+        <v>392699000</v>
+      </c>
+      <c r="H79">
+        <v>6169700</v>
+      </c>
+      <c r="I79">
+        <v>111020182000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-14T13:14:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>6609804023000</v>
+      </c>
+      <c r="L79">
+        <v>392097200</v>
+      </c>
+      <c r="M79">
+        <v>1481700</v>
+      </c>
+      <c r="N79">
+        <v>21963485000</v>
+      </c>
+      <c r="O79">
+        <v>-20792300</v>
+      </c>
+      <c r="P79">
+        <v>-341707537000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671023760000</v>
+      </c>
+      <c r="B80">
+        <v>2618500</v>
+      </c>
+      <c r="C80">
+        <v>2143300</v>
+      </c>
+      <c r="D80">
+        <v>38000</v>
+      </c>
+      <c r="E80">
+        <v>45999710000</v>
+      </c>
+      <c r="F80">
+        <v>37846169000</v>
+      </c>
+      <c r="G80">
+        <v>563000000</v>
+      </c>
+      <c r="H80">
+        <v>4799800</v>
+      </c>
+      <c r="I80">
+        <v>84408879000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-14T13:16:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>6694212902000</v>
+      </c>
+      <c r="L80">
+        <v>396897000</v>
+      </c>
+      <c r="M80">
+        <v>-475200</v>
+      </c>
+      <c r="N80">
+        <v>-8153541000</v>
+      </c>
+      <c r="O80">
+        <v>-21267500</v>
+      </c>
+      <c r="P80">
+        <v>-349861078000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671023880000</v>
+      </c>
+      <c r="B81">
+        <v>2072100</v>
+      </c>
+      <c r="C81">
+        <v>2397000</v>
+      </c>
+      <c r="D81">
+        <v>5900</v>
+      </c>
+      <c r="E81">
+        <v>40097645000</v>
+      </c>
+      <c r="F81">
+        <v>39157166000</v>
+      </c>
+      <c r="G81">
+        <v>90182000</v>
+      </c>
+      <c r="H81">
+        <v>4475000</v>
+      </c>
+      <c r="I81">
+        <v>79344993000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-14T13:18:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>6773557895000</v>
+      </c>
+      <c r="L81">
+        <v>401372000</v>
+      </c>
+      <c r="M81">
+        <v>324900</v>
+      </c>
+      <c r="N81">
+        <v>-940479000</v>
+      </c>
+      <c r="O81">
+        <v>-20942600</v>
+      </c>
+      <c r="P81">
+        <v>-350801557000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671024000000</v>
+      </c>
+      <c r="B82">
+        <v>2674000</v>
+      </c>
+      <c r="C82">
+        <v>2575800</v>
+      </c>
+      <c r="D82">
+        <v>5500</v>
+      </c>
+      <c r="E82">
+        <v>47039281000</v>
+      </c>
+      <c r="F82">
+        <v>47293234000</v>
+      </c>
+      <c r="G82">
+        <v>58130000</v>
+      </c>
+      <c r="H82">
+        <v>5255300</v>
+      </c>
+      <c r="I82">
+        <v>94390645000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-14T13:20:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>6867948540000</v>
+      </c>
+      <c r="L82">
+        <v>406627300</v>
+      </c>
+      <c r="M82">
+        <v>-98200</v>
+      </c>
+      <c r="N82">
+        <v>253953000</v>
+      </c>
+      <c r="O82">
+        <v>-21040800</v>
+      </c>
+      <c r="P82">
+        <v>-350547604000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671024120000</v>
+      </c>
+      <c r="B83">
+        <v>3296000</v>
+      </c>
+      <c r="C83">
+        <v>3691900</v>
+      </c>
+      <c r="D83">
+        <v>56100</v>
+      </c>
+      <c r="E83">
+        <v>51555193000</v>
+      </c>
+      <c r="F83">
+        <v>66573234000</v>
+      </c>
+      <c r="G83">
+        <v>759242000</v>
+      </c>
+      <c r="H83">
+        <v>7044000</v>
+      </c>
+      <c r="I83">
+        <v>118887669000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-14T13:22:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>6986836209000</v>
+      </c>
+      <c r="L83">
+        <v>413671300</v>
+      </c>
+      <c r="M83">
+        <v>395900</v>
+      </c>
+      <c r="N83">
+        <v>15018041000</v>
+      </c>
+      <c r="O83">
+        <v>-20644900</v>
+      </c>
+      <c r="P83">
+        <v>-335529563000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671024240000</v>
+      </c>
+      <c r="B84">
+        <v>2048900</v>
+      </c>
+      <c r="C84">
+        <v>7149100</v>
+      </c>
+      <c r="D84">
+        <v>26000</v>
+      </c>
+      <c r="E84">
+        <v>37043156000</v>
+      </c>
+      <c r="F84">
+        <v>119165755000</v>
+      </c>
+      <c r="G84">
+        <v>656684000</v>
+      </c>
+      <c r="H84">
+        <v>9224000</v>
+      </c>
+      <c r="I84">
+        <v>156865595000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-14T13:24:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>7143701804000</v>
+      </c>
+      <c r="L84">
+        <v>422895300</v>
+      </c>
+      <c r="M84">
+        <v>5100200</v>
+      </c>
+      <c r="N84">
+        <v>82122599000</v>
+      </c>
+      <c r="O84">
+        <v>-15544700</v>
+      </c>
+      <c r="P84">
+        <v>-253406964000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671024360000</v>
+      </c>
+      <c r="B85">
+        <v>2530000</v>
+      </c>
+      <c r="C85">
+        <v>8248000</v>
+      </c>
+      <c r="D85">
+        <v>24500</v>
+      </c>
+      <c r="E85">
+        <v>45732284000</v>
+      </c>
+      <c r="F85">
+        <v>137943440000</v>
+      </c>
+      <c r="G85">
+        <v>775240000</v>
+      </c>
+      <c r="H85">
+        <v>10802500</v>
+      </c>
+      <c r="I85">
+        <v>184450964000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-14T13:26:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>7328152768000</v>
+      </c>
+      <c r="L85">
+        <v>433697800</v>
+      </c>
+      <c r="M85">
+        <v>5718000</v>
+      </c>
+      <c r="N85">
+        <v>92211156000</v>
+      </c>
+      <c r="O85">
+        <v>-9826700</v>
+      </c>
+      <c r="P85">
+        <v>-161195808000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671024480000</v>
+      </c>
+      <c r="B86">
+        <v>3552600</v>
+      </c>
+      <c r="C86">
+        <v>6721400</v>
+      </c>
+      <c r="D86">
+        <v>24300</v>
+      </c>
+      <c r="E86">
+        <v>61734890000</v>
+      </c>
+      <c r="F86">
+        <v>125993333000</v>
+      </c>
+      <c r="G86">
+        <v>353347000</v>
+      </c>
+      <c r="H86">
+        <v>10298300</v>
+      </c>
+      <c r="I86">
+        <v>188081570000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-14T13:28:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>7516234338000</v>
+      </c>
+      <c r="L86">
+        <v>443996100</v>
+      </c>
+      <c r="M86">
+        <v>3168800</v>
+      </c>
+      <c r="N86">
+        <v>64258443000</v>
+      </c>
+      <c r="O86">
+        <v>-6657900</v>
+      </c>
+      <c r="P86">
+        <v>-96937365000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671024600000</v>
+      </c>
+      <c r="B87">
+        <v>4950600</v>
+      </c>
+      <c r="C87">
+        <v>2396200</v>
+      </c>
+      <c r="D87">
+        <v>19500</v>
+      </c>
+      <c r="E87">
+        <v>99126298000</v>
+      </c>
+      <c r="F87">
+        <v>44235751000</v>
+      </c>
+      <c r="G87">
+        <v>375316000</v>
+      </c>
+      <c r="H87">
+        <v>7366300</v>
+      </c>
+      <c r="I87">
+        <v>143737365000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-14T13:30:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>7659971703000</v>
+      </c>
+      <c r="L87">
+        <v>451362400</v>
+      </c>
+      <c r="M87">
+        <v>-2554400</v>
+      </c>
+      <c r="N87">
+        <v>-54890547000</v>
+      </c>
+      <c r="O87">
+        <v>-9212300</v>
+      </c>
+      <c r="P87">
+        <v>-151827912000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671024720000</v>
+      </c>
+      <c r="B88">
+        <v>3281600</v>
+      </c>
+      <c r="C88">
+        <v>2380000</v>
+      </c>
+      <c r="D88">
+        <v>42400</v>
+      </c>
+      <c r="E88">
+        <v>56780630000</v>
+      </c>
+      <c r="F88">
+        <v>42499235000</v>
+      </c>
+      <c r="G88">
+        <v>1687425000</v>
+      </c>
+      <c r="H88">
+        <v>5704000</v>
+      </c>
+      <c r="I88">
+        <v>100967290000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-14T13:32:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>7760938993000</v>
+      </c>
+      <c r="L88">
+        <v>457066400</v>
+      </c>
+      <c r="M88">
+        <v>-901600</v>
+      </c>
+      <c r="N88">
+        <v>-14281395000</v>
+      </c>
+      <c r="O88">
+        <v>-10113900</v>
+      </c>
+      <c r="P88">
+        <v>-166109307000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671024840000</v>
+      </c>
+      <c r="B89">
+        <v>3883900</v>
+      </c>
+      <c r="C89">
+        <v>2114000</v>
+      </c>
+      <c r="D89">
+        <v>35100</v>
+      </c>
+      <c r="E89">
+        <v>77420811000</v>
+      </c>
+      <c r="F89">
+        <v>38358474000</v>
+      </c>
+      <c r="G89">
+        <v>442393000</v>
+      </c>
+      <c r="H89">
+        <v>6033000</v>
+      </c>
+      <c r="I89">
+        <v>116221678000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-14T13:34:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>7877160671000</v>
+      </c>
+      <c r="L89">
+        <v>463099400</v>
+      </c>
+      <c r="M89">
+        <v>-1769900</v>
+      </c>
+      <c r="N89">
+        <v>-39062337000</v>
+      </c>
+      <c r="O89">
+        <v>-11883800</v>
+      </c>
+      <c r="P89">
+        <v>-205171644000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671024960000</v>
+      </c>
+      <c r="B90">
+        <v>2510600</v>
+      </c>
+      <c r="C90">
+        <v>1996100</v>
+      </c>
+      <c r="D90">
+        <v>10700</v>
+      </c>
+      <c r="E90">
+        <v>43310515000</v>
+      </c>
+      <c r="F90">
+        <v>34532900000</v>
+      </c>
+      <c r="G90">
+        <v>176360000</v>
+      </c>
+      <c r="H90">
+        <v>4517400</v>
+      </c>
+      <c r="I90">
+        <v>78019775000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-14T13:36:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>7955180446000</v>
+      </c>
+      <c r="L90">
+        <v>467616800</v>
+      </c>
+      <c r="M90">
+        <v>-514500</v>
+      </c>
+      <c r="N90">
+        <v>-8777615000</v>
+      </c>
+      <c r="O90">
+        <v>-12398300</v>
+      </c>
+      <c r="P90">
+        <v>-213949259000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671025080000</v>
+      </c>
+      <c r="B91">
+        <v>2479900</v>
+      </c>
+      <c r="C91">
+        <v>1644000</v>
+      </c>
+      <c r="D91">
+        <v>43100</v>
+      </c>
+      <c r="E91">
+        <v>44919543000</v>
+      </c>
+      <c r="F91">
+        <v>30764629000</v>
+      </c>
+      <c r="G91">
+        <v>626585000</v>
+      </c>
+      <c r="H91">
+        <v>4167000</v>
+      </c>
+      <c r="I91">
+        <v>76310757000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-14T13:38:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>8031491203000</v>
+      </c>
+      <c r="L91">
+        <v>471783800</v>
+      </c>
+      <c r="M91">
+        <v>-835900</v>
+      </c>
+      <c r="N91">
+        <v>-14154914000</v>
+      </c>
+      <c r="O91">
+        <v>-13234200</v>
+      </c>
+      <c r="P91">
+        <v>-228104173000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671025200000</v>
+      </c>
+      <c r="B92">
+        <v>2082300</v>
+      </c>
+      <c r="C92">
+        <v>2045900</v>
+      </c>
+      <c r="D92">
+        <v>10100</v>
+      </c>
+      <c r="E92">
+        <v>34493866000</v>
+      </c>
+      <c r="F92">
+        <v>32728647000</v>
+      </c>
+      <c r="G92">
+        <v>307660000</v>
+      </c>
+      <c r="H92">
+        <v>4138300</v>
+      </c>
+      <c r="I92">
+        <v>67530173000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-14T13:40:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>8099021376000</v>
+      </c>
+      <c r="L92">
+        <v>475922100</v>
+      </c>
+      <c r="M92">
+        <v>-36400</v>
+      </c>
+      <c r="N92">
+        <v>-1765219000</v>
+      </c>
+      <c r="O92">
+        <v>-13270600</v>
+      </c>
+      <c r="P92">
+        <v>-229869392000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671025320000</v>
+      </c>
+      <c r="B93">
+        <v>3358800</v>
+      </c>
+      <c r="C93">
+        <v>1743400</v>
+      </c>
+      <c r="D93">
+        <v>1300</v>
+      </c>
+      <c r="E93">
+        <v>72055760000</v>
+      </c>
+      <c r="F93">
+        <v>31441114000</v>
+      </c>
+      <c r="G93">
+        <v>30295000</v>
+      </c>
+      <c r="H93">
+        <v>5103500</v>
+      </c>
+      <c r="I93">
+        <v>103527169000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-14T13:42:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>8202548545000</v>
+      </c>
+      <c r="L93">
+        <v>481025600</v>
+      </c>
+      <c r="M93">
+        <v>-1615400</v>
+      </c>
+      <c r="N93">
+        <v>-40614646000</v>
+      </c>
+      <c r="O93">
+        <v>-14886000</v>
+      </c>
+      <c r="P93">
+        <v>-270484038000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671025440000</v>
+      </c>
+      <c r="B94">
+        <v>2528100</v>
+      </c>
+      <c r="C94">
+        <v>1465200</v>
+      </c>
+      <c r="D94">
+        <v>13900</v>
+      </c>
+      <c r="E94">
+        <v>42853029000</v>
+      </c>
+      <c r="F94">
+        <v>25437472000</v>
+      </c>
+      <c r="G94">
+        <v>210854000</v>
+      </c>
+      <c r="H94">
+        <v>4007200</v>
+      </c>
+      <c r="I94">
+        <v>68501355000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-14T13:44:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>8271049900000</v>
+      </c>
+      <c r="L94">
+        <v>485032800</v>
+      </c>
+      <c r="M94">
+        <v>-1062900</v>
+      </c>
+      <c r="N94">
+        <v>-17415557000</v>
+      </c>
+      <c r="O94">
+        <v>-15948900</v>
+      </c>
+      <c r="P94">
+        <v>-287899595000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671025560000</v>
+      </c>
+      <c r="B95">
+        <v>3469100</v>
+      </c>
+      <c r="C95">
+        <v>1255900</v>
+      </c>
+      <c r="D95">
+        <v>8300</v>
+      </c>
+      <c r="E95">
+        <v>71552659000</v>
+      </c>
+      <c r="F95">
+        <v>24479187000</v>
+      </c>
+      <c r="G95">
+        <v>158835000</v>
+      </c>
+      <c r="H95">
+        <v>4733300</v>
+      </c>
+      <c r="I95">
+        <v>96190681000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-14T13:46:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>8367240581000</v>
+      </c>
+      <c r="L95">
+        <v>489766100</v>
+      </c>
+      <c r="M95">
+        <v>-2213200</v>
+      </c>
+      <c r="N95">
+        <v>-47073472000</v>
+      </c>
+      <c r="O95">
+        <v>-18162100</v>
+      </c>
+      <c r="P95">
+        <v>-334973067000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671025680000</v>
+      </c>
+      <c r="B96">
+        <v>6823300</v>
+      </c>
+      <c r="C96">
+        <v>1441200</v>
+      </c>
+      <c r="D96">
+        <v>26300</v>
+      </c>
+      <c r="E96">
+        <v>130370071000</v>
+      </c>
+      <c r="F96">
+        <v>26454921000</v>
+      </c>
+      <c r="G96">
+        <v>460149000</v>
+      </c>
+      <c r="H96">
+        <v>8290800</v>
+      </c>
+      <c r="I96">
+        <v>157285141000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-14T13:48:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>8524525722000</v>
+      </c>
+      <c r="L96">
+        <v>498056900</v>
+      </c>
+      <c r="M96">
+        <v>-5382100</v>
+      </c>
+      <c r="N96">
+        <v>-103915150000</v>
+      </c>
+      <c r="O96">
+        <v>-23544200</v>
+      </c>
+      <c r="P96">
+        <v>-438888217000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671025800000</v>
+      </c>
+      <c r="B97">
+        <v>3307600</v>
+      </c>
+      <c r="C97">
+        <v>2028800</v>
+      </c>
+      <c r="D97">
+        <v>7200</v>
+      </c>
+      <c r="E97">
+        <v>59383045000</v>
+      </c>
+      <c r="F97">
+        <v>36659826000</v>
+      </c>
+      <c r="G97">
+        <v>51192000</v>
+      </c>
+      <c r="H97">
+        <v>5343600</v>
+      </c>
+      <c r="I97">
+        <v>96094063000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-14T13:50:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>8620619785000</v>
+      </c>
+      <c r="L97">
+        <v>503400500</v>
+      </c>
+      <c r="M97">
+        <v>-1278800</v>
+      </c>
+      <c r="N97">
+        <v>-22723219000</v>
+      </c>
+      <c r="O97">
+        <v>-24823000</v>
+      </c>
+      <c r="P97">
+        <v>-461611436000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671025920000</v>
+      </c>
+      <c r="B98">
+        <v>1930900</v>
+      </c>
+      <c r="C98">
+        <v>2082300</v>
+      </c>
+      <c r="D98">
+        <v>25100</v>
+      </c>
+      <c r="E98">
+        <v>36742808000</v>
+      </c>
+      <c r="F98">
+        <v>38156947000</v>
+      </c>
+      <c r="G98">
+        <v>244136000</v>
+      </c>
+      <c r="H98">
+        <v>4038300</v>
+      </c>
+      <c r="I98">
+        <v>75143891000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-14T13:52:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>8695763676000</v>
+      </c>
+      <c r="L98">
+        <v>507438800</v>
+      </c>
+      <c r="M98">
+        <v>151400</v>
+      </c>
+      <c r="N98">
+        <v>1414139000</v>
+      </c>
+      <c r="O98">
+        <v>-24671600</v>
+      </c>
+      <c r="P98">
+        <v>-460197297000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671026040000</v>
+      </c>
+      <c r="B99">
+        <v>2728800</v>
+      </c>
+      <c r="C99">
+        <v>1664700</v>
+      </c>
+      <c r="D99">
+        <v>17200</v>
+      </c>
+      <c r="E99">
+        <v>53950882000</v>
+      </c>
+      <c r="F99">
+        <v>29305909000</v>
+      </c>
+      <c r="G99">
+        <v>242311000</v>
+      </c>
+      <c r="H99">
+        <v>4410700</v>
+      </c>
+      <c r="I99">
+        <v>83499102000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-14T13:54:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>8779262778000</v>
+      </c>
+      <c r="L99">
+        <v>511849500</v>
+      </c>
+      <c r="M99">
+        <v>-1064100</v>
+      </c>
+      <c r="N99">
+        <v>-24644973000</v>
+      </c>
+      <c r="O99">
+        <v>-25735700</v>
+      </c>
+      <c r="P99">
+        <v>-484842270000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671026160000</v>
+      </c>
+      <c r="B100">
+        <v>2500500</v>
+      </c>
+      <c r="C100">
+        <v>1363600</v>
+      </c>
+      <c r="D100">
+        <v>7200</v>
+      </c>
+      <c r="E100">
+        <v>46710295000</v>
+      </c>
+      <c r="F100">
+        <v>27062033000</v>
+      </c>
+      <c r="G100">
+        <v>176100000</v>
+      </c>
+      <c r="H100">
+        <v>3871300</v>
+      </c>
+      <c r="I100">
+        <v>73948428000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-14T13:56:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>8853211206000</v>
+      </c>
+      <c r="L100">
+        <v>515720800</v>
+      </c>
+      <c r="M100">
+        <v>-1136900</v>
+      </c>
+      <c r="N100">
+        <v>-19648262000</v>
+      </c>
+      <c r="O100">
+        <v>-26872600</v>
+      </c>
+      <c r="P100">
+        <v>-504490532000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671026280000</v>
+      </c>
+      <c r="B101">
+        <v>3300200</v>
+      </c>
+      <c r="C101">
+        <v>1038600</v>
+      </c>
+      <c r="D101">
+        <v>2600</v>
+      </c>
+      <c r="E101">
+        <v>59091776000</v>
+      </c>
+      <c r="F101">
+        <v>21816627000</v>
+      </c>
+      <c r="G101">
+        <v>50201000</v>
+      </c>
+      <c r="H101">
+        <v>4341400</v>
+      </c>
+      <c r="I101">
+        <v>80958604000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-14T13:58:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>8934169810000</v>
+      </c>
+      <c r="L101">
+        <v>520062200</v>
+      </c>
+      <c r="M101">
+        <v>-2261600</v>
+      </c>
+      <c r="N101">
+        <v>-37275149000</v>
+      </c>
+      <c r="O101">
+        <v>-29134200</v>
+      </c>
+      <c r="P101">
+        <v>-541765681000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671026400000</v>
+      </c>
+      <c r="B102">
+        <v>5255700</v>
+      </c>
+      <c r="C102">
+        <v>924300</v>
+      </c>
+      <c r="D102">
+        <v>44000</v>
+      </c>
+      <c r="E102">
+        <v>95470729000</v>
+      </c>
+      <c r="F102">
+        <v>19541685000</v>
+      </c>
+      <c r="G102">
+        <v>642007000</v>
+      </c>
+      <c r="H102">
+        <v>6224000</v>
+      </c>
+      <c r="I102">
+        <v>115654421000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-14T14:00:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>9049824231000</v>
+      </c>
+      <c r="L102">
+        <v>526286200</v>
+      </c>
+      <c r="M102">
+        <v>-4331400</v>
+      </c>
+      <c r="N102">
+        <v>-75929044000</v>
+      </c>
+      <c r="O102">
+        <v>-33465600</v>
+      </c>
+      <c r="P102">
+        <v>-617694725000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671026520000</v>
+      </c>
+      <c r="B103">
+        <v>4743300</v>
+      </c>
+      <c r="C103">
+        <v>5235100</v>
+      </c>
+      <c r="D103">
+        <v>26000</v>
+      </c>
+      <c r="E103">
+        <v>81793412000</v>
+      </c>
+      <c r="F103">
+        <v>119797124000</v>
+      </c>
+      <c r="G103">
+        <v>995170000</v>
+      </c>
+      <c r="H103">
+        <v>10004400</v>
+      </c>
+      <c r="I103">
+        <v>202585706000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-14T14:02:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>9252409937000</v>
+      </c>
+      <c r="L103">
+        <v>536290600</v>
+      </c>
+      <c r="M103">
+        <v>491800</v>
+      </c>
+      <c r="N103">
+        <v>38003712000</v>
+      </c>
+      <c r="O103">
+        <v>-32973800</v>
+      </c>
+      <c r="P103">
+        <v>-579691013000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671026640000</v>
+      </c>
+      <c r="B104">
+        <v>1380600</v>
+      </c>
+      <c r="C104">
+        <v>6032900</v>
+      </c>
+      <c r="D104">
+        <v>77900</v>
+      </c>
+      <c r="E104">
+        <v>26459534000</v>
+      </c>
+      <c r="F104">
+        <v>110970610000</v>
+      </c>
+      <c r="G104">
+        <v>1304168000</v>
+      </c>
+      <c r="H104">
+        <v>7491400</v>
+      </c>
+      <c r="I104">
+        <v>138734312000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-14T14:04:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>9391144249000</v>
+      </c>
+      <c r="L104">
+        <v>543782000</v>
+      </c>
+      <c r="M104">
+        <v>4652300</v>
+      </c>
+      <c r="N104">
+        <v>84511076000</v>
+      </c>
+      <c r="O104">
+        <v>-28321500</v>
+      </c>
+      <c r="P104">
+        <v>-495179937000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671026760000</v>
+      </c>
+      <c r="B105">
+        <v>2891800</v>
+      </c>
+      <c r="C105">
+        <v>2466700</v>
+      </c>
+      <c r="D105">
+        <v>10400</v>
+      </c>
+      <c r="E105">
+        <v>53007392000</v>
+      </c>
+      <c r="F105">
+        <v>44282514000</v>
+      </c>
+      <c r="G105">
+        <v>144094000</v>
+      </c>
+      <c r="H105">
+        <v>5368900</v>
+      </c>
+      <c r="I105">
+        <v>97434000000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-14T14:06:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>9488578249000</v>
+      </c>
+      <c r="L105">
+        <v>549150900</v>
+      </c>
+      <c r="M105">
+        <v>-425100</v>
+      </c>
+      <c r="N105">
+        <v>-8724878000</v>
+      </c>
+      <c r="O105">
+        <v>-28746600</v>
+      </c>
+      <c r="P105">
+        <v>-503904815000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671026880000</v>
+      </c>
+      <c r="B106">
+        <v>2903500</v>
+      </c>
+      <c r="C106">
+        <v>1963800</v>
+      </c>
+      <c r="D106">
+        <v>3800</v>
+      </c>
+      <c r="E106">
+        <v>52851987000</v>
+      </c>
+      <c r="F106">
+        <v>34735317000</v>
+      </c>
+      <c r="G106">
+        <v>30521000</v>
+      </c>
+      <c r="H106">
+        <v>4871100</v>
+      </c>
+      <c r="I106">
+        <v>87617825000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-14T14:08:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>9576196074000</v>
+      </c>
+      <c r="L106">
+        <v>554022000</v>
+      </c>
+      <c r="M106">
+        <v>-939700</v>
+      </c>
+      <c r="N106">
+        <v>-18116670000</v>
+      </c>
+      <c r="O106">
+        <v>-29686300</v>
+      </c>
+      <c r="P106">
+        <v>-522021485000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671027000000</v>
+      </c>
+      <c r="B107">
+        <v>1919600</v>
+      </c>
+      <c r="C107">
+        <v>1550800</v>
+      </c>
+      <c r="D107">
+        <v>2700</v>
+      </c>
+      <c r="E107">
+        <v>42950784000</v>
+      </c>
+      <c r="F107">
+        <v>29175915000</v>
+      </c>
+      <c r="G107">
+        <v>120496000</v>
+      </c>
+      <c r="H107">
+        <v>3473100</v>
+      </c>
+      <c r="I107">
+        <v>72247195000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-14T14:10:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>9648443269000</v>
+      </c>
+      <c r="L107">
+        <v>557495100</v>
+      </c>
+      <c r="M107">
+        <v>-368800</v>
+      </c>
+      <c r="N107">
+        <v>-13774869000</v>
+      </c>
+      <c r="O107">
+        <v>-30055100</v>
+      </c>
+      <c r="P107">
+        <v>-535796354000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671027120000</v>
+      </c>
+      <c r="B108">
+        <v>1865300</v>
+      </c>
+      <c r="C108">
+        <v>2251100</v>
+      </c>
+      <c r="D108">
+        <v>13100</v>
+      </c>
+      <c r="E108">
+        <v>33608563000</v>
+      </c>
+      <c r="F108">
+        <v>48643931000</v>
+      </c>
+      <c r="G108">
+        <v>410370000</v>
+      </c>
+      <c r="H108">
+        <v>4129500</v>
+      </c>
+      <c r="I108">
+        <v>82662864000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-14T14:12:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>9731106133000</v>
+      </c>
+      <c r="L108">
+        <v>561624600</v>
+      </c>
+      <c r="M108">
+        <v>385800</v>
+      </c>
+      <c r="N108">
+        <v>15035368000</v>
+      </c>
+      <c r="O108">
+        <v>-29669300</v>
+      </c>
+      <c r="P108">
+        <v>-520760986000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671027240000</v>
+      </c>
+      <c r="B109">
+        <v>2329200</v>
+      </c>
+      <c r="C109">
+        <v>1598700</v>
+      </c>
+      <c r="D109">
+        <v>8300</v>
+      </c>
+      <c r="E109">
+        <v>46649796000</v>
+      </c>
+      <c r="F109">
+        <v>36221820000</v>
+      </c>
+      <c r="G109">
+        <v>262368000</v>
+      </c>
+      <c r="H109">
+        <v>3936200</v>
+      </c>
+      <c r="I109">
+        <v>83133984000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-14T14:14:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>9814240117000</v>
+      </c>
+      <c r="L109">
+        <v>565560800</v>
+      </c>
+      <c r="M109">
+        <v>-730500</v>
+      </c>
+      <c r="N109">
+        <v>-10427976000</v>
+      </c>
+      <c r="O109">
+        <v>-30399800</v>
+      </c>
+      <c r="P109">
+        <v>-531188962000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671027360000</v>
+      </c>
+      <c r="B110">
+        <v>2472100</v>
+      </c>
+      <c r="C110">
+        <v>2246600</v>
+      </c>
+      <c r="D110">
+        <v>8300</v>
+      </c>
+      <c r="E110">
+        <v>43502096000</v>
+      </c>
+      <c r="F110">
+        <v>45543997000</v>
+      </c>
+      <c r="G110">
+        <v>192140000</v>
+      </c>
+      <c r="H110">
+        <v>4727000</v>
+      </c>
+      <c r="I110">
+        <v>89238233000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-14T14:16:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>9903478350000</v>
+      </c>
+      <c r="L110">
+        <v>570287800</v>
+      </c>
+      <c r="M110">
+        <v>-225500</v>
+      </c>
+      <c r="N110">
+        <v>2041901000</v>
+      </c>
+      <c r="O110">
+        <v>-30625300</v>
+      </c>
+      <c r="P110">
+        <v>-529147061000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671027480000</v>
+      </c>
+      <c r="B111">
+        <v>2246400</v>
+      </c>
+      <c r="C111">
+        <v>2313800</v>
+      </c>
+      <c r="D111">
+        <v>5500</v>
+      </c>
+      <c r="E111">
+        <v>41290104000</v>
+      </c>
+      <c r="F111">
+        <v>46712477000</v>
+      </c>
+      <c r="G111">
+        <v>194140000</v>
+      </c>
+      <c r="H111">
+        <v>4565700</v>
+      </c>
+      <c r="I111">
+        <v>88196721000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-14T14:18:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>9991675071000</v>
+      </c>
+      <c r="L111">
+        <v>574853500</v>
+      </c>
+      <c r="M111">
+        <v>67400</v>
+      </c>
+      <c r="N111">
+        <v>5422373000</v>
+      </c>
+      <c r="O111">
+        <v>-30557900</v>
+      </c>
+      <c r="P111">
+        <v>-523724688000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671027600000</v>
+      </c>
+      <c r="B112">
+        <v>2470800</v>
+      </c>
+      <c r="C112">
+        <v>1315300</v>
+      </c>
+      <c r="D112">
+        <v>4700</v>
+      </c>
+      <c r="E112">
+        <v>49328407000</v>
+      </c>
+      <c r="F112">
+        <v>21805824000</v>
+      </c>
+      <c r="G112">
+        <v>36977000</v>
+      </c>
+      <c r="H112">
+        <v>3790800</v>
+      </c>
+      <c r="I112">
+        <v>71171208000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-14T14:20:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>10062846279000</v>
+      </c>
+      <c r="L112">
+        <v>578644300</v>
+      </c>
+      <c r="M112">
+        <v>-1155500</v>
+      </c>
+      <c r="N112">
+        <v>-27522583000</v>
+      </c>
+      <c r="O112">
+        <v>-31713400</v>
+      </c>
+      <c r="P112">
+        <v>-551247271000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671027720000</v>
+      </c>
+      <c r="B113">
+        <v>4890100</v>
+      </c>
+      <c r="C113">
+        <v>1278000</v>
+      </c>
+      <c r="D113">
+        <v>8400</v>
+      </c>
+      <c r="E113">
+        <v>87595743000</v>
+      </c>
+      <c r="F113">
+        <v>26314966000</v>
+      </c>
+      <c r="G113">
+        <v>182607000</v>
+      </c>
+      <c r="H113">
+        <v>6176500</v>
+      </c>
+      <c r="I113">
+        <v>114093316000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-14T14:22:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>10176939595000</v>
+      </c>
+      <c r="L113">
+        <v>584820800</v>
+      </c>
+      <c r="M113">
+        <v>-3612100</v>
+      </c>
+      <c r="N113">
+        <v>-61280777000</v>
+      </c>
+      <c r="O113">
+        <v>-35325500</v>
+      </c>
+      <c r="P113">
+        <v>-612528048000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671027840000</v>
+      </c>
+      <c r="B114">
+        <v>5356100</v>
+      </c>
+      <c r="C114">
+        <v>1859800</v>
+      </c>
+      <c r="D114">
+        <v>32000</v>
+      </c>
+      <c r="E114">
+        <v>94432334000</v>
+      </c>
+      <c r="F114">
+        <v>35614443000</v>
+      </c>
+      <c r="G114">
+        <v>603197000</v>
+      </c>
+      <c r="H114">
+        <v>7247900</v>
+      </c>
+      <c r="I114">
+        <v>130649974000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-14T14:24:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>10307589569000</v>
+      </c>
+      <c r="L114">
+        <v>592068700</v>
+      </c>
+      <c r="M114">
+        <v>-3496300</v>
+      </c>
+      <c r="N114">
+        <v>-58817891000</v>
+      </c>
+      <c r="O114">
+        <v>-38821800</v>
+      </c>
+      <c r="P114">
+        <v>-671345939000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671027960000</v>
+      </c>
+      <c r="B115">
+        <v>4300000</v>
+      </c>
+      <c r="C115">
+        <v>1985800</v>
+      </c>
+      <c r="D115">
+        <v>12300</v>
+      </c>
+      <c r="E115">
+        <v>69056113000</v>
+      </c>
+      <c r="F115">
+        <v>39436814000</v>
+      </c>
+      <c r="G115">
+        <v>378900000</v>
+      </c>
+      <c r="H115">
+        <v>6298100</v>
+      </c>
+      <c r="I115">
+        <v>108871827000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-14T14:26:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>10416461396000</v>
+      </c>
+      <c r="L115">
+        <v>598366800</v>
+      </c>
+      <c r="M115">
+        <v>-2314200</v>
+      </c>
+      <c r="N115">
+        <v>-29619299000</v>
+      </c>
+      <c r="O115">
+        <v>-41136000</v>
+      </c>
+      <c r="P115">
+        <v>-700965238000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671028080000</v>
+      </c>
+      <c r="B116">
+        <v>7402000</v>
+      </c>
+      <c r="C116">
+        <v>2945900</v>
+      </c>
+      <c r="D116">
+        <v>70600</v>
+      </c>
+      <c r="E116">
+        <v>105359440000</v>
+      </c>
+      <c r="F116">
+        <v>55583404000</v>
+      </c>
+      <c r="G116">
+        <v>722983000</v>
+      </c>
+      <c r="H116">
+        <v>10418500</v>
+      </c>
+      <c r="I116">
+        <v>161665827000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-14T14:28:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>10578127223000</v>
+      </c>
+      <c r="L116">
+        <v>608785300</v>
+      </c>
+      <c r="M116">
+        <v>-4456100</v>
+      </c>
+      <c r="N116">
+        <v>-49776036000</v>
+      </c>
+      <c r="O116">
+        <v>-45592100</v>
+      </c>
+      <c r="P116">
+        <v>-750741274000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671028200000</v>
+      </c>
+      <c r="B117">
+        <v>26100</v>
+      </c>
+      <c r="C117">
+        <v>11800</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>214773000</v>
+      </c>
+      <c r="F117">
+        <v>138419000</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>37900</v>
+      </c>
+      <c r="I117">
+        <v>353192000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-14T14:30:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>10578480415000</v>
+      </c>
+      <c r="L117">
+        <v>608823200</v>
+      </c>
+      <c r="M117">
+        <v>-14300</v>
+      </c>
+      <c r="N117">
+        <v>-76354000</v>
+      </c>
+      <c r="O117">
+        <v>-45606400</v>
+      </c>
+      <c r="P117">
+        <v>-750817628000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671028560000</v>
+      </c>
+      <c r="B118">
+        <v>100</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>100</v>
+      </c>
+      <c r="I118">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-14T14:36:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>10578481435000</v>
+      </c>
+      <c r="L118">
+        <v>608823300</v>
+      </c>
+      <c r="M118">
+        <v>-100</v>
+      </c>
+      <c r="N118">
+        <v>-1019999.9999999999</v>
+      </c>
+      <c r="O118">
+        <v>-45606500</v>
+      </c>
+      <c r="P118">
+        <v>-750818648000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1671029040000</v>
+      </c>
+      <c r="B119">
+        <v>973500</v>
+      </c>
+      <c r="C119">
+        <v>868300</v>
+      </c>
+      <c r="D119">
+        <v>23226400</v>
+      </c>
+      <c r="E119">
+        <v>16867075000</v>
+      </c>
+      <c r="F119">
+        <v>14164312000</v>
+      </c>
+      <c r="G119">
+        <v>534796295000</v>
+      </c>
+      <c r="H119">
+        <v>25068200</v>
+      </c>
+      <c r="I119">
+        <v>565827682000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-14T14:44:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>11144309117000</v>
+      </c>
+      <c r="L119">
+        <v>633891500</v>
+      </c>
+      <c r="M119">
+        <v>-105200</v>
+      </c>
+      <c r="N119">
+        <v>-2702763000</v>
+      </c>
+      <c r="O119">
+        <v>-45711700</v>
+      </c>
+      <c r="P119">
+        <v>-753521411000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1671029160000</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>1000</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>10200000</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1000</v>
+      </c>
+      <c r="I120">
+        <v>10200000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-14T14:46:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>11144319317000</v>
+      </c>
+      <c r="L120">
+        <v>633892500</v>
+      </c>
+      <c r="M120">
+        <v>1000</v>
+      </c>
+      <c r="N120">
+        <v>10200000</v>
+      </c>
+      <c r="O120">
+        <v>-45710700</v>
+      </c>
+      <c r="P120">
+        <v>-753511211000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1671029280000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>900</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>9180000</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>900</v>
+      </c>
+      <c r="I121">
+        <v>9180000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-14T14:48:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>11144328497000</v>
+      </c>
+      <c r="L121">
+        <v>633893400</v>
+      </c>
+      <c r="M121">
+        <v>900</v>
+      </c>
+      <c r="N121">
+        <v>9180000</v>
+      </c>
+      <c r="O121">
+        <v>-45709800</v>
+      </c>
+      <c r="P121">
+        <v>-753502031000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
         <v>1671029400000</v>
       </c>
-      <c r="B52">
+      <c r="B122">
         <v>0</v>
       </c>
-      <c r="C52">
-        <v>1200</v>
-      </c>
-      <c r="D52">
+      <c r="C122">
+        <v>1000</v>
+      </c>
+      <c r="D122">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E122">
         <v>0</v>
       </c>
-      <c r="F52">
-        <v>12360000</v>
-      </c>
-      <c r="G52">
+      <c r="F122">
+        <v>10300000</v>
+      </c>
+      <c r="G122">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>1200</v>
-      </c>
-      <c r="I52">
-        <v>12360000</v>
-      </c>
-      <c r="J52" t="str">
+      <c r="H122">
+        <v>1000</v>
+      </c>
+      <c r="I122">
+        <v>10300000</v>
+      </c>
+      <c r="J122" t="str">
         <v>2022-12-14T14:50:00.000Z</v>
       </c>
-      <c r="K52">
+      <c r="K122">
+        <v>11144338797000</v>
+      </c>
+      <c r="L122">
+        <v>633894400</v>
+      </c>
+      <c r="M122">
+        <v>1000</v>
+      </c>
+      <c r="N122">
+        <v>10300000</v>
+      </c>
+      <c r="O122">
+        <v>-45708800</v>
+      </c>
+      <c r="P122">
+        <v>-753491731000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1671029520000</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>200</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>2060000</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>200</v>
+      </c>
+      <c r="I123">
+        <v>2060000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2022-12-14T14:52:00.000Z</v>
+      </c>
+      <c r="K123">
         <v>11144340857000</v>
       </c>
-      <c r="L52">
+      <c r="L123">
         <v>633894600</v>
       </c>
-      <c r="M52">
-        <v>1200</v>
-      </c>
-      <c r="N52">
-        <v>12360000</v>
-      </c>
-      <c r="O52">
+      <c r="M123">
+        <v>200</v>
+      </c>
+      <c r="N123">
+        <v>2060000</v>
+      </c>
+      <c r="O123">
         <v>-45708600</v>
       </c>
-      <c r="P52">
+      <c r="P123">
         <v>-753489671000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P123"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221214/VNINDEX_HOSE_5p_20221214.xlsx
+++ b/name/vnindex/20221214/VNINDEX_HOSE_5p_20221214.xlsx
@@ -516,25 +516,25 @@
         <v>6789900</v>
       </c>
       <c r="E3">
-        <v>95355136000</v>
+        <v>63119304100</v>
       </c>
       <c r="F3">
-        <v>110270109000</v>
+        <v>86429573400</v>
       </c>
       <c r="G3">
-        <v>100210897000</v>
+        <v>69548889700</v>
       </c>
       <c r="H3">
         <v>19122200</v>
       </c>
       <c r="I3">
-        <v>305836142000</v>
+        <v>219097767200</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-14T09:14:00.000Z</v>
       </c>
       <c r="K3">
-        <v>305837152000</v>
+        <v>219098777200</v>
       </c>
       <c r="L3">
         <v>19122300</v>
@@ -543,13 +543,13 @@
         <v>914700</v>
       </c>
       <c r="N3">
-        <v>14914973000</v>
+        <v>23310269300</v>
       </c>
       <c r="O3">
         <v>914700</v>
       </c>
       <c r="P3">
-        <v>14914973000</v>
+        <v>23310269300</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>99700</v>
       </c>
       <c r="E4">
-        <v>97733398000</v>
+        <v>89620718800</v>
       </c>
       <c r="F4">
-        <v>62281155000</v>
+        <v>55617225600</v>
       </c>
       <c r="G4">
-        <v>1420093000</v>
+        <v>1386127000</v>
       </c>
       <c r="H4">
         <v>9362300</v>
       </c>
       <c r="I4">
-        <v>161434646000</v>
+        <v>146624071400</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-14T09:16:00.000Z</v>
       </c>
       <c r="K4">
-        <v>467271798000</v>
+        <v>365722848600</v>
       </c>
       <c r="L4">
         <v>28484600</v>
@@ -593,13 +593,13 @@
         <v>-1585400</v>
       </c>
       <c r="N4">
-        <v>-35452243000</v>
+        <v>-34003493200</v>
       </c>
       <c r="O4">
         <v>-670700</v>
       </c>
       <c r="P4">
-        <v>-20537270000</v>
+        <v>-10693223900</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>45400</v>
       </c>
       <c r="E5">
-        <v>76592284000</v>
+        <v>73379899600</v>
       </c>
       <c r="F5">
-        <v>56544300000</v>
+        <v>52767480600</v>
       </c>
       <c r="G5">
         <v>599377000</v>
@@ -628,13 +628,13 @@
         <v>9040100</v>
       </c>
       <c r="I5">
-        <v>133735961000</v>
+        <v>126746757200</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-14T09:18:00.000Z</v>
       </c>
       <c r="K5">
-        <v>601007759000</v>
+        <v>492469605800</v>
       </c>
       <c r="L5">
         <v>37524700</v>
@@ -643,13 +643,13 @@
         <v>-315900</v>
       </c>
       <c r="N5">
-        <v>-20047984000</v>
+        <v>-20612419000</v>
       </c>
       <c r="O5">
         <v>-986600</v>
       </c>
       <c r="P5">
-        <v>-40585254000</v>
+        <v>-31305642900</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>38700</v>
       </c>
       <c r="E6">
-        <v>60856295000</v>
+        <v>55772483900</v>
       </c>
       <c r="F6">
-        <v>65114876000</v>
+        <v>59703892400</v>
       </c>
       <c r="G6">
         <v>854789000</v>
@@ -678,13 +678,13 @@
         <v>7552400</v>
       </c>
       <c r="I6">
-        <v>126825960000</v>
+        <v>116331165300</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-14T09:20:00.000Z</v>
       </c>
       <c r="K6">
-        <v>727833719000</v>
+        <v>608800771100</v>
       </c>
       <c r="L6">
         <v>45077100</v>
@@ -693,13 +693,13 @@
         <v>-288700</v>
       </c>
       <c r="N6">
-        <v>4258581000</v>
+        <v>3931408500</v>
       </c>
       <c r="O6">
         <v>-1275300</v>
       </c>
       <c r="P6">
-        <v>-36326673000</v>
+        <v>-27374234400</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>14100</v>
       </c>
       <c r="E7">
-        <v>56003647000</v>
+        <v>53782470400</v>
       </c>
       <c r="F7">
-        <v>74579199000</v>
+        <v>67111873800</v>
       </c>
       <c r="G7">
-        <v>324100000</v>
+        <v>308315800</v>
       </c>
       <c r="H7">
         <v>7629000</v>
       </c>
       <c r="I7">
-        <v>130906946000</v>
+        <v>121202660000</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-14T09:22:00.000Z</v>
       </c>
       <c r="K7">
-        <v>858740665000</v>
+        <v>730003431100</v>
       </c>
       <c r="L7">
         <v>52706100</v>
@@ -743,13 +743,13 @@
         <v>1168900</v>
       </c>
       <c r="N7">
-        <v>18575552000</v>
+        <v>13329403400</v>
       </c>
       <c r="O7">
         <v>-106400</v>
       </c>
       <c r="P7">
-        <v>-17751121000</v>
+        <v>-14044831000</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>10900</v>
       </c>
       <c r="E8">
-        <v>64763877000</v>
+        <v>58533213900</v>
       </c>
       <c r="F8">
-        <v>47252202000</v>
+        <v>45452403600</v>
       </c>
       <c r="G8">
         <v>199343000</v>
@@ -778,13 +778,13 @@
         <v>7021000</v>
       </c>
       <c r="I8">
-        <v>112215422000</v>
+        <v>104184960500</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-14T09:24:00.000Z</v>
       </c>
       <c r="K8">
-        <v>970956087000</v>
+        <v>834188391600</v>
       </c>
       <c r="L8">
         <v>59727100</v>
@@ -793,13 +793,13 @@
         <v>-1614100</v>
       </c>
       <c r="N8">
-        <v>-17511675000</v>
+        <v>-13080810300</v>
       </c>
       <c r="O8">
         <v>-1720500</v>
       </c>
       <c r="P8">
-        <v>-35262796000</v>
+        <v>-27125641300</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>6700</v>
       </c>
       <c r="E9">
-        <v>33428692000</v>
+        <v>30707615800</v>
       </c>
       <c r="F9">
-        <v>49602862000</v>
+        <v>45233935300</v>
       </c>
       <c r="G9">
         <v>196254000</v>
@@ -828,13 +828,13 @@
         <v>4836900</v>
       </c>
       <c r="I9">
-        <v>83227808000</v>
+        <v>76137805100</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-14T09:26:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1054183895000</v>
+        <v>910326196700</v>
       </c>
       <c r="L9">
         <v>64564000</v>
@@ -843,13 +843,13 @@
         <v>1212800</v>
       </c>
       <c r="N9">
-        <v>16174170000</v>
+        <v>14526319500</v>
       </c>
       <c r="O9">
         <v>-507700</v>
       </c>
       <c r="P9">
-        <v>-19088626000</v>
+        <v>-12599321800</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>7700</v>
       </c>
       <c r="E10">
-        <v>32247250000</v>
+        <v>29084016400</v>
       </c>
       <c r="F10">
-        <v>33627705000</v>
+        <v>33409223700</v>
       </c>
       <c r="G10">
         <v>122891000</v>
@@ -878,13 +878,13 @@
         <v>4394200</v>
       </c>
       <c r="I10">
-        <v>65997846000</v>
+        <v>62616131100</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-14T09:28:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1120181741000</v>
+        <v>972942327800</v>
       </c>
       <c r="L10">
         <v>68958200</v>
@@ -893,13 +893,13 @@
         <v>481900</v>
       </c>
       <c r="N10">
-        <v>1380455000</v>
+        <v>4325207300</v>
       </c>
       <c r="O10">
         <v>-25800</v>
       </c>
       <c r="P10">
-        <v>-17708171000</v>
+        <v>-8274114500</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>3900</v>
       </c>
       <c r="E11">
-        <v>43796148000</v>
+        <v>39544803600</v>
       </c>
       <c r="F11">
-        <v>43836186000</v>
+        <v>41400024600</v>
       </c>
       <c r="G11">
-        <v>37550000</v>
+        <v>31256300</v>
       </c>
       <c r="H11">
         <v>5690000</v>
       </c>
       <c r="I11">
-        <v>87669884000</v>
+        <v>80976084500</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-14T09:30:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1207851625000</v>
+        <v>1053918412300</v>
       </c>
       <c r="L11">
         <v>74648200</v>
@@ -943,13 +943,13 @@
         <v>204700</v>
       </c>
       <c r="N11">
-        <v>40038000</v>
+        <v>1855221000</v>
       </c>
       <c r="O11">
         <v>178900</v>
       </c>
       <c r="P11">
-        <v>-17668133000</v>
+        <v>-6418893500</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>80400</v>
       </c>
       <c r="E12">
-        <v>35757515000</v>
+        <v>31104772400</v>
       </c>
       <c r="F12">
-        <v>49520840000</v>
+        <v>45973990400</v>
       </c>
       <c r="G12">
         <v>695239000</v>
@@ -978,13 +978,13 @@
         <v>5754800</v>
       </c>
       <c r="I12">
-        <v>85973594000</v>
+        <v>77774001800</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-14T09:32:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1293825219000</v>
+        <v>1131692414100</v>
       </c>
       <c r="L12">
         <v>80403000</v>
@@ -993,13 +993,13 @@
         <v>1548000</v>
       </c>
       <c r="N12">
-        <v>13763325000</v>
+        <v>14869218000</v>
       </c>
       <c r="O12">
         <v>1726900</v>
       </c>
       <c r="P12">
-        <v>-3904808000</v>
+        <v>8450324500</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>96100</v>
       </c>
       <c r="E13">
-        <v>42349089000</v>
+        <v>39328412700</v>
       </c>
       <c r="F13">
-        <v>70167787000</v>
+        <v>58451714800</v>
       </c>
       <c r="G13">
         <v>2084110000</v>
@@ -1028,13 +1028,13 @@
         <v>7192900</v>
       </c>
       <c r="I13">
-        <v>114600986000</v>
+        <v>99864237500</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-14T09:34:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1408426205000</v>
+        <v>1231556651600</v>
       </c>
       <c r="L13">
         <v>87595900</v>
@@ -1043,13 +1043,13 @@
         <v>2148400</v>
       </c>
       <c r="N13">
-        <v>27818698000</v>
+        <v>19123302100</v>
       </c>
       <c r="O13">
         <v>3875300</v>
       </c>
       <c r="P13">
-        <v>23913890000</v>
+        <v>27573626600</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>49900</v>
       </c>
       <c r="E14">
-        <v>48445198000</v>
+        <v>44051895700</v>
       </c>
       <c r="F14">
-        <v>58218979000</v>
+        <v>54771130300</v>
       </c>
       <c r="G14">
         <v>614937000</v>
@@ -1078,13 +1078,13 @@
         <v>8158600</v>
       </c>
       <c r="I14">
-        <v>107279114000</v>
+        <v>99437963000</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-14T09:36:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1515705319000</v>
+        <v>1330994614600</v>
       </c>
       <c r="L14">
         <v>95754500</v>
@@ -1093,13 +1093,13 @@
         <v>2036300</v>
       </c>
       <c r="N14">
-        <v>9773781000</v>
+        <v>10719234600</v>
       </c>
       <c r="O14">
         <v>5911600</v>
       </c>
       <c r="P14">
-        <v>33687671000</v>
+        <v>38292861200</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>20100</v>
       </c>
       <c r="E15">
-        <v>56175962000</v>
+        <v>54344894900</v>
       </c>
       <c r="F15">
-        <v>46882913000</v>
+        <v>41732368700</v>
       </c>
       <c r="G15">
         <v>243403000</v>
@@ -1128,13 +1128,13 @@
         <v>6796600</v>
       </c>
       <c r="I15">
-        <v>103302278000</v>
+        <v>96320666600</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-14T09:38:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1619007597000</v>
+        <v>1427315281200</v>
       </c>
       <c r="L15">
         <v>102551100</v>
@@ -1143,13 +1143,13 @@
         <v>-355700</v>
       </c>
       <c r="N15">
-        <v>-9293049000</v>
+        <v>-12612526200</v>
       </c>
       <c r="O15">
         <v>5555900</v>
       </c>
       <c r="P15">
-        <v>24394622000</v>
+        <v>25680335000</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>52900</v>
       </c>
       <c r="E16">
-        <v>42344840000</v>
+        <v>40077709400</v>
       </c>
       <c r="F16">
-        <v>51187887000</v>
+        <v>48193884000</v>
       </c>
       <c r="G16">
-        <v>623219000</v>
+        <v>553089200</v>
       </c>
       <c r="H16">
         <v>7015400</v>
       </c>
       <c r="I16">
-        <v>94155946000</v>
+        <v>88824682600</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-14T09:40:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1713163543000</v>
+        <v>1516139963800</v>
       </c>
       <c r="L16">
         <v>109566500</v>
@@ -1193,13 +1193,13 @@
         <v>1036300</v>
       </c>
       <c r="N16">
-        <v>8843047000</v>
+        <v>8116174600</v>
       </c>
       <c r="O16">
         <v>6592200</v>
       </c>
       <c r="P16">
-        <v>33237669000</v>
+        <v>33796509600</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>11800</v>
       </c>
       <c r="E17">
-        <v>42869864000</v>
+        <v>39914622200</v>
       </c>
       <c r="F17">
-        <v>32277759000</v>
+        <v>29857082100</v>
       </c>
       <c r="G17">
         <v>172952000</v>
@@ -1228,13 +1228,13 @@
         <v>4805400</v>
       </c>
       <c r="I17">
-        <v>75320575000</v>
+        <v>69944656300</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-14T09:42:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1788484118000</v>
+        <v>1586084620100</v>
       </c>
       <c r="L17">
         <v>114371900</v>
@@ -1243,13 +1243,13 @@
         <v>-761200</v>
       </c>
       <c r="N17">
-        <v>-10592105000</v>
+        <v>-10057540100</v>
       </c>
       <c r="O17">
         <v>5831000</v>
       </c>
       <c r="P17">
-        <v>22645564000</v>
+        <v>23738969500</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>23200</v>
       </c>
       <c r="E18">
-        <v>72790955000</v>
+        <v>67656994100</v>
       </c>
       <c r="F18">
-        <v>42433803000</v>
+        <v>39141998100</v>
       </c>
       <c r="G18">
         <v>358506000</v>
@@ -1278,13 +1278,13 @@
         <v>10204100</v>
       </c>
       <c r="I18">
-        <v>115583264000</v>
+        <v>107157498200</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-14T09:44:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1904067382000</v>
+        <v>1693242118300</v>
       </c>
       <c r="L18">
         <v>124576000</v>
@@ -1293,13 +1293,13 @@
         <v>-2813100</v>
       </c>
       <c r="N18">
-        <v>-30357152000</v>
+        <v>-28514996000</v>
       </c>
       <c r="O18">
         <v>3017900</v>
       </c>
       <c r="P18">
-        <v>-7711588000</v>
+        <v>-4776026500</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>6900</v>
       </c>
       <c r="E19">
-        <v>60536278000</v>
+        <v>53000121700</v>
       </c>
       <c r="F19">
-        <v>39528907000</v>
+        <v>33961579900</v>
       </c>
       <c r="G19">
-        <v>166164000</v>
+        <v>39890400</v>
       </c>
       <c r="H19">
         <v>6758900</v>
       </c>
       <c r="I19">
-        <v>100231349000</v>
+        <v>87001592000</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-14T09:46:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2004298731000</v>
+        <v>1780243710300</v>
       </c>
       <c r="L19">
         <v>131334900</v>
@@ -1343,13 +1343,13 @@
         <v>-645800</v>
       </c>
       <c r="N19">
-        <v>-21007371000</v>
+        <v>-19038541800</v>
       </c>
       <c r="O19">
         <v>2372100</v>
       </c>
       <c r="P19">
-        <v>-28718959000</v>
+        <v>-23814568300</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>6700</v>
       </c>
       <c r="E20">
-        <v>57844526000</v>
+        <v>53917956500</v>
       </c>
       <c r="F20">
-        <v>36475179000</v>
+        <v>35802552300</v>
       </c>
       <c r="G20">
         <v>141621000</v>
@@ -1378,13 +1378,13 @@
         <v>6401100</v>
       </c>
       <c r="I20">
-        <v>94461326000</v>
+        <v>89862129800</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-14T09:48:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2098760057000</v>
+        <v>1870105840100</v>
       </c>
       <c r="L20">
         <v>137736000</v>
@@ -1393,13 +1393,13 @@
         <v>-1826600</v>
       </c>
       <c r="N20">
-        <v>-21369347000</v>
+        <v>-18115404200</v>
       </c>
       <c r="O20">
         <v>545500</v>
       </c>
       <c r="P20">
-        <v>-50088306000</v>
+        <v>-41929972500</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>18700</v>
       </c>
       <c r="E21">
-        <v>72111575000</v>
+        <v>69196792700</v>
       </c>
       <c r="F21">
-        <v>49885561000</v>
+        <v>42487366600</v>
       </c>
       <c r="G21">
         <v>421112000</v>
@@ -1428,13 +1428,13 @@
         <v>7171200</v>
       </c>
       <c r="I21">
-        <v>122418248000</v>
+        <v>112105271300</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-14T09:50:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2221178305000</v>
+        <v>1982211111400</v>
       </c>
       <c r="L21">
         <v>144907200</v>
@@ -1443,13 +1443,13 @@
         <v>-3824300</v>
       </c>
       <c r="N21">
-        <v>-22226014000</v>
+        <v>-26709426100</v>
       </c>
       <c r="O21">
         <v>-3278800</v>
       </c>
       <c r="P21">
-        <v>-72314320000</v>
+        <v>-68639398600</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>12300</v>
       </c>
       <c r="E22">
-        <v>49196866000</v>
+        <v>44364802900</v>
       </c>
       <c r="F22">
-        <v>46314635000</v>
+        <v>36167292500</v>
       </c>
       <c r="G22">
-        <v>405920000</v>
+        <v>317608400</v>
       </c>
       <c r="H22">
         <v>5371300</v>
       </c>
       <c r="I22">
-        <v>95917421000</v>
+        <v>80849703800</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-14T09:52:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2317095726000</v>
+        <v>2063060815200</v>
       </c>
       <c r="L22">
         <v>150278500</v>
@@ -1493,13 +1493,13 @@
         <v>-1067800</v>
       </c>
       <c r="N22">
-        <v>-2882231000</v>
+        <v>-8197510400</v>
       </c>
       <c r="O22">
         <v>-4346600</v>
       </c>
       <c r="P22">
-        <v>-75196551000</v>
+        <v>-76836909000</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>10500</v>
       </c>
       <c r="E23">
-        <v>34682905000</v>
+        <v>27333561700</v>
       </c>
       <c r="F23">
-        <v>39399372000</v>
+        <v>36547526700</v>
       </c>
       <c r="G23">
-        <v>163488000</v>
+        <v>119132400</v>
       </c>
       <c r="H23">
         <v>3996100</v>
       </c>
       <c r="I23">
-        <v>74245765000</v>
+        <v>64000220800</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-14T09:54:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2391341491000</v>
+        <v>2127061036000</v>
       </c>
       <c r="L23">
         <v>154274600</v>
@@ -1543,13 +1543,13 @@
         <v>807400</v>
       </c>
       <c r="N23">
-        <v>4716467000</v>
+        <v>9213965000</v>
       </c>
       <c r="O23">
         <v>-3539200</v>
       </c>
       <c r="P23">
-        <v>-70480084000</v>
+        <v>-67622944000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>11500</v>
       </c>
       <c r="E24">
-        <v>36589207000</v>
+        <v>29504898400</v>
       </c>
       <c r="F24">
-        <v>51132494000</v>
+        <v>40646390600</v>
       </c>
       <c r="G24">
-        <v>254058000</v>
+        <v>109003200</v>
       </c>
       <c r="H24">
         <v>5032200</v>
       </c>
       <c r="I24">
-        <v>87975759000</v>
+        <v>70260292200</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-14T09:56:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2479317250000</v>
+        <v>2197321328200</v>
       </c>
       <c r="L24">
         <v>159306800</v>
@@ -1593,13 +1593,13 @@
         <v>1427300</v>
       </c>
       <c r="N24">
-        <v>14543287000</v>
+        <v>11141492200</v>
       </c>
       <c r="O24">
         <v>-2111900</v>
       </c>
       <c r="P24">
-        <v>-55936797000</v>
+        <v>-56481451800</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>29000</v>
       </c>
       <c r="E25">
-        <v>40966822000</v>
+        <v>36257735800</v>
       </c>
       <c r="F25">
-        <v>39413135000</v>
+        <v>32225030300</v>
       </c>
       <c r="G25">
-        <v>489946000</v>
+        <v>466969000</v>
       </c>
       <c r="H25">
         <v>4616000</v>
       </c>
       <c r="I25">
-        <v>80869903000</v>
+        <v>68949735100</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-14T09:58:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2560187153000</v>
+        <v>2266271063300</v>
       </c>
       <c r="L25">
         <v>163922800</v>
@@ -1643,13 +1643,13 @@
         <v>453600</v>
       </c>
       <c r="N25">
-        <v>-1553687000</v>
+        <v>-4032705500</v>
       </c>
       <c r="O25">
         <v>-1658300</v>
       </c>
       <c r="P25">
-        <v>-57490484000</v>
+        <v>-60514157300</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>13700</v>
       </c>
       <c r="E26">
-        <v>27267541000</v>
+        <v>26010998800</v>
       </c>
       <c r="F26">
-        <v>32260691000</v>
+        <v>28595360000</v>
       </c>
       <c r="G26">
-        <v>237248000</v>
+        <v>209076200</v>
       </c>
       <c r="H26">
         <v>3566700</v>
       </c>
       <c r="I26">
-        <v>59765480000</v>
+        <v>54815435000</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-14T10:00:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2619952633000</v>
+        <v>2321086498300</v>
       </c>
       <c r="L26">
         <v>167489500</v>
@@ -1693,13 +1693,13 @@
         <v>182200</v>
       </c>
       <c r="N26">
-        <v>4993150000</v>
+        <v>2584361200</v>
       </c>
       <c r="O26">
         <v>-1476100</v>
       </c>
       <c r="P26">
-        <v>-52497334000</v>
+        <v>-57929796100</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>9400</v>
       </c>
       <c r="E27">
-        <v>25450038000</v>
+        <v>24176812500</v>
       </c>
       <c r="F27">
-        <v>48078965000</v>
+        <v>34031226800</v>
       </c>
       <c r="G27">
-        <v>125836000</v>
+        <v>55906000</v>
       </c>
       <c r="H27">
         <v>4524400</v>
       </c>
       <c r="I27">
-        <v>73654839000</v>
+        <v>58263945300</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-14T10:02:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2693607472000</v>
+        <v>2379350443600</v>
       </c>
       <c r="L27">
         <v>172013900</v>
@@ -1743,13 +1743,13 @@
         <v>995400</v>
       </c>
       <c r="N27">
-        <v>22628927000</v>
+        <v>9854414300</v>
       </c>
       <c r="O27">
         <v>-480700</v>
       </c>
       <c r="P27">
-        <v>-29868407000</v>
+        <v>-48075381800</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>15600</v>
       </c>
       <c r="E28">
-        <v>28302174000</v>
+        <v>24716063700</v>
       </c>
       <c r="F28">
-        <v>50316680000</v>
+        <v>43669933400</v>
       </c>
       <c r="G28">
-        <v>468150000</v>
+        <v>253365000</v>
       </c>
       <c r="H28">
         <v>4427900</v>
       </c>
       <c r="I28">
-        <v>79087004000</v>
+        <v>68639362100</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-14T10:04:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2772694476000</v>
+        <v>2447989805700</v>
       </c>
       <c r="L28">
         <v>176441800</v>
@@ -1793,13 +1793,13 @@
         <v>1422500</v>
       </c>
       <c r="N28">
-        <v>22014506000</v>
+        <v>18953869700</v>
       </c>
       <c r="O28">
         <v>941800</v>
       </c>
       <c r="P28">
-        <v>-7853901000</v>
+        <v>-29121512100</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>6700</v>
       </c>
       <c r="E29">
-        <v>24459177000</v>
+        <v>17925617100</v>
       </c>
       <c r="F29">
-        <v>72062357000</v>
+        <v>53275362800</v>
       </c>
       <c r="G29">
         <v>188490000</v>
@@ -1828,13 +1828,13 @@
         <v>6443700</v>
       </c>
       <c r="I29">
-        <v>96710024000</v>
+        <v>71389469900</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-14T10:06:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2869404500000</v>
+        <v>2519379275600</v>
       </c>
       <c r="L29">
         <v>182885500</v>
@@ -1843,13 +1843,13 @@
         <v>3245000</v>
       </c>
       <c r="N29">
-        <v>47603180000</v>
+        <v>35349745700</v>
       </c>
       <c r="O29">
         <v>4186800</v>
       </c>
       <c r="P29">
-        <v>39749279000</v>
+        <v>6228233600</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>22700</v>
       </c>
       <c r="E30">
-        <v>27213703000</v>
+        <v>24543276100</v>
       </c>
       <c r="F30">
-        <v>67271421000</v>
+        <v>62820476400</v>
       </c>
       <c r="G30">
         <v>142164000</v>
@@ -1878,13 +1878,13 @@
         <v>5668000</v>
       </c>
       <c r="I30">
-        <v>94627288000</v>
+        <v>87505916500</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-14T10:08:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2964031788000</v>
+        <v>2606885192100</v>
       </c>
       <c r="L30">
         <v>188553500</v>
@@ -1893,13 +1893,13 @@
         <v>2508900</v>
       </c>
       <c r="N30">
-        <v>40057718000</v>
+        <v>38277200300</v>
       </c>
       <c r="O30">
         <v>6695700</v>
       </c>
       <c r="P30">
-        <v>79806997000</v>
+        <v>44505433900</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>25000</v>
       </c>
       <c r="E31">
-        <v>33977008000</v>
+        <v>32366120500</v>
       </c>
       <c r="F31">
-        <v>73759348000</v>
+        <v>71536173400</v>
       </c>
       <c r="G31">
         <v>1204061000</v>
@@ -1928,13 +1928,13 @@
         <v>5513600</v>
       </c>
       <c r="I31">
-        <v>108940417000</v>
+        <v>105106354900</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-14T10:10:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3072972205000</v>
+        <v>2711991547000</v>
       </c>
       <c r="L31">
         <v>194067100</v>
@@ -1943,13 +1943,13 @@
         <v>1960400</v>
       </c>
       <c r="N31">
-        <v>39782340000</v>
+        <v>39170052900</v>
       </c>
       <c r="O31">
         <v>8656100</v>
       </c>
       <c r="P31">
-        <v>119589337000</v>
+        <v>83675486800</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>12500</v>
       </c>
       <c r="E32">
-        <v>28490984000</v>
+        <v>27059716700</v>
       </c>
       <c r="F32">
-        <v>60253373000</v>
+        <v>57228900500</v>
       </c>
       <c r="G32">
         <v>166130000</v>
@@ -1978,13 +1978,13 @@
         <v>5155300</v>
       </c>
       <c r="I32">
-        <v>88910487000</v>
+        <v>84454747200</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-14T10:12:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3161882692000</v>
+        <v>2796446294200</v>
       </c>
       <c r="L32">
         <v>199222400</v>
@@ -1993,13 +1993,13 @@
         <v>1978600</v>
       </c>
       <c r="N32">
-        <v>31762389000</v>
+        <v>30169183800</v>
       </c>
       <c r="O32">
         <v>10634700</v>
       </c>
       <c r="P32">
-        <v>151351726000</v>
+        <v>113844670600</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>19300</v>
       </c>
       <c r="E33">
-        <v>29400403000</v>
+        <v>28200604000</v>
       </c>
       <c r="F33">
-        <v>54360153000</v>
+        <v>50214802500</v>
       </c>
       <c r="G33">
         <v>416285000</v>
@@ -2028,13 +2028,13 @@
         <v>4507400</v>
       </c>
       <c r="I33">
-        <v>84176841000</v>
+        <v>78831691500</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-14T10:14:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3246059533000</v>
+        <v>2875277985700</v>
       </c>
       <c r="L33">
         <v>203729800</v>
@@ -2043,13 +2043,13 @@
         <v>1118700</v>
       </c>
       <c r="N33">
-        <v>24959750000</v>
+        <v>22014198500</v>
       </c>
       <c r="O33">
         <v>11753400</v>
       </c>
       <c r="P33">
-        <v>176311476000</v>
+        <v>135858869100</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>3600</v>
       </c>
       <c r="E34">
-        <v>34074961000</v>
+        <v>30102237700</v>
       </c>
       <c r="F34">
-        <v>61850757000</v>
+        <v>52873343400</v>
       </c>
       <c r="G34">
-        <v>93708000</v>
+        <v>78123600</v>
       </c>
       <c r="H34">
         <v>4935700</v>
       </c>
       <c r="I34">
-        <v>96019426000</v>
+        <v>83053704700</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-14T10:16:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3342078959000</v>
+        <v>2958331690400</v>
       </c>
       <c r="L34">
         <v>208665500</v>
@@ -2093,13 +2093,13 @@
         <v>1506100</v>
       </c>
       <c r="N34">
-        <v>27775796000</v>
+        <v>22771105700</v>
       </c>
       <c r="O34">
         <v>13259500</v>
       </c>
       <c r="P34">
-        <v>204087272000</v>
+        <v>158629974800</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>16300</v>
       </c>
       <c r="E35">
-        <v>55296885000</v>
+        <v>51231154800</v>
       </c>
       <c r="F35">
-        <v>51418577000</v>
+        <v>41248157600</v>
       </c>
       <c r="G35">
-        <v>208368000</v>
+        <v>184991400</v>
       </c>
       <c r="H35">
         <v>5258900</v>
       </c>
       <c r="I35">
-        <v>106923830000</v>
+        <v>92664303800</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-14T10:18:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3449002789000</v>
+        <v>3050995994200</v>
       </c>
       <c r="L35">
         <v>213924400</v>
@@ -2143,13 +2143,13 @@
         <v>254800</v>
       </c>
       <c r="N35">
-        <v>-3878308000</v>
+        <v>-9982997200</v>
       </c>
       <c r="O35">
         <v>13514300</v>
       </c>
       <c r="P35">
-        <v>200208964000</v>
+        <v>148646977600</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>17400</v>
       </c>
       <c r="E36">
-        <v>66829296000</v>
+        <v>57069066000</v>
       </c>
       <c r="F36">
-        <v>19290674000</v>
+        <v>18661703600</v>
       </c>
       <c r="G36">
         <v>441421000</v>
@@ -2178,13 +2178,13 @@
         <v>4578800</v>
       </c>
       <c r="I36">
-        <v>86561391000</v>
+        <v>76172190600</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-14T10:20:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3535564180000</v>
+        <v>3127168184800</v>
       </c>
       <c r="L36">
         <v>218503200</v>
@@ -2193,13 +2193,13 @@
         <v>-2335400</v>
       </c>
       <c r="N36">
-        <v>-47538622000</v>
+        <v>-38407362400</v>
       </c>
       <c r="O36">
         <v>11178900</v>
       </c>
       <c r="P36">
-        <v>152670342000</v>
+        <v>110239615200</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>15100</v>
       </c>
       <c r="E37">
-        <v>59861214000</v>
+        <v>43196295600</v>
       </c>
       <c r="F37">
-        <v>17071176000</v>
+        <v>14870279100</v>
       </c>
       <c r="G37">
         <v>486060000</v>
@@ -2228,13 +2228,13 @@
         <v>4296200</v>
       </c>
       <c r="I37">
-        <v>77418450000</v>
+        <v>58552634700</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-14T10:22:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3612982630000</v>
+        <v>3185720819500</v>
       </c>
       <c r="L37">
         <v>222799400</v>
@@ -2243,13 +2243,13 @@
         <v>-2387300</v>
       </c>
       <c r="N37">
-        <v>-42790038000</v>
+        <v>-28326016500</v>
       </c>
       <c r="O37">
         <v>8791600</v>
       </c>
       <c r="P37">
-        <v>109880304000</v>
+        <v>81913598700</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>9100</v>
       </c>
       <c r="E38">
-        <v>42170369000</v>
+        <v>36526418600</v>
       </c>
       <c r="F38">
-        <v>21473104000</v>
+        <v>16830551200</v>
       </c>
       <c r="G38">
-        <v>118480000</v>
+        <v>98500000</v>
       </c>
       <c r="H38">
         <v>3364200</v>
       </c>
       <c r="I38">
-        <v>63761953000</v>
+        <v>53455469800</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-14T10:24:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3676744583000</v>
+        <v>3239176289300</v>
       </c>
       <c r="L38">
         <v>226163600</v>
@@ -2293,13 +2293,13 @@
         <v>-1034500</v>
       </c>
       <c r="N38">
-        <v>-20697265000</v>
+        <v>-19695867400</v>
       </c>
       <c r="O38">
         <v>7757100</v>
       </c>
       <c r="P38">
-        <v>89183039000</v>
+        <v>62217731300</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>36300</v>
       </c>
       <c r="E39">
-        <v>41349862000</v>
+        <v>37072144000</v>
       </c>
       <c r="F39">
-        <v>21803918000</v>
+        <v>19941582200</v>
       </c>
       <c r="G39">
         <v>498865000</v>
@@ -2328,13 +2328,13 @@
         <v>3675200</v>
       </c>
       <c r="I39">
-        <v>63652645000</v>
+        <v>57512591200</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-14T10:26:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3740397228000</v>
+        <v>3296688880500</v>
       </c>
       <c r="L39">
         <v>229838800</v>
@@ -2343,13 +2343,13 @@
         <v>-1385500</v>
       </c>
       <c r="N39">
-        <v>-19545944000</v>
+        <v>-17130561800</v>
       </c>
       <c r="O39">
         <v>6371600</v>
       </c>
       <c r="P39">
-        <v>69637095000</v>
+        <v>45087169500</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>8900</v>
       </c>
       <c r="E40">
-        <v>31625287000</v>
+        <v>29286628000</v>
       </c>
       <c r="F40">
-        <v>20854165000</v>
+        <v>18654666700</v>
       </c>
       <c r="G40">
         <v>98121000</v>
@@ -2378,13 +2378,13 @@
         <v>3040600</v>
       </c>
       <c r="I40">
-        <v>52577573000</v>
+        <v>48039415700</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-14T10:28:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3792974801000</v>
+        <v>3344728296200</v>
       </c>
       <c r="L40">
         <v>232879400</v>
@@ -2393,13 +2393,13 @@
         <v>-813300</v>
       </c>
       <c r="N40">
-        <v>-10771122000</v>
+        <v>-10631961300</v>
       </c>
       <c r="O40">
         <v>5558300</v>
       </c>
       <c r="P40">
-        <v>58865973000</v>
+        <v>34455208200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>6600</v>
       </c>
       <c r="E41">
-        <v>21891784000</v>
+        <v>19817460400</v>
       </c>
       <c r="F41">
-        <v>15983909000</v>
+        <v>14856837200</v>
       </c>
       <c r="G41">
         <v>95072000</v>
@@ -2428,13 +2428,13 @@
         <v>2191500</v>
       </c>
       <c r="I41">
-        <v>37970765000</v>
+        <v>34769369600</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-14T10:30:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3830945566000</v>
+        <v>3379497665800</v>
       </c>
       <c r="L41">
         <v>235070900</v>
@@ -2443,13 +2443,13 @@
         <v>-391900</v>
       </c>
       <c r="N41">
-        <v>-5907875000</v>
+        <v>-4960623200</v>
       </c>
       <c r="O41">
         <v>5166400</v>
       </c>
       <c r="P41">
-        <v>52958098000</v>
+        <v>29494585000</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>13200</v>
       </c>
       <c r="E42">
-        <v>27642003000</v>
+        <v>21922628100</v>
       </c>
       <c r="F42">
-        <v>31350569000</v>
+        <v>28074548300</v>
       </c>
       <c r="G42">
-        <v>500064000</v>
+        <v>484479600</v>
       </c>
       <c r="H42">
         <v>3025900</v>
       </c>
       <c r="I42">
-        <v>59492636000</v>
+        <v>50481656000</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-14T10:32:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3890438202000</v>
+        <v>3429979321800</v>
       </c>
       <c r="L42">
         <v>238096800</v>
@@ -2493,13 +2493,13 @@
         <v>143500</v>
       </c>
       <c r="N42">
-        <v>3708566000</v>
+        <v>6151920200</v>
       </c>
       <c r="O42">
         <v>5309900</v>
       </c>
       <c r="P42">
-        <v>56666664000</v>
+        <v>35646505200</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>56200</v>
       </c>
       <c r="E43">
-        <v>22642859000</v>
+        <v>19739165600</v>
       </c>
       <c r="F43">
-        <v>18669595000</v>
+        <v>15264703300</v>
       </c>
       <c r="G43">
         <v>957681000</v>
@@ -2528,13 +2528,13 @@
         <v>2447600</v>
       </c>
       <c r="I43">
-        <v>42270135000</v>
+        <v>35961549900</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-14T10:34:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3932708337000</v>
+        <v>3465940871700</v>
       </c>
       <c r="L43">
         <v>240544400</v>
@@ -2543,13 +2543,13 @@
         <v>-378000</v>
       </c>
       <c r="N43">
-        <v>-3973264000</v>
+        <v>-4474462300</v>
       </c>
       <c r="O43">
         <v>4931900</v>
       </c>
       <c r="P43">
-        <v>52693400000</v>
+        <v>31172042900</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>2100</v>
       </c>
       <c r="E44">
-        <v>23451646000</v>
+        <v>20318682100</v>
       </c>
       <c r="F44">
-        <v>18452048000</v>
+        <v>15829573100</v>
       </c>
       <c r="G44">
         <v>9042000</v>
@@ -2578,13 +2578,13 @@
         <v>2341300</v>
       </c>
       <c r="I44">
-        <v>41912736000</v>
+        <v>36157297200</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-14T10:36:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3974621073000</v>
+        <v>3502098168900</v>
       </c>
       <c r="L44">
         <v>242885700</v>
@@ -2593,13 +2593,13 @@
         <v>-271800</v>
       </c>
       <c r="N44">
-        <v>-4999598000</v>
+        <v>-4489109000</v>
       </c>
       <c r="O44">
         <v>4660100</v>
       </c>
       <c r="P44">
-        <v>47693802000</v>
+        <v>26682933900</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>8500</v>
       </c>
       <c r="E45">
-        <v>30193778000</v>
+        <v>28924248800</v>
       </c>
       <c r="F45">
-        <v>18072719000</v>
+        <v>17101391300</v>
       </c>
       <c r="G45">
         <v>80180000</v>
@@ -2628,13 +2628,13 @@
         <v>2824400</v>
       </c>
       <c r="I45">
-        <v>48346677000</v>
+        <v>46105820100</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-14T10:38:00.000Z</v>
       </c>
       <c r="K45">
-        <v>4022967750000</v>
+        <v>3548203989000</v>
       </c>
       <c r="L45">
         <v>245710100</v>
@@ -2643,13 +2643,13 @@
         <v>-747700</v>
       </c>
       <c r="N45">
-        <v>-12121059000</v>
+        <v>-11822857500</v>
       </c>
       <c r="O45">
         <v>3912400</v>
       </c>
       <c r="P45">
-        <v>35572743000</v>
+        <v>14860076400</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>33600</v>
       </c>
       <c r="E46">
-        <v>91733250000</v>
+        <v>79549246200</v>
       </c>
       <c r="F46">
-        <v>21042893000</v>
+        <v>18941696300</v>
       </c>
       <c r="G46">
         <v>919238000</v>
@@ -2678,13 +2678,13 @@
         <v>5953400</v>
       </c>
       <c r="I46">
-        <v>113695381000</v>
+        <v>99410180500</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-14T10:40:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4136663131000</v>
+        <v>3647614169500</v>
       </c>
       <c r="L46">
         <v>251663500</v>
@@ -2693,13 +2693,13 @@
         <v>-3323200</v>
       </c>
       <c r="N46">
-        <v>-70690357000</v>
+        <v>-60607549900</v>
       </c>
       <c r="O46">
         <v>589200</v>
       </c>
       <c r="P46">
-        <v>-35117614000</v>
+        <v>-45747473500</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>19900</v>
       </c>
       <c r="E47">
-        <v>59038058000</v>
+        <v>57803693600</v>
       </c>
       <c r="F47">
-        <v>15260733000</v>
+        <v>13743551700</v>
       </c>
       <c r="G47">
         <v>293491000</v>
@@ -2728,13 +2728,13 @@
         <v>4430100</v>
       </c>
       <c r="I47">
-        <v>74592282000</v>
+        <v>71840736300</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-14T10:42:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4211255413000</v>
+        <v>3719454905800</v>
       </c>
       <c r="L47">
         <v>256093600</v>
@@ -2743,13 +2743,13 @@
         <v>-2376000</v>
       </c>
       <c r="N47">
-        <v>-43777325000</v>
+        <v>-44060141900</v>
       </c>
       <c r="O47">
         <v>-1786800</v>
       </c>
       <c r="P47">
-        <v>-78894939000</v>
+        <v>-89807615400</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>15000</v>
       </c>
       <c r="E48">
-        <v>91694867000</v>
+        <v>82937633000</v>
       </c>
       <c r="F48">
-        <v>17875127000</v>
+        <v>17088214700</v>
       </c>
       <c r="G48">
         <v>162211000</v>
@@ -2778,13 +2778,13 @@
         <v>6121600</v>
       </c>
       <c r="I48">
-        <v>109732205000</v>
+        <v>100188058700</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-14T10:44:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4320987618000</v>
+        <v>3819642964500</v>
       </c>
       <c r="L48">
         <v>262215200</v>
@@ -2793,13 +2793,13 @@
         <v>-3968400</v>
       </c>
       <c r="N48">
-        <v>-73819740000</v>
+        <v>-65849418300</v>
       </c>
       <c r="O48">
         <v>-5755200</v>
       </c>
       <c r="P48">
-        <v>-152714679000</v>
+        <v>-155657033700</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>82300</v>
       </c>
       <c r="E49">
-        <v>56472319000</v>
+        <v>54569823400</v>
       </c>
       <c r="F49">
-        <v>18879225000</v>
+        <v>18389914800</v>
       </c>
       <c r="G49">
         <v>1475362000</v>
@@ -2828,13 +2828,13 @@
         <v>4692900</v>
       </c>
       <c r="I49">
-        <v>76826906000</v>
+        <v>74435100200</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-14T10:46:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4397814524000</v>
+        <v>3894078064700</v>
       </c>
       <c r="L49">
         <v>266908100</v>
@@ -2843,13 +2843,13 @@
         <v>-2312800</v>
       </c>
       <c r="N49">
-        <v>-37593094000</v>
+        <v>-36179908600</v>
       </c>
       <c r="O49">
         <v>-8068000</v>
       </c>
       <c r="P49">
-        <v>-190307773000</v>
+        <v>-191836942300</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>17400</v>
       </c>
       <c r="E50">
-        <v>17931271000</v>
+        <v>16153051000</v>
       </c>
       <c r="F50">
-        <v>37448937000</v>
+        <v>32739950700</v>
       </c>
       <c r="G50">
         <v>236570000</v>
@@ -2878,13 +2878,13 @@
         <v>3293600</v>
       </c>
       <c r="I50">
-        <v>55616778000</v>
+        <v>49129571700</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-14T10:48:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4453431302000</v>
+        <v>3943207636400</v>
       </c>
       <c r="L50">
         <v>270201700</v>
@@ -2893,13 +2893,13 @@
         <v>1109400</v>
       </c>
       <c r="N50">
-        <v>19517666000</v>
+        <v>16586899700</v>
       </c>
       <c r="O50">
         <v>-6958600</v>
       </c>
       <c r="P50">
-        <v>-170790107000</v>
+        <v>-175250042600</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>400</v>
       </c>
       <c r="E51">
-        <v>20213011000</v>
+        <v>18853871500</v>
       </c>
       <c r="F51">
-        <v>20407179000</v>
+        <v>17114974500</v>
       </c>
       <c r="G51">
         <v>11496000</v>
@@ -2928,13 +2928,13 @@
         <v>2212000</v>
       </c>
       <c r="I51">
-        <v>40631686000</v>
+        <v>35980342000</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-14T10:50:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4494062988000</v>
+        <v>3979187978400</v>
       </c>
       <c r="L51">
         <v>272413700</v>
@@ -2943,13 +2943,13 @@
         <v>-20000</v>
       </c>
       <c r="N51">
-        <v>194168000</v>
+        <v>-1738897000</v>
       </c>
       <c r="O51">
         <v>-6978600</v>
       </c>
       <c r="P51">
-        <v>-170595939000</v>
+        <v>-176988939600</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>900</v>
       </c>
       <c r="E52">
-        <v>14198619000</v>
+        <v>13200118500</v>
       </c>
       <c r="F52">
-        <v>26343854000</v>
+        <v>21304997900</v>
       </c>
       <c r="G52">
         <v>8660000</v>
@@ -2978,13 +2978,13 @@
         <v>2284800</v>
       </c>
       <c r="I52">
-        <v>40551133000</v>
+        <v>34513776400</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-14T10:52:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4534614121000</v>
+        <v>4013701754800</v>
       </c>
       <c r="L52">
         <v>274698500</v>
@@ -2993,13 +2993,13 @@
         <v>564500</v>
       </c>
       <c r="N52">
-        <v>12145235000</v>
+        <v>8104879400</v>
       </c>
       <c r="O52">
         <v>-6414100</v>
       </c>
       <c r="P52">
-        <v>-158450704000</v>
+        <v>-168884060200</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>13600</v>
       </c>
       <c r="E53">
-        <v>20867203000</v>
+        <v>17264409400</v>
       </c>
       <c r="F53">
-        <v>21462877000</v>
+        <v>16280065000</v>
       </c>
       <c r="G53">
-        <v>289569000</v>
+        <v>253904700</v>
       </c>
       <c r="H53">
         <v>2286000</v>
       </c>
       <c r="I53">
-        <v>42619649000</v>
+        <v>33798379100</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-14T10:54:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4577233770000</v>
+        <v>4047500133900</v>
       </c>
       <c r="L53">
         <v>276984500</v>
@@ -3043,13 +3043,13 @@
         <v>128800</v>
       </c>
       <c r="N53">
-        <v>595674000</v>
+        <v>-984344400</v>
       </c>
       <c r="O53">
         <v>-6285300</v>
       </c>
       <c r="P53">
-        <v>-157855030000</v>
+        <v>-169868404600</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>8000</v>
       </c>
       <c r="E54">
-        <v>16643233000</v>
+        <v>15701775400</v>
       </c>
       <c r="F54">
-        <v>17207737000</v>
+        <v>13241607100</v>
       </c>
       <c r="G54">
         <v>132000000</v>
@@ -3078,13 +3078,13 @@
         <v>1816900</v>
       </c>
       <c r="I54">
-        <v>33982970000</v>
+        <v>29075382500</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-14T10:56:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4611216740000</v>
+        <v>4076575516400</v>
       </c>
       <c r="L54">
         <v>278801400</v>
@@ -3093,13 +3093,13 @@
         <v>7300</v>
       </c>
       <c r="N54">
-        <v>564504000</v>
+        <v>-2460168300</v>
       </c>
       <c r="O54">
         <v>-6278000</v>
       </c>
       <c r="P54">
-        <v>-157290526000</v>
+        <v>-172328572900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>7800</v>
       </c>
       <c r="E55">
-        <v>21299615000</v>
+        <v>20010905000</v>
       </c>
       <c r="F55">
-        <v>14770896000</v>
+        <v>11611958100</v>
       </c>
       <c r="G55">
         <v>110962000</v>
@@ -3128,13 +3128,13 @@
         <v>1945000</v>
       </c>
       <c r="I55">
-        <v>36181473000</v>
+        <v>31733825100</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-14T10:58:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4647398213000</v>
+        <v>4108309341500</v>
       </c>
       <c r="L55">
         <v>280746400</v>
@@ -3143,13 +3143,13 @@
         <v>-436800</v>
       </c>
       <c r="N55">
-        <v>-6528719000</v>
+        <v>-8398946900</v>
       </c>
       <c r="O55">
         <v>-6714800</v>
       </c>
       <c r="P55">
-        <v>-163819245000</v>
+        <v>-180727519800</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>21907241000</v>
+        <v>18191860100</v>
       </c>
       <c r="F56">
-        <v>28265388000</v>
+        <v>19946515200</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3178,13 +3178,13 @@
         <v>2568900</v>
       </c>
       <c r="I56">
-        <v>50172629000</v>
+        <v>38138375300</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-14T11:00:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4697570842000</v>
+        <v>4146447716800</v>
       </c>
       <c r="L56">
         <v>283315300</v>
@@ -3193,13 +3193,13 @@
         <v>-62700</v>
       </c>
       <c r="N56">
-        <v>6358147000</v>
+        <v>1754655100</v>
       </c>
       <c r="O56">
         <v>-6777500</v>
       </c>
       <c r="P56">
-        <v>-157461098000</v>
+        <v>-178972864700</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>2200</v>
       </c>
       <c r="E57">
-        <v>20825704000</v>
+        <v>16457376700</v>
       </c>
       <c r="F57">
-        <v>23465805000</v>
+        <v>21527345400</v>
       </c>
       <c r="G57">
-        <v>36614000</v>
+        <v>29521100</v>
       </c>
       <c r="H57">
         <v>2426300</v>
       </c>
       <c r="I57">
-        <v>44328123000</v>
+        <v>38014243200</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-14T11:02:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4741898965000</v>
+        <v>4184461960000</v>
       </c>
       <c r="L57">
         <v>285741600</v>
@@ -3243,13 +3243,13 @@
         <v>394900</v>
       </c>
       <c r="N57">
-        <v>2640101000</v>
+        <v>5069968700</v>
       </c>
       <c r="O57">
         <v>-6382600</v>
       </c>
       <c r="P57">
-        <v>-154820997000</v>
+        <v>-173902896000</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>13400</v>
       </c>
       <c r="E58">
-        <v>21204492000</v>
+        <v>17024476200</v>
       </c>
       <c r="F58">
-        <v>18676782000</v>
+        <v>14844518100</v>
       </c>
       <c r="G58">
         <v>140077000</v>
@@ -3278,13 +3278,13 @@
         <v>2144700</v>
       </c>
       <c r="I58">
-        <v>40021351000</v>
+        <v>32009071300</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-14T11:04:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4781920316000</v>
+        <v>4216471031300</v>
       </c>
       <c r="L58">
         <v>287886300</v>
@@ -3293,13 +3293,13 @@
         <v>40300</v>
       </c>
       <c r="N58">
-        <v>-2527710000</v>
+        <v>-2179958100</v>
       </c>
       <c r="O58">
         <v>-6342300</v>
       </c>
       <c r="P58">
-        <v>-157348707000</v>
+        <v>-176082854100</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>7100</v>
       </c>
       <c r="E59">
-        <v>15868292000</v>
+        <v>13644617900</v>
       </c>
       <c r="F59">
-        <v>15092972000</v>
+        <v>11907260900</v>
       </c>
       <c r="G59">
         <v>214462000</v>
@@ -3328,13 +3328,13 @@
         <v>1780000</v>
       </c>
       <c r="I59">
-        <v>31175726000</v>
+        <v>25766340800</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-14T11:06:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4813096042000</v>
+        <v>4242237372100</v>
       </c>
       <c r="L59">
         <v>289666300</v>
@@ -3343,13 +3343,13 @@
         <v>-187100</v>
       </c>
       <c r="N59">
-        <v>-775320000</v>
+        <v>-1737357000</v>
       </c>
       <c r="O59">
         <v>-6529400</v>
       </c>
       <c r="P59">
-        <v>-158124027000</v>
+        <v>-177820211100</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>4800</v>
       </c>
       <c r="E60">
-        <v>24619721000</v>
+        <v>24312328700</v>
       </c>
       <c r="F60">
-        <v>23376707000</v>
+        <v>19811475800</v>
       </c>
       <c r="G60">
         <v>124770000</v>
@@ -3378,13 +3378,13 @@
         <v>2464100</v>
       </c>
       <c r="I60">
-        <v>48121198000</v>
+        <v>44248574500</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-14T11:08:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4861217240000</v>
+        <v>4286485946600</v>
       </c>
       <c r="L60">
         <v>292130400</v>
@@ -3393,13 +3393,13 @@
         <v>-97700</v>
       </c>
       <c r="N60">
-        <v>-1243014000</v>
+        <v>-4500852900</v>
       </c>
       <c r="O60">
         <v>-6627100</v>
       </c>
       <c r="P60">
-        <v>-159367041000</v>
+        <v>-182321064000</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>8600</v>
       </c>
       <c r="E61">
-        <v>20053517000</v>
+        <v>19362608600</v>
       </c>
       <c r="F61">
-        <v>27329142000</v>
+        <v>22161215100</v>
       </c>
       <c r="G61">
         <v>104635000</v>
@@ -3428,13 +3428,13 @@
         <v>2545700</v>
       </c>
       <c r="I61">
-        <v>47487294000</v>
+        <v>41628458700</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-14T11:10:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4908704534000</v>
+        <v>4328114405300</v>
       </c>
       <c r="L61">
         <v>294676100</v>
@@ -3443,13 +3443,13 @@
         <v>361300</v>
       </c>
       <c r="N61">
-        <v>7275625000</v>
+        <v>2798606500</v>
       </c>
       <c r="O61">
         <v>-6265800</v>
       </c>
       <c r="P61">
-        <v>-152091416000</v>
+        <v>-179522457500</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>49600</v>
       </c>
       <c r="E62">
-        <v>19348576000</v>
+        <v>18464061400</v>
       </c>
       <c r="F62">
-        <v>46848828000</v>
+        <v>39443740500</v>
       </c>
       <c r="G62">
         <v>583373000</v>
@@ -3478,13 +3478,13 @@
         <v>3767700</v>
       </c>
       <c r="I62">
-        <v>66780777000</v>
+        <v>58491174900</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-14T11:12:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4975485311000</v>
+        <v>4386605580200</v>
       </c>
       <c r="L62">
         <v>298443800</v>
@@ -3493,13 +3493,13 @@
         <v>1532900</v>
       </c>
       <c r="N62">
-        <v>27500252000</v>
+        <v>20979679100</v>
       </c>
       <c r="O62">
         <v>-4732900</v>
       </c>
       <c r="P62">
-        <v>-124591164000</v>
+        <v>-158542778400</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>21700</v>
       </c>
       <c r="E63">
-        <v>20678615000</v>
+        <v>19618975700</v>
       </c>
       <c r="F63">
-        <v>56333577000</v>
+        <v>48261457200</v>
       </c>
       <c r="G63">
-        <v>578810000</v>
+        <v>241447700</v>
       </c>
       <c r="H63">
         <v>3940500</v>
       </c>
       <c r="I63">
-        <v>77591002000</v>
+        <v>68121880600</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-14T11:14:00.000Z</v>
       </c>
       <c r="K63">
-        <v>5053076313000</v>
+        <v>4454727460800</v>
       </c>
       <c r="L63">
         <v>302384300</v>
@@ -3543,13 +3543,13 @@
         <v>1792000</v>
       </c>
       <c r="N63">
-        <v>35654962000</v>
+        <v>28642481500</v>
       </c>
       <c r="O63">
         <v>-2940900</v>
       </c>
       <c r="P63">
-        <v>-88936202000</v>
+        <v>-129900296900</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>2600</v>
       </c>
       <c r="E64">
-        <v>20674623000</v>
+        <v>19581317400</v>
       </c>
       <c r="F64">
-        <v>61894315000</v>
+        <v>54470446300</v>
       </c>
       <c r="G64">
         <v>35845000</v>
@@ -3578,13 +3578,13 @@
         <v>4228000</v>
       </c>
       <c r="I64">
-        <v>82604783000</v>
+        <v>74087608700</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-14T11:16:00.000Z</v>
       </c>
       <c r="K64">
-        <v>5135681096000</v>
+        <v>4528815069500</v>
       </c>
       <c r="L64">
         <v>306612300</v>
@@ -3593,13 +3593,13 @@
         <v>1998000</v>
       </c>
       <c r="N64">
-        <v>41219692000</v>
+        <v>34889128900</v>
       </c>
       <c r="O64">
         <v>-942900</v>
       </c>
       <c r="P64">
-        <v>-47716510000</v>
+        <v>-95011168000</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>29900</v>
       </c>
       <c r="E65">
-        <v>16111003000</v>
+        <v>15661852600</v>
       </c>
       <c r="F65">
-        <v>49456234000</v>
+        <v>46992999700</v>
       </c>
       <c r="G65">
-        <v>725514000</v>
+        <v>511128600</v>
       </c>
       <c r="H65">
         <v>3436700</v>
       </c>
       <c r="I65">
-        <v>66292751000</v>
+        <v>63165980900</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-14T11:18:00.000Z</v>
       </c>
       <c r="K65">
-        <v>5201973847000</v>
+        <v>4591981050400</v>
       </c>
       <c r="L65">
         <v>310049000</v>
@@ -3643,13 +3643,13 @@
         <v>1571200</v>
       </c>
       <c r="N65">
-        <v>33345231000</v>
+        <v>31331147100</v>
       </c>
       <c r="O65">
         <v>628300</v>
       </c>
       <c r="P65">
-        <v>-14371279000</v>
+        <v>-63680020900</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>4800</v>
       </c>
       <c r="E66">
-        <v>61598775000</v>
+        <v>56402476500</v>
       </c>
       <c r="F66">
-        <v>41217804000</v>
+        <v>39734588700</v>
       </c>
       <c r="G66">
         <v>218270000</v>
@@ -3678,13 +3678,13 @@
         <v>4629300</v>
       </c>
       <c r="I66">
-        <v>103034849000</v>
+        <v>96355335200</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-14T11:20:00.000Z</v>
       </c>
       <c r="K66">
-        <v>5305008696000</v>
+        <v>4688336385600</v>
       </c>
       <c r="L66">
         <v>314678300</v>
@@ -3693,13 +3693,13 @@
         <v>-684700</v>
       </c>
       <c r="N66">
-        <v>-20380971000</v>
+        <v>-16667887800</v>
       </c>
       <c r="O66">
         <v>-56400</v>
       </c>
       <c r="P66">
-        <v>-34752250000</v>
+        <v>-80347908700</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>21000</v>
       </c>
       <c r="E67">
-        <v>77587447000</v>
+        <v>69162380500</v>
       </c>
       <c r="F67">
-        <v>32208442000</v>
+        <v>19777984900</v>
       </c>
       <c r="G67">
         <v>538778000</v>
@@ -3728,13 +3728,13 @@
         <v>4688600</v>
       </c>
       <c r="I67">
-        <v>110334667000</v>
+        <v>89479143400</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-14T11:22:00.000Z</v>
       </c>
       <c r="K67">
-        <v>5415343363000</v>
+        <v>4777815529000</v>
       </c>
       <c r="L67">
         <v>319366900</v>
@@ -3743,13 +3743,13 @@
         <v>-2270000</v>
       </c>
       <c r="N67">
-        <v>-45379005000</v>
+        <v>-49384395600</v>
       </c>
       <c r="O67">
         <v>-2326400</v>
       </c>
       <c r="P67">
-        <v>-80131255000</v>
+        <v>-129732304300</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>2400</v>
       </c>
       <c r="E68">
-        <v>61648949000</v>
+        <v>55555348700</v>
       </c>
       <c r="F68">
-        <v>39102733000</v>
+        <v>32149992700</v>
       </c>
       <c r="G68">
         <v>81914000</v>
@@ -3778,13 +3778,13 @@
         <v>4736500</v>
       </c>
       <c r="I68">
-        <v>100833596000</v>
+        <v>87787255400</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-14T11:24:00.000Z</v>
       </c>
       <c r="K68">
-        <v>5516176959000</v>
+        <v>4865602784400</v>
       </c>
       <c r="L68">
         <v>324103400</v>
@@ -3793,13 +3793,13 @@
         <v>-598500</v>
       </c>
       <c r="N68">
-        <v>-22546216000</v>
+        <v>-23405356000</v>
       </c>
       <c r="O68">
         <v>-2924900</v>
       </c>
       <c r="P68">
-        <v>-102677471000</v>
+        <v>-153137660300</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>13900</v>
       </c>
       <c r="E69">
-        <v>36418944000</v>
+        <v>32498868000</v>
       </c>
       <c r="F69">
-        <v>29597518000</v>
+        <v>24759660700</v>
       </c>
       <c r="G69">
-        <v>230730000</v>
+        <v>193767000</v>
       </c>
       <c r="H69">
         <v>3410700</v>
       </c>
       <c r="I69">
-        <v>66247192000</v>
+        <v>57452295700</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-14T11:26:00.000Z</v>
       </c>
       <c r="K69">
-        <v>5582424151000</v>
+        <v>4923055080100</v>
       </c>
       <c r="L69">
         <v>327514100</v>
@@ -3843,13 +3843,13 @@
         <v>-350600</v>
       </c>
       <c r="N69">
-        <v>-6821426000</v>
+        <v>-7739207300</v>
       </c>
       <c r="O69">
         <v>-3275500</v>
       </c>
       <c r="P69">
-        <v>-109498897000</v>
+        <v>-160876867600</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>18400</v>
       </c>
       <c r="E70">
-        <v>28552077000</v>
+        <v>24138295200</v>
       </c>
       <c r="F70">
-        <v>25299866000</v>
+        <v>20296374500</v>
       </c>
       <c r="G70">
-        <v>446959000</v>
+        <v>319886200</v>
       </c>
       <c r="H70">
         <v>2568000</v>
       </c>
       <c r="I70">
-        <v>54298902000</v>
+        <v>44754555900</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-14T11:28:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5636723053000</v>
+        <v>4967809636000</v>
       </c>
       <c r="L70">
         <v>330082100</v>
@@ -3893,13 +3893,13 @@
         <v>-209600</v>
       </c>
       <c r="N70">
-        <v>-3252211000</v>
+        <v>-3841920700</v>
       </c>
       <c r="O70">
         <v>-3485100</v>
       </c>
       <c r="P70">
-        <v>-112751108000</v>
+        <v>-164718788300</v>
       </c>
     </row>
     <row r="71">
@@ -3934,7 +3934,7 @@
         <v>2022-12-14T11:30:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5636788738000</v>
+        <v>4967875321000</v>
       </c>
       <c r="L71">
         <v>330085200</v>
@@ -3949,7 +3949,7 @@
         <v>-3486200</v>
       </c>
       <c r="P71">
-        <v>-112751743000</v>
+        <v>-164719423300</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>261900</v>
       </c>
       <c r="E72">
-        <v>117713036000</v>
+        <v>111728226800</v>
       </c>
       <c r="F72">
-        <v>73212748000</v>
+        <v>67810855300</v>
       </c>
       <c r="G72">
-        <v>4103695000</v>
+        <v>3977521300</v>
       </c>
       <c r="H72">
         <v>12099400</v>
       </c>
       <c r="I72">
-        <v>195029479000</v>
+        <v>183516603400</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-14T13:00:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5831818217000</v>
+        <v>5151391924400</v>
       </c>
       <c r="L72">
         <v>342184600</v>
@@ -3993,13 +3993,13 @@
         <v>-3630500</v>
       </c>
       <c r="N72">
-        <v>-44500288000</v>
+        <v>-43917371500</v>
       </c>
       <c r="O72">
         <v>-7116700</v>
       </c>
       <c r="P72">
-        <v>-157252031000</v>
+        <v>-208636794800</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>21300</v>
       </c>
       <c r="E73">
-        <v>55714480000</v>
+        <v>51286812100</v>
       </c>
       <c r="F73">
-        <v>37930071000</v>
+        <v>30240668100</v>
       </c>
       <c r="G73">
-        <v>320758000</v>
+        <v>305573200</v>
       </c>
       <c r="H73">
         <v>5231400</v>
       </c>
       <c r="I73">
-        <v>93965309000</v>
+        <v>81833053400</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-14T13:02:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5925783526000</v>
+        <v>5233224977800</v>
       </c>
       <c r="L73">
         <v>347416000</v>
@@ -4043,13 +4043,13 @@
         <v>-1314300</v>
       </c>
       <c r="N73">
-        <v>-17784409000</v>
+        <v>-21046144000</v>
       </c>
       <c r="O73">
         <v>-8431000</v>
       </c>
       <c r="P73">
-        <v>-175036440000</v>
+        <v>-229682938800</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>42100</v>
       </c>
       <c r="E74">
-        <v>59340061000</v>
+        <v>56542361500</v>
       </c>
       <c r="F74">
-        <v>36929207000</v>
+        <v>35976960200</v>
       </c>
       <c r="G74">
         <v>688800000</v>
@@ -4078,13 +4078,13 @@
         <v>5680300</v>
       </c>
       <c r="I74">
-        <v>96958068000</v>
+        <v>93208121700</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-14T13:04:00.000Z</v>
       </c>
       <c r="K74">
-        <v>6022741594000</v>
+        <v>5326433099500</v>
       </c>
       <c r="L74">
         <v>353096300</v>
@@ -4093,13 +4093,13 @@
         <v>-1016600</v>
       </c>
       <c r="N74">
-        <v>-22410854000</v>
+        <v>-20565401300</v>
       </c>
       <c r="O74">
         <v>-9447600</v>
       </c>
       <c r="P74">
-        <v>-197447294000</v>
+        <v>-250248340100</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>29000</v>
       </c>
       <c r="E75">
-        <v>131299845000</v>
+        <v>125035415700</v>
       </c>
       <c r="F75">
-        <v>23817941000</v>
+        <v>22812347600</v>
       </c>
       <c r="G75">
-        <v>403948000</v>
+        <v>370981000</v>
       </c>
       <c r="H75">
         <v>9989800</v>
       </c>
       <c r="I75">
-        <v>155521734000</v>
+        <v>148218744300</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-14T13:06:00.000Z</v>
       </c>
       <c r="K75">
-        <v>6178263328000</v>
+        <v>5474651843800</v>
       </c>
       <c r="L75">
         <v>363086100</v>
@@ -4143,13 +4143,13 @@
         <v>-7222400</v>
       </c>
       <c r="N75">
-        <v>-107481904000</v>
+        <v>-102223068100</v>
       </c>
       <c r="O75">
         <v>-16670000</v>
       </c>
       <c r="P75">
-        <v>-304929198000</v>
+        <v>-352471408200</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>5100</v>
       </c>
       <c r="E76">
-        <v>92912385000</v>
+        <v>82926381000</v>
       </c>
       <c r="F76">
-        <v>38471966000</v>
+        <v>35704536200</v>
       </c>
       <c r="G76">
-        <v>136343000</v>
+        <v>131547800</v>
       </c>
       <c r="H76">
         <v>9403700</v>
       </c>
       <c r="I76">
-        <v>131520694000</v>
+        <v>118762465000</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-14T13:08:00.000Z</v>
       </c>
       <c r="K76">
-        <v>6309784022000</v>
+        <v>5593414308800</v>
       </c>
       <c r="L76">
         <v>372489800</v>
@@ -4193,13 +4193,13 @@
         <v>-3667400</v>
       </c>
       <c r="N76">
-        <v>-54440419000</v>
+        <v>-47221844800</v>
       </c>
       <c r="O76">
         <v>-20337400</v>
       </c>
       <c r="P76">
-        <v>-359369617000</v>
+        <v>-399693253000</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>15800</v>
       </c>
       <c r="E77">
-        <v>62670356000</v>
+        <v>55306327400</v>
       </c>
       <c r="F77">
-        <v>37639352000</v>
+        <v>36003289700</v>
       </c>
       <c r="G77">
-        <v>173430000</v>
+        <v>82221300</v>
       </c>
       <c r="H77">
         <v>7564800</v>
       </c>
       <c r="I77">
-        <v>100483138000</v>
+        <v>91391838400</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-14T13:10:00.000Z</v>
       </c>
       <c r="K77">
-        <v>6410267160000</v>
+        <v>5684806147200</v>
       </c>
       <c r="L77">
         <v>380054600</v>
@@ -4243,13 +4243,13 @@
         <v>-2886200</v>
       </c>
       <c r="N77">
-        <v>-25031004000</v>
+        <v>-19303037700</v>
       </c>
       <c r="O77">
         <v>-23223600</v>
       </c>
       <c r="P77">
-        <v>-384400621000</v>
+        <v>-418996290700</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>11500</v>
       </c>
       <c r="E78">
-        <v>33842105000</v>
+        <v>30611638700</v>
       </c>
       <c r="F78">
-        <v>54571704000</v>
+        <v>46078705500</v>
       </c>
       <c r="G78">
         <v>102872000</v>
@@ -4278,13 +4278,13 @@
         <v>5872900</v>
       </c>
       <c r="I78">
-        <v>88516681000</v>
+        <v>76793216200</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-14T13:12:00.000Z</v>
       </c>
       <c r="K78">
-        <v>6498783841000</v>
+        <v>5761599363400</v>
       </c>
       <c r="L78">
         <v>385927500</v>
@@ -4293,13 +4293,13 @@
         <v>949600</v>
       </c>
       <c r="N78">
-        <v>20729599000</v>
+        <v>15467066800</v>
       </c>
       <c r="O78">
         <v>-22274000</v>
       </c>
       <c r="P78">
-        <v>-363671022000</v>
+        <v>-403529223900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>17200</v>
       </c>
       <c r="E79">
-        <v>44331999000</v>
+        <v>37490547300</v>
       </c>
       <c r="F79">
-        <v>66295484000</v>
+        <v>60360824600</v>
       </c>
       <c r="G79">
         <v>392699000</v>
@@ -4328,13 +4328,13 @@
         <v>6169700</v>
       </c>
       <c r="I79">
-        <v>111020182000</v>
+        <v>98244070900</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-14T13:14:00.000Z</v>
       </c>
       <c r="K79">
-        <v>6609804023000</v>
+        <v>5859843434300</v>
       </c>
       <c r="L79">
         <v>392097200</v>
@@ -4343,13 +4343,13 @@
         <v>1481700</v>
       </c>
       <c r="N79">
-        <v>21963485000</v>
+        <v>22870277300</v>
       </c>
       <c r="O79">
         <v>-20792300</v>
       </c>
       <c r="P79">
-        <v>-341707537000</v>
+        <v>-380658946600</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>38000</v>
       </c>
       <c r="E80">
-        <v>45999710000</v>
+        <v>41924189600</v>
       </c>
       <c r="F80">
-        <v>37846169000</v>
+        <v>36387728900</v>
       </c>
       <c r="G80">
         <v>563000000</v>
@@ -4378,13 +4378,13 @@
         <v>4799800</v>
       </c>
       <c r="I80">
-        <v>84408879000</v>
+        <v>78874918500</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-14T13:16:00.000Z</v>
       </c>
       <c r="K80">
-        <v>6694212902000</v>
+        <v>5938718352800</v>
       </c>
       <c r="L80">
         <v>396897000</v>
@@ -4393,13 +4393,13 @@
         <v>-475200</v>
       </c>
       <c r="N80">
-        <v>-8153541000</v>
+        <v>-5536460700</v>
       </c>
       <c r="O80">
         <v>-21267500</v>
       </c>
       <c r="P80">
-        <v>-349861078000</v>
+        <v>-386195407300</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>5900</v>
       </c>
       <c r="E81">
-        <v>40097645000</v>
+        <v>34606741400</v>
       </c>
       <c r="F81">
-        <v>39157166000</v>
+        <v>37086738500</v>
       </c>
       <c r="G81">
         <v>90182000</v>
@@ -4428,13 +4428,13 @@
         <v>4475000</v>
       </c>
       <c r="I81">
-        <v>79344993000</v>
+        <v>71783661900</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-14T13:18:00.000Z</v>
       </c>
       <c r="K81">
-        <v>6773557895000</v>
+        <v>6010502014700</v>
       </c>
       <c r="L81">
         <v>401372000</v>
@@ -4443,13 +4443,13 @@
         <v>324900</v>
       </c>
       <c r="N81">
-        <v>-940479000</v>
+        <v>2479997100</v>
       </c>
       <c r="O81">
         <v>-20942600</v>
       </c>
       <c r="P81">
-        <v>-350801557000</v>
+        <v>-383715410200</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>5500</v>
       </c>
       <c r="E82">
-        <v>47039281000</v>
+        <v>43605018700</v>
       </c>
       <c r="F82">
-        <v>47293234000</v>
+        <v>45685443400</v>
       </c>
       <c r="G82">
-        <v>58130000</v>
+        <v>44343800</v>
       </c>
       <c r="H82">
         <v>5255300</v>
       </c>
       <c r="I82">
-        <v>94390645000</v>
+        <v>89334805900</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-14T13:20:00.000Z</v>
       </c>
       <c r="K82">
-        <v>6867948540000</v>
+        <v>6099836820600</v>
       </c>
       <c r="L82">
         <v>406627300</v>
@@ -4493,13 +4493,13 @@
         <v>-98200</v>
       </c>
       <c r="N82">
-        <v>253953000</v>
+        <v>2080424700</v>
       </c>
       <c r="O82">
         <v>-21040800</v>
       </c>
       <c r="P82">
-        <v>-350547604000</v>
+        <v>-381634985500</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>56100</v>
       </c>
       <c r="E83">
-        <v>51555193000</v>
+        <v>49198152400</v>
       </c>
       <c r="F83">
-        <v>66573234000</v>
+        <v>62132079600</v>
       </c>
       <c r="G83">
         <v>759242000</v>
@@ -4528,13 +4528,13 @@
         <v>7044000</v>
       </c>
       <c r="I83">
-        <v>118887669000</v>
+        <v>112089474000</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-14T13:22:00.000Z</v>
       </c>
       <c r="K83">
-        <v>6986836209000</v>
+        <v>6211926294600</v>
       </c>
       <c r="L83">
         <v>413671300</v>
@@ -4543,13 +4543,13 @@
         <v>395900</v>
       </c>
       <c r="N83">
-        <v>15018041000</v>
+        <v>12933927200</v>
       </c>
       <c r="O83">
         <v>-20644900</v>
       </c>
       <c r="P83">
-        <v>-335529563000</v>
+        <v>-368701058300</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>26000</v>
       </c>
       <c r="E84">
-        <v>37043156000</v>
+        <v>35315785100</v>
       </c>
       <c r="F84">
-        <v>119165755000</v>
+        <v>110593635700</v>
       </c>
       <c r="G84">
-        <v>656684000</v>
+        <v>626214500</v>
       </c>
       <c r="H84">
         <v>9224000</v>
       </c>
       <c r="I84">
-        <v>156865595000</v>
+        <v>146535635300</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-14T13:24:00.000Z</v>
       </c>
       <c r="K84">
-        <v>7143701804000</v>
+        <v>6358461929900</v>
       </c>
       <c r="L84">
         <v>422895300</v>
@@ -4593,13 +4593,13 @@
         <v>5100200</v>
       </c>
       <c r="N84">
-        <v>82122599000</v>
+        <v>75277850600</v>
       </c>
       <c r="O84">
         <v>-15544700</v>
       </c>
       <c r="P84">
-        <v>-253406964000</v>
+        <v>-293423207700</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>24500</v>
       </c>
       <c r="E85">
-        <v>45732284000</v>
+        <v>42883735400</v>
       </c>
       <c r="F85">
-        <v>137943440000</v>
+        <v>118522680200</v>
       </c>
       <c r="G85">
-        <v>775240000</v>
+        <v>727887400</v>
       </c>
       <c r="H85">
         <v>10802500</v>
       </c>
       <c r="I85">
-        <v>184450964000</v>
+        <v>162134303000</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-14T13:26:00.000Z</v>
       </c>
       <c r="K85">
-        <v>7328152768000</v>
+        <v>6520596232900</v>
       </c>
       <c r="L85">
         <v>433697800</v>
@@ -4643,13 +4643,13 @@
         <v>5718000</v>
       </c>
       <c r="N85">
-        <v>92211156000</v>
+        <v>75638944800</v>
       </c>
       <c r="O85">
         <v>-9826700</v>
       </c>
       <c r="P85">
-        <v>-161195808000</v>
+        <v>-217784262900</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>24300</v>
       </c>
       <c r="E86">
-        <v>61734890000</v>
+        <v>54336495800</v>
       </c>
       <c r="F86">
-        <v>125993333000</v>
+        <v>108645098600</v>
       </c>
       <c r="G86">
         <v>353347000</v>
@@ -4678,13 +4678,13 @@
         <v>10298300</v>
       </c>
       <c r="I86">
-        <v>188081570000</v>
+        <v>163334941400</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-14T13:28:00.000Z</v>
       </c>
       <c r="K86">
-        <v>7516234338000</v>
+        <v>6683931174300</v>
       </c>
       <c r="L86">
         <v>443996100</v>
@@ -4693,13 +4693,13 @@
         <v>3168800</v>
       </c>
       <c r="N86">
-        <v>64258443000</v>
+        <v>54308602800</v>
       </c>
       <c r="O86">
         <v>-6657900</v>
       </c>
       <c r="P86">
-        <v>-96937365000</v>
+        <v>-163475660100</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>19500</v>
       </c>
       <c r="E87">
-        <v>99126298000</v>
+        <v>91248683500</v>
       </c>
       <c r="F87">
-        <v>44235751000</v>
+        <v>35046549400</v>
       </c>
       <c r="G87">
-        <v>375316000</v>
+        <v>374017300</v>
       </c>
       <c r="H87">
         <v>7366300</v>
       </c>
       <c r="I87">
-        <v>143737365000</v>
+        <v>126669250200</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-14T13:30:00.000Z</v>
       </c>
       <c r="K87">
-        <v>7659971703000</v>
+        <v>6810600424500</v>
       </c>
       <c r="L87">
         <v>451362400</v>
@@ -4743,13 +4743,13 @@
         <v>-2554400</v>
       </c>
       <c r="N87">
-        <v>-54890547000</v>
+        <v>-56202134100</v>
       </c>
       <c r="O87">
         <v>-9212300</v>
       </c>
       <c r="P87">
-        <v>-151827912000</v>
+        <v>-219677794200</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>42400</v>
       </c>
       <c r="E88">
-        <v>56780630000</v>
+        <v>50226590600</v>
       </c>
       <c r="F88">
-        <v>42499235000</v>
+        <v>37399739600</v>
       </c>
       <c r="G88">
         <v>1687425000</v>
@@ -4778,13 +4778,13 @@
         <v>5704000</v>
       </c>
       <c r="I88">
-        <v>100967290000</v>
+        <v>89313755200</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-14T13:32:00.000Z</v>
       </c>
       <c r="K88">
-        <v>7760938993000</v>
+        <v>6899914179700</v>
       </c>
       <c r="L88">
         <v>457066400</v>
@@ -4793,13 +4793,13 @@
         <v>-901600</v>
       </c>
       <c r="N88">
-        <v>-14281395000</v>
+        <v>-12826851000</v>
       </c>
       <c r="O88">
         <v>-10113900</v>
       </c>
       <c r="P88">
-        <v>-166109307000</v>
+        <v>-232504645200</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>35100</v>
       </c>
       <c r="E89">
-        <v>77420811000</v>
+        <v>69281458500</v>
       </c>
       <c r="F89">
-        <v>38358474000</v>
+        <v>34954581300</v>
       </c>
       <c r="G89">
-        <v>442393000</v>
+        <v>397238200</v>
       </c>
       <c r="H89">
         <v>6033000</v>
       </c>
       <c r="I89">
-        <v>116221678000</v>
+        <v>104633278000</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-14T13:34:00.000Z</v>
       </c>
       <c r="K89">
-        <v>7877160671000</v>
+        <v>7004547457700</v>
       </c>
       <c r="L89">
         <v>463099400</v>
@@ -4843,13 +4843,13 @@
         <v>-1769900</v>
       </c>
       <c r="N89">
-        <v>-39062337000</v>
+        <v>-34326877200</v>
       </c>
       <c r="O89">
         <v>-11883800</v>
       </c>
       <c r="P89">
-        <v>-205171644000</v>
+        <v>-266831522400</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>10700</v>
       </c>
       <c r="E90">
-        <v>43310515000</v>
+        <v>39698630500</v>
       </c>
       <c r="F90">
-        <v>34532900000</v>
+        <v>31856778800</v>
       </c>
       <c r="G90">
-        <v>176360000</v>
+        <v>168667700</v>
       </c>
       <c r="H90">
         <v>4517400</v>
       </c>
       <c r="I90">
-        <v>78019775000</v>
+        <v>71724077000</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-14T13:36:00.000Z</v>
       </c>
       <c r="K90">
-        <v>7955180446000</v>
+        <v>7076271534700</v>
       </c>
       <c r="L90">
         <v>467616800</v>
@@ -4893,13 +4893,13 @@
         <v>-514500</v>
       </c>
       <c r="N90">
-        <v>-8777615000</v>
+        <v>-7841851700</v>
       </c>
       <c r="O90">
         <v>-12398300</v>
       </c>
       <c r="P90">
-        <v>-213949259000</v>
+        <v>-274673374100</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>43100</v>
       </c>
       <c r="E91">
-        <v>44919543000</v>
+        <v>41331734400</v>
       </c>
       <c r="F91">
-        <v>30764629000</v>
+        <v>26897799700</v>
       </c>
       <c r="G91">
-        <v>626585000</v>
+        <v>533877800</v>
       </c>
       <c r="H91">
         <v>4167000</v>
       </c>
       <c r="I91">
-        <v>76310757000</v>
+        <v>68763411900</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-14T13:38:00.000Z</v>
       </c>
       <c r="K91">
-        <v>8031491203000</v>
+        <v>7145034946600</v>
       </c>
       <c r="L91">
         <v>471783800</v>
@@ -4943,13 +4943,13 @@
         <v>-835900</v>
       </c>
       <c r="N91">
-        <v>-14154914000</v>
+        <v>-14433934700</v>
       </c>
       <c r="O91">
         <v>-13234200</v>
       </c>
       <c r="P91">
-        <v>-228104173000</v>
+        <v>-289107308800</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>10100</v>
       </c>
       <c r="E92">
-        <v>34493866000</v>
+        <v>33447613300</v>
       </c>
       <c r="F92">
-        <v>32728647000</v>
+        <v>31468508400</v>
       </c>
       <c r="G92">
-        <v>307660000</v>
+        <v>306261400</v>
       </c>
       <c r="H92">
         <v>4138300</v>
       </c>
       <c r="I92">
-        <v>67530173000</v>
+        <v>65222383100</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-14T13:40:00.000Z</v>
       </c>
       <c r="K92">
-        <v>8099021376000</v>
+        <v>7210257329700</v>
       </c>
       <c r="L92">
         <v>475922100</v>
@@ -4993,13 +4993,13 @@
         <v>-36400</v>
       </c>
       <c r="N92">
-        <v>-1765219000</v>
+        <v>-1979104900</v>
       </c>
       <c r="O92">
         <v>-13270600</v>
       </c>
       <c r="P92">
-        <v>-229869392000</v>
+        <v>-291086413700</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>1300</v>
       </c>
       <c r="E93">
-        <v>72055760000</v>
+        <v>69490028300</v>
       </c>
       <c r="F93">
-        <v>31441114000</v>
+        <v>28421436700</v>
       </c>
       <c r="G93">
         <v>30295000</v>
@@ -5028,13 +5028,13 @@
         <v>5103500</v>
       </c>
       <c r="I93">
-        <v>103527169000</v>
+        <v>97941760000</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-14T13:42:00.000Z</v>
       </c>
       <c r="K93">
-        <v>8202548545000</v>
+        <v>7308199089700</v>
       </c>
       <c r="L93">
         <v>481025600</v>
@@ -5043,13 +5043,13 @@
         <v>-1615400</v>
       </c>
       <c r="N93">
-        <v>-40614646000</v>
+        <v>-41068591600</v>
       </c>
       <c r="O93">
         <v>-14886000</v>
       </c>
       <c r="P93">
-        <v>-270484038000</v>
+        <v>-332155005300</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>13900</v>
       </c>
       <c r="E94">
-        <v>42853029000</v>
+        <v>40070614200</v>
       </c>
       <c r="F94">
-        <v>25437472000</v>
+        <v>23225486200</v>
       </c>
       <c r="G94">
         <v>210854000</v>
@@ -5078,13 +5078,13 @@
         <v>4007200</v>
       </c>
       <c r="I94">
-        <v>68501355000</v>
+        <v>63506954400</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-14T13:44:00.000Z</v>
       </c>
       <c r="K94">
-        <v>8271049900000</v>
+        <v>7371706044100</v>
       </c>
       <c r="L94">
         <v>485032800</v>
@@ -5093,13 +5093,13 @@
         <v>-1062900</v>
       </c>
       <c r="N94">
-        <v>-17415557000</v>
+        <v>-16845128000</v>
       </c>
       <c r="O94">
         <v>-15948900</v>
       </c>
       <c r="P94">
-        <v>-287899595000</v>
+        <v>-349000133300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>8300</v>
       </c>
       <c r="E95">
-        <v>71552659000</v>
+        <v>69055159000</v>
       </c>
       <c r="F95">
-        <v>24479187000</v>
+        <v>22026042600</v>
       </c>
       <c r="G95">
-        <v>158835000</v>
+        <v>155937900</v>
       </c>
       <c r="H95">
         <v>4733300</v>
       </c>
       <c r="I95">
-        <v>96190681000</v>
+        <v>91237139500</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-14T13:46:00.000Z</v>
       </c>
       <c r="K95">
-        <v>8367240581000</v>
+        <v>7462943183600</v>
       </c>
       <c r="L95">
         <v>489766100</v>
@@ -5143,13 +5143,13 @@
         <v>-2213200</v>
       </c>
       <c r="N95">
-        <v>-47073472000</v>
+        <v>-47029116400</v>
       </c>
       <c r="O95">
         <v>-18162100</v>
       </c>
       <c r="P95">
-        <v>-334973067000</v>
+        <v>-396029249700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>26300</v>
       </c>
       <c r="E96">
-        <v>130370071000</v>
+        <v>116738316400</v>
       </c>
       <c r="F96">
-        <v>26454921000</v>
+        <v>24248629500</v>
       </c>
       <c r="G96">
-        <v>460149000</v>
+        <v>337771500</v>
       </c>
       <c r="H96">
         <v>8290800</v>
       </c>
       <c r="I96">
-        <v>157285141000</v>
+        <v>141324717400</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-14T13:48:00.000Z</v>
       </c>
       <c r="K96">
-        <v>8524525722000</v>
+        <v>7604267901000</v>
       </c>
       <c r="L96">
         <v>498056900</v>
@@ -5193,13 +5193,13 @@
         <v>-5382100</v>
       </c>
       <c r="N96">
-        <v>-103915150000</v>
+        <v>-92489686900</v>
       </c>
       <c r="O96">
         <v>-23544200</v>
       </c>
       <c r="P96">
-        <v>-438888217000</v>
+        <v>-488518936600</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>7200</v>
       </c>
       <c r="E97">
-        <v>59383045000</v>
+        <v>53820413200</v>
       </c>
       <c r="F97">
-        <v>36659826000</v>
+        <v>34794093600</v>
       </c>
       <c r="G97">
         <v>51192000</v>
@@ -5228,13 +5228,13 @@
         <v>5343600</v>
       </c>
       <c r="I97">
-        <v>96094063000</v>
+        <v>88665698800</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-14T13:50:00.000Z</v>
       </c>
       <c r="K97">
-        <v>8620619785000</v>
+        <v>7692933599800</v>
       </c>
       <c r="L97">
         <v>503400500</v>
@@ -5243,13 +5243,13 @@
         <v>-1278800</v>
       </c>
       <c r="N97">
-        <v>-22723219000</v>
+        <v>-19026319600</v>
       </c>
       <c r="O97">
         <v>-24823000</v>
       </c>
       <c r="P97">
-        <v>-461611436000</v>
+        <v>-507545256200</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>25100</v>
       </c>
       <c r="E98">
-        <v>36742808000</v>
+        <v>33552901100</v>
       </c>
       <c r="F98">
-        <v>38156947000</v>
+        <v>34780626700</v>
       </c>
       <c r="G98">
-        <v>244136000</v>
+        <v>209171000</v>
       </c>
       <c r="H98">
         <v>4038300</v>
       </c>
       <c r="I98">
-        <v>75143891000</v>
+        <v>68542698800</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-14T13:52:00.000Z</v>
       </c>
       <c r="K98">
-        <v>8695763676000</v>
+        <v>7761476298600</v>
       </c>
       <c r="L98">
         <v>507438800</v>
@@ -5293,13 +5293,13 @@
         <v>151400</v>
       </c>
       <c r="N98">
-        <v>1414139000</v>
+        <v>1227725600</v>
       </c>
       <c r="O98">
         <v>-24671600</v>
       </c>
       <c r="P98">
-        <v>-460197297000</v>
+        <v>-506317530600</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>17200</v>
       </c>
       <c r="E99">
-        <v>53950882000</v>
+        <v>47246493100</v>
       </c>
       <c r="F99">
-        <v>29305909000</v>
+        <v>26989028200</v>
       </c>
       <c r="G99">
         <v>242311000</v>
@@ -5328,13 +5328,13 @@
         <v>4410700</v>
       </c>
       <c r="I99">
-        <v>83499102000</v>
+        <v>74477832300</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-14T13:54:00.000Z</v>
       </c>
       <c r="K99">
-        <v>8779262778000</v>
+        <v>7835954130900</v>
       </c>
       <c r="L99">
         <v>511849500</v>
@@ -5343,13 +5343,13 @@
         <v>-1064100</v>
       </c>
       <c r="N99">
-        <v>-24644973000</v>
+        <v>-20257464900</v>
       </c>
       <c r="O99">
         <v>-25735700</v>
       </c>
       <c r="P99">
-        <v>-484842270000</v>
+        <v>-526574995500</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>7200</v>
       </c>
       <c r="E100">
-        <v>46710295000</v>
+        <v>42455454100</v>
       </c>
       <c r="F100">
-        <v>27062033000</v>
+        <v>24076621400</v>
       </c>
       <c r="G100">
-        <v>176100000</v>
+        <v>172203900</v>
       </c>
       <c r="H100">
         <v>3871300</v>
       </c>
       <c r="I100">
-        <v>73948428000</v>
+        <v>66704279400</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-14T13:56:00.000Z</v>
       </c>
       <c r="K100">
-        <v>8853211206000</v>
+        <v>7902658410300</v>
       </c>
       <c r="L100">
         <v>515720800</v>
@@ -5393,13 +5393,13 @@
         <v>-1136900</v>
       </c>
       <c r="N100">
-        <v>-19648262000</v>
+        <v>-18378832700</v>
       </c>
       <c r="O100">
         <v>-26872600</v>
       </c>
       <c r="P100">
-        <v>-504490532000</v>
+        <v>-544953828200</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>2600</v>
       </c>
       <c r="E101">
-        <v>59091776000</v>
+        <v>53692280900</v>
       </c>
       <c r="F101">
-        <v>21816627000</v>
+        <v>19577967900</v>
       </c>
       <c r="G101">
         <v>50201000</v>
@@ -5428,13 +5428,13 @@
         <v>4341400</v>
       </c>
       <c r="I101">
-        <v>80958604000</v>
+        <v>73320449800</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-14T13:58:00.000Z</v>
       </c>
       <c r="K101">
-        <v>8934169810000</v>
+        <v>7975978860100</v>
       </c>
       <c r="L101">
         <v>520062200</v>
@@ -5443,13 +5443,13 @@
         <v>-2261600</v>
       </c>
       <c r="N101">
-        <v>-37275149000</v>
+        <v>-34114313000</v>
       </c>
       <c r="O101">
         <v>-29134200</v>
       </c>
       <c r="P101">
-        <v>-541765681000</v>
+        <v>-579068141200</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>44000</v>
       </c>
       <c r="E102">
-        <v>95470729000</v>
+        <v>87458349400</v>
       </c>
       <c r="F102">
-        <v>19541685000</v>
+        <v>18562165500</v>
       </c>
       <c r="G102">
         <v>642007000</v>
@@ -5478,13 +5478,13 @@
         <v>6224000</v>
       </c>
       <c r="I102">
-        <v>115654421000</v>
+        <v>106662521900</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-14T14:00:00.000Z</v>
       </c>
       <c r="K102">
-        <v>9049824231000</v>
+        <v>8082641382000</v>
       </c>
       <c r="L102">
         <v>526286200</v>
@@ -5493,13 +5493,13 @@
         <v>-4331400</v>
       </c>
       <c r="N102">
-        <v>-75929044000</v>
+        <v>-68896183900</v>
       </c>
       <c r="O102">
         <v>-33465600</v>
       </c>
       <c r="P102">
-        <v>-617694725000</v>
+        <v>-647964325100</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>26000</v>
       </c>
       <c r="E103">
-        <v>81793412000</v>
+        <v>73469544200</v>
       </c>
       <c r="F103">
-        <v>119797124000</v>
+        <v>92765682500</v>
       </c>
       <c r="G103">
         <v>995170000</v>
@@ -5528,13 +5528,13 @@
         <v>10004400</v>
       </c>
       <c r="I103">
-        <v>202585706000</v>
+        <v>167230396700</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-14T14:02:00.000Z</v>
       </c>
       <c r="K103">
-        <v>9252409937000</v>
+        <v>8249871778700</v>
       </c>
       <c r="L103">
         <v>536290600</v>
@@ -5543,13 +5543,13 @@
         <v>491800</v>
       </c>
       <c r="N103">
-        <v>38003712000</v>
+        <v>19296138300</v>
       </c>
       <c r="O103">
         <v>-32973800</v>
       </c>
       <c r="P103">
-        <v>-579691013000</v>
+        <v>-628668186800</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>77900</v>
       </c>
       <c r="E104">
-        <v>26459534000</v>
+        <v>22590107300</v>
       </c>
       <c r="F104">
-        <v>110970610000</v>
+        <v>101854535200</v>
       </c>
       <c r="G104">
         <v>1304168000</v>
@@ -5578,13 +5578,13 @@
         <v>7491400</v>
       </c>
       <c r="I104">
-        <v>138734312000</v>
+        <v>125748810500</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-14T14:04:00.000Z</v>
       </c>
       <c r="K104">
-        <v>9391144249000</v>
+        <v>8375620589200</v>
       </c>
       <c r="L104">
         <v>543782000</v>
@@ -5593,13 +5593,13 @@
         <v>4652300</v>
       </c>
       <c r="N104">
-        <v>84511076000</v>
+        <v>79264427900</v>
       </c>
       <c r="O104">
         <v>-28321500</v>
       </c>
       <c r="P104">
-        <v>-495179937000</v>
+        <v>-549403758900</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>10400</v>
       </c>
       <c r="E105">
-        <v>53007392000</v>
+        <v>51002598800</v>
       </c>
       <c r="F105">
-        <v>44282514000</v>
+        <v>42323574900</v>
       </c>
       <c r="G105">
         <v>144094000</v>
@@ -5628,13 +5628,13 @@
         <v>5368900</v>
       </c>
       <c r="I105">
-        <v>97434000000</v>
+        <v>93470267700</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-14T14:06:00.000Z</v>
       </c>
       <c r="K105">
-        <v>9488578249000</v>
+        <v>8469090856900</v>
       </c>
       <c r="L105">
         <v>549150900</v>
@@ -5643,13 +5643,13 @@
         <v>-425100</v>
       </c>
       <c r="N105">
-        <v>-8724878000</v>
+        <v>-8679023900</v>
       </c>
       <c r="O105">
         <v>-28746600</v>
       </c>
       <c r="P105">
-        <v>-503904815000</v>
+        <v>-558082782800</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>3800</v>
       </c>
       <c r="E106">
-        <v>52851987000</v>
+        <v>50980160700</v>
       </c>
       <c r="F106">
-        <v>34735317000</v>
+        <v>33493260300</v>
       </c>
       <c r="G106">
         <v>30521000</v>
@@ -5678,13 +5678,13 @@
         <v>4871100</v>
       </c>
       <c r="I106">
-        <v>87617825000</v>
+        <v>84503942000</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-14T14:08:00.000Z</v>
       </c>
       <c r="K106">
-        <v>9576196074000</v>
+        <v>8553594798900</v>
       </c>
       <c r="L106">
         <v>554022000</v>
@@ -5693,13 +5693,13 @@
         <v>-939700</v>
       </c>
       <c r="N106">
-        <v>-18116670000</v>
+        <v>-17486900400</v>
       </c>
       <c r="O106">
         <v>-29686300</v>
       </c>
       <c r="P106">
-        <v>-522021485000</v>
+        <v>-575569683200</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>2700</v>
       </c>
       <c r="E107">
-        <v>42950784000</v>
+        <v>35387255100</v>
       </c>
       <c r="F107">
-        <v>29175915000</v>
+        <v>27326066700</v>
       </c>
       <c r="G107">
         <v>120496000</v>
@@ -5728,13 +5728,13 @@
         <v>3473100</v>
       </c>
       <c r="I107">
-        <v>72247195000</v>
+        <v>62833817800</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-14T14:10:00.000Z</v>
       </c>
       <c r="K107">
-        <v>9648443269000</v>
+        <v>8616428616700</v>
       </c>
       <c r="L107">
         <v>557495100</v>
@@ -5743,13 +5743,13 @@
         <v>-368800</v>
       </c>
       <c r="N107">
-        <v>-13774869000</v>
+        <v>-8061188400</v>
       </c>
       <c r="O107">
         <v>-30055100</v>
       </c>
       <c r="P107">
-        <v>-535796354000</v>
+        <v>-583630871600</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>13100</v>
       </c>
       <c r="E108">
-        <v>33608563000</v>
+        <v>32513159500</v>
       </c>
       <c r="F108">
-        <v>48643931000</v>
+        <v>45266711600</v>
       </c>
       <c r="G108">
-        <v>410370000</v>
+        <v>318961500</v>
       </c>
       <c r="H108">
         <v>4129500</v>
       </c>
       <c r="I108">
-        <v>82662864000</v>
+        <v>78098832600</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-14T14:12:00.000Z</v>
       </c>
       <c r="K108">
-        <v>9731106133000</v>
+        <v>8694527449300</v>
       </c>
       <c r="L108">
         <v>561624600</v>
@@ -5793,13 +5793,13 @@
         <v>385800</v>
       </c>
       <c r="N108">
-        <v>15035368000</v>
+        <v>12753552100</v>
       </c>
       <c r="O108">
         <v>-29669300</v>
       </c>
       <c r="P108">
-        <v>-520760986000</v>
+        <v>-570877319500</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>8300</v>
       </c>
       <c r="E109">
-        <v>46649796000</v>
+        <v>46237209000</v>
       </c>
       <c r="F109">
-        <v>36221820000</v>
+        <v>34772670600</v>
       </c>
       <c r="G109">
         <v>262368000</v>
@@ -5828,13 +5828,13 @@
         <v>3936200</v>
       </c>
       <c r="I109">
-        <v>83133984000</v>
+        <v>81272247600</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-14T14:14:00.000Z</v>
       </c>
       <c r="K109">
-        <v>9814240117000</v>
+        <v>8775799696900</v>
       </c>
       <c r="L109">
         <v>565560800</v>
@@ -5843,13 +5843,13 @@
         <v>-730500</v>
       </c>
       <c r="N109">
-        <v>-10427976000</v>
+        <v>-11464538400</v>
       </c>
       <c r="O109">
         <v>-30399800</v>
       </c>
       <c r="P109">
-        <v>-531188962000</v>
+        <v>-582341857900</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>8300</v>
       </c>
       <c r="E110">
-        <v>43502096000</v>
+        <v>42876022700</v>
       </c>
       <c r="F110">
-        <v>45543997000</v>
+        <v>43858384300</v>
       </c>
       <c r="G110">
         <v>192140000</v>
@@ -5878,13 +5878,13 @@
         <v>4727000</v>
       </c>
       <c r="I110">
-        <v>89238233000</v>
+        <v>86926547000</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-14T14:16:00.000Z</v>
       </c>
       <c r="K110">
-        <v>9903478350000</v>
+        <v>8862726243900</v>
       </c>
       <c r="L110">
         <v>570287800</v>
@@ -5893,13 +5893,13 @@
         <v>-225500</v>
       </c>
       <c r="N110">
-        <v>2041901000</v>
+        <v>982361600</v>
       </c>
       <c r="O110">
         <v>-30625300</v>
       </c>
       <c r="P110">
-        <v>-529147061000</v>
+        <v>-581359496300</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>5500</v>
       </c>
       <c r="E111">
-        <v>41290104000</v>
+        <v>40866727800</v>
       </c>
       <c r="F111">
-        <v>46712477000</v>
+        <v>45575015600</v>
       </c>
       <c r="G111">
         <v>194140000</v>
@@ -5928,13 +5928,13 @@
         <v>4565700</v>
       </c>
       <c r="I111">
-        <v>88196721000</v>
+        <v>86635883400</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-14T14:18:00.000Z</v>
       </c>
       <c r="K111">
-        <v>9991675071000</v>
+        <v>8949362127300</v>
       </c>
       <c r="L111">
         <v>574853500</v>
@@ -5943,13 +5943,13 @@
         <v>67400</v>
       </c>
       <c r="N111">
-        <v>5422373000</v>
+        <v>4708287800</v>
       </c>
       <c r="O111">
         <v>-30557900</v>
       </c>
       <c r="P111">
-        <v>-523724688000</v>
+        <v>-576651208500</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>4700</v>
       </c>
       <c r="E112">
-        <v>49328407000</v>
+        <v>48167069500</v>
       </c>
       <c r="F112">
-        <v>21805824000</v>
+        <v>20921209500</v>
       </c>
       <c r="G112">
         <v>36977000</v>
@@ -5978,13 +5978,13 @@
         <v>3790800</v>
       </c>
       <c r="I112">
-        <v>71171208000</v>
+        <v>69125256000</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-14T14:20:00.000Z</v>
       </c>
       <c r="K112">
-        <v>10062846279000</v>
+        <v>9018487383300</v>
       </c>
       <c r="L112">
         <v>578644300</v>
@@ -5993,13 +5993,13 @@
         <v>-1155500</v>
       </c>
       <c r="N112">
-        <v>-27522583000</v>
+        <v>-27245860000</v>
       </c>
       <c r="O112">
         <v>-31713400</v>
       </c>
       <c r="P112">
-        <v>-551247271000</v>
+        <v>-603897068500</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>8400</v>
       </c>
       <c r="E113">
-        <v>87595743000</v>
+        <v>79379467500</v>
       </c>
       <c r="F113">
-        <v>26314966000</v>
+        <v>24273010000</v>
       </c>
       <c r="G113">
         <v>182607000</v>
@@ -6028,13 +6028,13 @@
         <v>6176500</v>
       </c>
       <c r="I113">
-        <v>114093316000</v>
+        <v>103835084500</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-14T14:22:00.000Z</v>
       </c>
       <c r="K113">
-        <v>10176939595000</v>
+        <v>9122322467800</v>
       </c>
       <c r="L113">
         <v>584820800</v>
@@ -6043,13 +6043,13 @@
         <v>-3612100</v>
       </c>
       <c r="N113">
-        <v>-61280777000</v>
+        <v>-55106457500</v>
       </c>
       <c r="O113">
         <v>-35325500</v>
       </c>
       <c r="P113">
-        <v>-612528048000</v>
+        <v>-659003526000</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>32000</v>
       </c>
       <c r="E114">
-        <v>94432334000</v>
+        <v>91315154300</v>
       </c>
       <c r="F114">
-        <v>35614443000</v>
+        <v>31059302700</v>
       </c>
       <c r="G114">
         <v>603197000</v>
@@ -6078,13 +6078,13 @@
         <v>7247900</v>
       </c>
       <c r="I114">
-        <v>130649974000</v>
+        <v>122977654000</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-14T14:24:00.000Z</v>
       </c>
       <c r="K114">
-        <v>10307589569000</v>
+        <v>9245300121800</v>
       </c>
       <c r="L114">
         <v>592068700</v>
@@ -6093,13 +6093,13 @@
         <v>-3496300</v>
       </c>
       <c r="N114">
-        <v>-58817891000</v>
+        <v>-60255851600</v>
       </c>
       <c r="O114">
         <v>-38821800</v>
       </c>
       <c r="P114">
-        <v>-671345939000</v>
+        <v>-719259377600</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>12300</v>
       </c>
       <c r="E115">
-        <v>69056113000</v>
+        <v>66279892000</v>
       </c>
       <c r="F115">
-        <v>39436814000</v>
+        <v>34648507100</v>
       </c>
       <c r="G115">
-        <v>378900000</v>
+        <v>377801100</v>
       </c>
       <c r="H115">
         <v>6298100</v>
       </c>
       <c r="I115">
-        <v>108871827000</v>
+        <v>101306200200</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-14T14:26:00.000Z</v>
       </c>
       <c r="K115">
-        <v>10416461396000</v>
+        <v>9346606322000</v>
       </c>
       <c r="L115">
         <v>598366800</v>
@@ -6143,13 +6143,13 @@
         <v>-2314200</v>
       </c>
       <c r="N115">
-        <v>-29619299000</v>
+        <v>-31631384900</v>
       </c>
       <c r="O115">
         <v>-41136000</v>
       </c>
       <c r="P115">
-        <v>-700965238000</v>
+        <v>-750890762500</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>70600</v>
       </c>
       <c r="E116">
-        <v>105359440000</v>
+        <v>96907400500</v>
       </c>
       <c r="F116">
-        <v>55583404000</v>
+        <v>50275717000</v>
       </c>
       <c r="G116">
-        <v>722983000</v>
+        <v>663842200</v>
       </c>
       <c r="H116">
         <v>10418500</v>
       </c>
       <c r="I116">
-        <v>161665827000</v>
+        <v>147846959700</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-14T14:28:00.000Z</v>
       </c>
       <c r="K116">
-        <v>10578127223000</v>
+        <v>9494453281700</v>
       </c>
       <c r="L116">
         <v>608785300</v>
@@ -6193,13 +6193,13 @@
         <v>-4456100</v>
       </c>
       <c r="N116">
-        <v>-49776036000</v>
+        <v>-46631683500</v>
       </c>
       <c r="O116">
         <v>-45592100</v>
       </c>
       <c r="P116">
-        <v>-750741274000</v>
+        <v>-797522446000</v>
       </c>
     </row>
     <row r="117">
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>214773000</v>
+        <v>154833000</v>
       </c>
       <c r="F117">
         <v>138419000</v>
@@ -6228,13 +6228,13 @@
         <v>37900</v>
       </c>
       <c r="I117">
-        <v>353192000</v>
+        <v>293252000</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-14T14:30:00.000Z</v>
       </c>
       <c r="K117">
-        <v>10578480415000</v>
+        <v>9494746533700</v>
       </c>
       <c r="L117">
         <v>608823200</v>
@@ -6243,13 +6243,13 @@
         <v>-14300</v>
       </c>
       <c r="N117">
-        <v>-76354000</v>
+        <v>-16414000</v>
       </c>
       <c r="O117">
         <v>-45606400</v>
       </c>
       <c r="P117">
-        <v>-750817628000</v>
+        <v>-797538860000</v>
       </c>
     </row>
     <row r="118">
@@ -6284,7 +6284,7 @@
         <v>2022-12-14T14:36:00.000Z</v>
       </c>
       <c r="K118">
-        <v>10578481435000</v>
+        <v>9494747553700</v>
       </c>
       <c r="L118">
         <v>608823300</v>
@@ -6299,7 +6299,7 @@
         <v>-45606500</v>
       </c>
       <c r="P118">
-        <v>-750818648000</v>
+        <v>-797539880000</v>
       </c>
     </row>
     <row r="119">
@@ -6316,25 +6316,25 @@
         <v>23226400</v>
       </c>
       <c r="E119">
-        <v>16867075000</v>
+        <v>13919725300</v>
       </c>
       <c r="F119">
-        <v>14164312000</v>
+        <v>11429649400</v>
       </c>
       <c r="G119">
-        <v>534796295000</v>
+        <v>441692192300</v>
       </c>
       <c r="H119">
         <v>25068200</v>
       </c>
       <c r="I119">
-        <v>565827682000</v>
+        <v>467041567000</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-14T14:44:00.000Z</v>
       </c>
       <c r="K119">
-        <v>11144309117000</v>
+        <v>9961789120700</v>
       </c>
       <c r="L119">
         <v>633891500</v>
@@ -6343,13 +6343,13 @@
         <v>-105200</v>
       </c>
       <c r="N119">
-        <v>-2702763000</v>
+        <v>-2490075900</v>
       </c>
       <c r="O119">
         <v>-45711700</v>
       </c>
       <c r="P119">
-        <v>-753521411000</v>
+        <v>-800029955900</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2022-12-14T14:46:00.000Z</v>
       </c>
       <c r="K120">
-        <v>11144319317000</v>
+        <v>9961799320700</v>
       </c>
       <c r="L120">
         <v>633892500</v>
@@ -6399,7 +6399,7 @@
         <v>-45710700</v>
       </c>
       <c r="P120">
-        <v>-753511211000</v>
+        <v>-800019755900</v>
       </c>
     </row>
     <row r="121">
@@ -6434,7 +6434,7 @@
         <v>2022-12-14T14:48:00.000Z</v>
       </c>
       <c r="K121">
-        <v>11144328497000</v>
+        <v>9961808500700</v>
       </c>
       <c r="L121">
         <v>633893400</v>
@@ -6449,7 +6449,7 @@
         <v>-45709800</v>
       </c>
       <c r="P121">
-        <v>-753502031000</v>
+        <v>-800010575900</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-14T14:50:00.000Z</v>
       </c>
       <c r="K122">
-        <v>11144338797000</v>
+        <v>9961818800700</v>
       </c>
       <c r="L122">
         <v>633894400</v>
@@ -6499,7 +6499,7 @@
         <v>-45708800</v>
       </c>
       <c r="P122">
-        <v>-753491731000</v>
+        <v>-800000275900</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2022-12-14T14:52:00.000Z</v>
       </c>
       <c r="K123">
-        <v>11144340857000</v>
+        <v>9961820860700</v>
       </c>
       <c r="L123">
         <v>633894600</v>
@@ -6549,7 +6549,7 @@
         <v>-45708600</v>
       </c>
       <c r="P123">
-        <v>-753489671000</v>
+        <v>-799998215900</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221214/VNINDEX_HOSE_5p_20221214.xlsx
+++ b/name/vnindex/20221214/VNINDEX_HOSE_5p_20221214.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V2">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W2">
+        <v>81654269350</v>
+      </c>
+      <c r="X2">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y2">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z2">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA2">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB2">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>23310269300</v>
       </c>
+      <c r="Q3">
+        <v>86429573400</v>
+      </c>
+      <c r="R3">
+        <v>63119304100</v>
+      </c>
+      <c r="S3">
+        <v>6623500</v>
+      </c>
+      <c r="T3">
+        <v>5708800</v>
+      </c>
+      <c r="U3">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V3">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W3">
+        <v>81654269350</v>
+      </c>
+      <c r="X3">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y3">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z3">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA3">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB3">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC3">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-10693223900</v>
       </c>
+      <c r="Q4">
+        <v>142046799000</v>
+      </c>
+      <c r="R4">
+        <v>152740022900</v>
+      </c>
+      <c r="S4">
+        <v>10462100</v>
+      </c>
+      <c r="T4">
+        <v>11132800</v>
+      </c>
+      <c r="U4">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V4">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W4">
+        <v>81654269350</v>
+      </c>
+      <c r="X4">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y4">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z4">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA4">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB4">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC4">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-31305642900</v>
       </c>
+      <c r="Q5">
+        <v>194814279600</v>
+      </c>
+      <c r="R5">
+        <v>226119922500</v>
+      </c>
+      <c r="S5">
+        <v>14801500</v>
+      </c>
+      <c r="T5">
+        <v>15788100</v>
+      </c>
+      <c r="U5">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V5">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W5">
+        <v>81654269350</v>
+      </c>
+      <c r="X5">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y5">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z5">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA5">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB5">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC5">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-27374234400</v>
       </c>
+      <c r="Q6">
+        <v>254518172000</v>
+      </c>
+      <c r="R6">
+        <v>281892406400</v>
+      </c>
+      <c r="S6">
+        <v>18414000</v>
+      </c>
+      <c r="T6">
+        <v>19689300</v>
+      </c>
+      <c r="U6">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V6">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W6">
+        <v>81654269350</v>
+      </c>
+      <c r="X6">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y6">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z6">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA6">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB6">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-14044831000</v>
       </c>
+      <c r="Q7">
+        <v>321630045800</v>
+      </c>
+      <c r="R7">
+        <v>335674876800</v>
+      </c>
+      <c r="S7">
+        <v>22805900</v>
+      </c>
+      <c r="T7">
+        <v>22912300</v>
+      </c>
+      <c r="U7">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V7">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W7">
+        <v>81654269350</v>
+      </c>
+      <c r="X7">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y7">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z7">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA7">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB7">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-27125641300</v>
       </c>
+      <c r="Q8">
+        <v>367082449400</v>
+      </c>
+      <c r="R8">
+        <v>394208090700</v>
+      </c>
+      <c r="S8">
+        <v>25503900</v>
+      </c>
+      <c r="T8">
+        <v>27224400</v>
+      </c>
+      <c r="U8">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V8">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W8">
+        <v>81654269350</v>
+      </c>
+      <c r="X8">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y8">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z8">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA8">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB8">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-12599321800</v>
       </c>
+      <c r="Q9">
+        <v>412316384700</v>
+      </c>
+      <c r="R9">
+        <v>424915706500</v>
+      </c>
+      <c r="S9">
+        <v>28525400</v>
+      </c>
+      <c r="T9">
+        <v>29033100</v>
+      </c>
+      <c r="U9">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V9">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W9">
+        <v>81654269350</v>
+      </c>
+      <c r="X9">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y9">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z9">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA9">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB9">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC9">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-8274114500</v>
       </c>
+      <c r="Q10">
+        <v>445725608400</v>
+      </c>
+      <c r="R10">
+        <v>453999722900</v>
+      </c>
+      <c r="S10">
+        <v>30959600</v>
+      </c>
+      <c r="T10">
+        <v>30985400</v>
+      </c>
+      <c r="U10">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V10">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W10">
+        <v>81654269350</v>
+      </c>
+      <c r="X10">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y10">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z10">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA10">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB10">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC10">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-6418893500</v>
       </c>
+      <c r="Q11">
+        <v>487125633000</v>
+      </c>
+      <c r="R11">
+        <v>493544526500</v>
+      </c>
+      <c r="S11">
+        <v>33905000</v>
+      </c>
+      <c r="T11">
+        <v>33726100</v>
+      </c>
+      <c r="U11">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V11">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W11">
+        <v>81654269350</v>
+      </c>
+      <c r="X11">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y11">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z11">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA11">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB11">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC11">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>8450324500</v>
       </c>
+      <c r="Q12">
+        <v>533099623400</v>
+      </c>
+      <c r="R12">
+        <v>524649298900</v>
+      </c>
+      <c r="S12">
+        <v>37516200</v>
+      </c>
+      <c r="T12">
+        <v>35789300</v>
+      </c>
+      <c r="U12">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V12">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W12">
+        <v>81654269350</v>
+      </c>
+      <c r="X12">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y12">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z12">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA12">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB12">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC12">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>27573626600</v>
       </c>
+      <c r="Q13">
+        <v>591551338200</v>
+      </c>
+      <c r="R13">
+        <v>563977711600</v>
+      </c>
+      <c r="S13">
+        <v>42138800</v>
+      </c>
+      <c r="T13">
+        <v>38263500</v>
+      </c>
+      <c r="U13">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V13">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W13">
+        <v>81654269350</v>
+      </c>
+      <c r="X13">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y13">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z13">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA13">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB13">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC13">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>38292861200</v>
       </c>
+      <c r="Q14">
+        <v>646322468500</v>
+      </c>
+      <c r="R14">
+        <v>608029607300</v>
+      </c>
+      <c r="S14">
+        <v>47211300</v>
+      </c>
+      <c r="T14">
+        <v>41299700</v>
+      </c>
+      <c r="U14">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V14">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W14">
+        <v>81654269350</v>
+      </c>
+      <c r="X14">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y14">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z14">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA14">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB14">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC14">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>25680335000</v>
       </c>
+      <c r="Q15">
+        <v>688054837200</v>
+      </c>
+      <c r="R15">
+        <v>662374502200</v>
+      </c>
+      <c r="S15">
+        <v>50421700</v>
+      </c>
+      <c r="T15">
+        <v>44865800</v>
+      </c>
+      <c r="U15">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V15">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W15">
+        <v>81654269350</v>
+      </c>
+      <c r="X15">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y15">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z15">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA15">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB15">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC15">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>33796509600</v>
       </c>
+      <c r="Q16">
+        <v>736248721200</v>
+      </c>
+      <c r="R16">
+        <v>702452211600</v>
+      </c>
+      <c r="S16">
+        <v>54421100</v>
+      </c>
+      <c r="T16">
+        <v>47828900</v>
+      </c>
+      <c r="U16">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V16">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W16">
+        <v>81654269350</v>
+      </c>
+      <c r="X16">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y16">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z16">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA16">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB16">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC16">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>23738969500</v>
       </c>
+      <c r="Q17">
+        <v>766105803300</v>
+      </c>
+      <c r="R17">
+        <v>742366833800</v>
+      </c>
+      <c r="S17">
+        <v>56437300</v>
+      </c>
+      <c r="T17">
+        <v>50606300</v>
+      </c>
+      <c r="U17">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V17">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W17">
+        <v>81654269350</v>
+      </c>
+      <c r="X17">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y17">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z17">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA17">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB17">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC17">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-4776026500</v>
       </c>
+      <c r="Q18">
+        <v>805247801400</v>
+      </c>
+      <c r="R18">
+        <v>810023827900</v>
+      </c>
+      <c r="S18">
+        <v>60121200</v>
+      </c>
+      <c r="T18">
+        <v>57103300</v>
+      </c>
+      <c r="U18">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V18">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W18">
+        <v>81654269350</v>
+      </c>
+      <c r="X18">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y18">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z18">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA18">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB18">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC18">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-23814568300</v>
       </c>
+      <c r="Q19">
+        <v>839209381300</v>
+      </c>
+      <c r="R19">
+        <v>863023949600</v>
+      </c>
+      <c r="S19">
+        <v>63174300</v>
+      </c>
+      <c r="T19">
+        <v>60802200</v>
+      </c>
+      <c r="U19">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V19">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W19">
+        <v>81654269350</v>
+      </c>
+      <c r="X19">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y19">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z19">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA19">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB19">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC19">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-41929972500</v>
       </c>
+      <c r="Q20">
+        <v>875011933600</v>
+      </c>
+      <c r="R20">
+        <v>916941906100</v>
+      </c>
+      <c r="S20">
+        <v>65458200</v>
+      </c>
+      <c r="T20">
+        <v>64912700</v>
+      </c>
+      <c r="U20">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V20">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W20">
+        <v>81654269350</v>
+      </c>
+      <c r="X20">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y20">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z20">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA20">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB20">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC20">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-68639398600</v>
       </c>
+      <c r="Q21">
+        <v>917499300200</v>
+      </c>
+      <c r="R21">
+        <v>986138698800</v>
+      </c>
+      <c r="S21">
+        <v>67122300</v>
+      </c>
+      <c r="T21">
+        <v>70401100</v>
+      </c>
+      <c r="U21">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V21">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W21">
+        <v>81654269350</v>
+      </c>
+      <c r="X21">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y21">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z21">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA21">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB21">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC21">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-76836909000</v>
       </c>
+      <c r="Q22">
+        <v>953666592700</v>
+      </c>
+      <c r="R22">
+        <v>1030503501700</v>
+      </c>
+      <c r="S22">
+        <v>69267900</v>
+      </c>
+      <c r="T22">
+        <v>73614500</v>
+      </c>
+      <c r="U22">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V22">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W22">
+        <v>81654269350</v>
+      </c>
+      <c r="X22">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y22">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z22">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA22">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB22">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC22">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-67622944000</v>
       </c>
+      <c r="Q23">
+        <v>990214119400</v>
+      </c>
+      <c r="R23">
+        <v>1057837063400</v>
+      </c>
+      <c r="S23">
+        <v>71664400</v>
+      </c>
+      <c r="T23">
+        <v>75203600</v>
+      </c>
+      <c r="U23">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V23">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W23">
+        <v>81654269350</v>
+      </c>
+      <c r="X23">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y23">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z23">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA23">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB23">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC23">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-56481451800</v>
       </c>
+      <c r="Q24">
+        <v>1030860510000</v>
+      </c>
+      <c r="R24">
+        <v>1087341961800</v>
+      </c>
+      <c r="S24">
+        <v>74888400</v>
+      </c>
+      <c r="T24">
+        <v>77000300</v>
+      </c>
+      <c r="U24">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V24">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W24">
+        <v>81654269350</v>
+      </c>
+      <c r="X24">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y24">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z24">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA24">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB24">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC24">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-60514157300</v>
       </c>
+      <c r="Q25">
+        <v>1063085540300</v>
+      </c>
+      <c r="R25">
+        <v>1123599697600</v>
+      </c>
+      <c r="S25">
+        <v>77408700</v>
+      </c>
+      <c r="T25">
+        <v>79067000</v>
+      </c>
+      <c r="U25">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V25">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W25">
+        <v>81654269350</v>
+      </c>
+      <c r="X25">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y25">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z25">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA25">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB25">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC25">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-57929796100</v>
       </c>
+      <c r="Q26">
+        <v>1091680900300</v>
+      </c>
+      <c r="R26">
+        <v>1149610696400</v>
+      </c>
+      <c r="S26">
+        <v>79276300</v>
+      </c>
+      <c r="T26">
+        <v>80752400</v>
+      </c>
+      <c r="U26">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V26">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W26">
+        <v>81654269350</v>
+      </c>
+      <c r="X26">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y26">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z26">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA26">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB26">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC26">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-48075381800</v>
       </c>
+      <c r="Q27">
+        <v>1125712127100</v>
+      </c>
+      <c r="R27">
+        <v>1173787508900</v>
+      </c>
+      <c r="S27">
+        <v>82031500</v>
+      </c>
+      <c r="T27">
+        <v>82512200</v>
+      </c>
+      <c r="U27">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V27">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W27">
+        <v>81654269350</v>
+      </c>
+      <c r="X27">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y27">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z27">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA27">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB27">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC27">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-29121512100</v>
       </c>
+      <c r="Q28">
+        <v>1169382060500</v>
+      </c>
+      <c r="R28">
+        <v>1198503572600</v>
+      </c>
+      <c r="S28">
+        <v>84948900</v>
+      </c>
+      <c r="T28">
+        <v>84007100</v>
+      </c>
+      <c r="U28">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V28">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W28">
+        <v>81654269350</v>
+      </c>
+      <c r="X28">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y28">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z28">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA28">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB28">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC28">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>6228233600</v>
       </c>
+      <c r="Q29">
+        <v>1222657423300</v>
+      </c>
+      <c r="R29">
+        <v>1216429189700</v>
+      </c>
+      <c r="S29">
+        <v>89789900</v>
+      </c>
+      <c r="T29">
+        <v>85603100</v>
+      </c>
+      <c r="U29">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V29">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W29">
+        <v>81654269350</v>
+      </c>
+      <c r="X29">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y29">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z29">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA29">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB29">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC29">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>44505433900</v>
       </c>
+      <c r="Q30">
+        <v>1285477899700</v>
+      </c>
+      <c r="R30">
+        <v>1240972465800</v>
+      </c>
+      <c r="S30">
+        <v>93867000</v>
+      </c>
+      <c r="T30">
+        <v>87171300</v>
+      </c>
+      <c r="U30">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V30">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W30">
+        <v>81654269350</v>
+      </c>
+      <c r="X30">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y30">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z30">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA30">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB30">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC30">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>83675486800</v>
       </c>
+      <c r="Q31">
+        <v>1357014073100</v>
+      </c>
+      <c r="R31">
+        <v>1273338586300</v>
+      </c>
+      <c r="S31">
+        <v>97591500</v>
+      </c>
+      <c r="T31">
+        <v>88935400</v>
+      </c>
+      <c r="U31">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V31">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W31">
+        <v>81654269350</v>
+      </c>
+      <c r="X31">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y31">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z31">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA31">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB31">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC31">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>113844670600</v>
       </c>
+      <c r="Q32">
+        <v>1414242973600</v>
+      </c>
+      <c r="R32">
+        <v>1300398303000</v>
+      </c>
+      <c r="S32">
+        <v>101152200</v>
+      </c>
+      <c r="T32">
+        <v>90517500</v>
+      </c>
+      <c r="U32">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V32">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W32">
+        <v>81654269350</v>
+      </c>
+      <c r="X32">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y32">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z32">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA32">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB32">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC32">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>135858869100</v>
       </c>
+      <c r="Q33">
+        <v>1464457776100</v>
+      </c>
+      <c r="R33">
+        <v>1328598907000</v>
+      </c>
+      <c r="S33">
+        <v>103955600</v>
+      </c>
+      <c r="T33">
+        <v>92202200</v>
+      </c>
+      <c r="U33">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V33">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W33">
+        <v>81654269350</v>
+      </c>
+      <c r="X33">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y33">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z33">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA33">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB33">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC33">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>158629974800</v>
       </c>
+      <c r="Q34">
+        <v>1517331119500</v>
+      </c>
+      <c r="R34">
+        <v>1358701144700</v>
+      </c>
+      <c r="S34">
+        <v>107174700</v>
+      </c>
+      <c r="T34">
+        <v>93915200</v>
+      </c>
+      <c r="U34">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V34">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W34">
+        <v>81654269350</v>
+      </c>
+      <c r="X34">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y34">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z34">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA34">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB34">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC34">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>148646977600</v>
       </c>
+      <c r="Q35">
+        <v>1558579277100</v>
+      </c>
+      <c r="R35">
+        <v>1409932299500</v>
+      </c>
+      <c r="S35">
+        <v>109923400</v>
+      </c>
+      <c r="T35">
+        <v>96409100</v>
+      </c>
+      <c r="U35">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V35">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W35">
+        <v>81654269350</v>
+      </c>
+      <c r="X35">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y35">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z35">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA35">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB35">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC35">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>110239615200</v>
       </c>
+      <c r="Q36">
+        <v>1577240980700</v>
+      </c>
+      <c r="R36">
+        <v>1467001365500</v>
+      </c>
+      <c r="S36">
+        <v>111036400</v>
+      </c>
+      <c r="T36">
+        <v>99857500</v>
+      </c>
+      <c r="U36">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V36">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W36">
+        <v>81654269350</v>
+      </c>
+      <c r="X36">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y36">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z36">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA36">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB36">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC36">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>81913598700</v>
       </c>
+      <c r="Q37">
+        <v>1592111259800</v>
+      </c>
+      <c r="R37">
+        <v>1510197661100</v>
+      </c>
+      <c r="S37">
+        <v>111983300</v>
+      </c>
+      <c r="T37">
+        <v>103191700</v>
+      </c>
+      <c r="U37">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V37">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W37">
+        <v>81654269350</v>
+      </c>
+      <c r="X37">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y37">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z37">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA37">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB37">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC37">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>62217731300</v>
       </c>
+      <c r="Q38">
+        <v>1608941811000</v>
+      </c>
+      <c r="R38">
+        <v>1546724079700</v>
+      </c>
+      <c r="S38">
+        <v>113143600</v>
+      </c>
+      <c r="T38">
+        <v>105386500</v>
+      </c>
+      <c r="U38">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V38">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W38">
+        <v>81654269350</v>
+      </c>
+      <c r="X38">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y38">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z38">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA38">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB38">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>45087169500</v>
       </c>
+      <c r="Q39">
+        <v>1628883393200</v>
+      </c>
+      <c r="R39">
+        <v>1583796223700</v>
+      </c>
+      <c r="S39">
+        <v>114270300</v>
+      </c>
+      <c r="T39">
+        <v>107898700</v>
+      </c>
+      <c r="U39">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V39">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W39">
+        <v>81654269350</v>
+      </c>
+      <c r="X39">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y39">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z39">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA39">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB39">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC39">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>34455208200</v>
       </c>
+      <c r="Q40">
+        <v>1647538059900</v>
+      </c>
+      <c r="R40">
+        <v>1613082851700</v>
+      </c>
+      <c r="S40">
+        <v>115379500</v>
+      </c>
+      <c r="T40">
+        <v>109821200</v>
+      </c>
+      <c r="U40">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V40">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W40">
+        <v>81654269350</v>
+      </c>
+      <c r="X40">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y40">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z40">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA40">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB40">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC40">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>29494585000</v>
       </c>
+      <c r="Q41">
+        <v>1662394897100</v>
+      </c>
+      <c r="R41">
+        <v>1632900312100</v>
+      </c>
+      <c r="S41">
+        <v>116276000</v>
+      </c>
+      <c r="T41">
+        <v>111109600</v>
+      </c>
+      <c r="U41">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V41">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W41">
+        <v>81654269350</v>
+      </c>
+      <c r="X41">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y41">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z41">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA41">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB41">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC41">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>35646505200</v>
       </c>
+      <c r="Q42">
+        <v>1690469445400</v>
+      </c>
+      <c r="R42">
+        <v>1654822940200</v>
+      </c>
+      <c r="S42">
+        <v>117854100</v>
+      </c>
+      <c r="T42">
+        <v>112544200</v>
+      </c>
+      <c r="U42">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V42">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W42">
+        <v>81654269350</v>
+      </c>
+      <c r="X42">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y42">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z42">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA42">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB42">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC42">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>31172042900</v>
       </c>
+      <c r="Q43">
+        <v>1705734148700</v>
+      </c>
+      <c r="R43">
+        <v>1674562105800</v>
+      </c>
+      <c r="S43">
+        <v>118860800</v>
+      </c>
+      <c r="T43">
+        <v>113928900</v>
+      </c>
+      <c r="U43">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V43">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W43">
+        <v>81654269350</v>
+      </c>
+      <c r="X43">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y43">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z43">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA43">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB43">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC43">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>26682933900</v>
       </c>
+      <c r="Q44">
+        <v>1721563721800</v>
+      </c>
+      <c r="R44">
+        <v>1694880787900</v>
+      </c>
+      <c r="S44">
+        <v>119894500</v>
+      </c>
+      <c r="T44">
+        <v>115234400</v>
+      </c>
+      <c r="U44">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V44">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W44">
+        <v>81654269350</v>
+      </c>
+      <c r="X44">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y44">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z44">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA44">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB44">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC44">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>14860076400</v>
       </c>
+      <c r="Q45">
+        <v>1738665113100</v>
+      </c>
+      <c r="R45">
+        <v>1723805036700</v>
+      </c>
+      <c r="S45">
+        <v>120928600</v>
+      </c>
+      <c r="T45">
+        <v>117016200</v>
+      </c>
+      <c r="U45">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V45">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W45">
+        <v>81654269350</v>
+      </c>
+      <c r="X45">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y45">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z45">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA45">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB45">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC45">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-45747473500</v>
       </c>
+      <c r="Q46">
+        <v>1757606809400</v>
+      </c>
+      <c r="R46">
+        <v>1803354282900</v>
+      </c>
+      <c r="S46">
+        <v>122226900</v>
+      </c>
+      <c r="T46">
+        <v>121637700</v>
+      </c>
+      <c r="U46">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V46">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W46">
+        <v>81654269350</v>
+      </c>
+      <c r="X46">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y46">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z46">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA46">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB46">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC46">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-89807615400</v>
       </c>
+      <c r="Q47">
+        <v>1771350361100</v>
+      </c>
+      <c r="R47">
+        <v>1861157976500</v>
+      </c>
+      <c r="S47">
+        <v>123244000</v>
+      </c>
+      <c r="T47">
+        <v>125030800</v>
+      </c>
+      <c r="U47">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V47">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W47">
+        <v>81654269350</v>
+      </c>
+      <c r="X47">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y47">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z47">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA47">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB47">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC47">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-155657033700</v>
       </c>
+      <c r="Q48">
+        <v>1788438575800</v>
+      </c>
+      <c r="R48">
+        <v>1944095609500</v>
+      </c>
+      <c r="S48">
+        <v>124313100</v>
+      </c>
+      <c r="T48">
+        <v>130068300</v>
+      </c>
+      <c r="U48">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V48">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W48">
+        <v>81654269350</v>
+      </c>
+      <c r="X48">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y48">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z48">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA48">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB48">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC48">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-191836942300</v>
       </c>
+      <c r="Q49">
+        <v>1806828490600</v>
+      </c>
+      <c r="R49">
+        <v>1998665432900</v>
+      </c>
+      <c r="S49">
+        <v>125462000</v>
+      </c>
+      <c r="T49">
+        <v>133530000</v>
+      </c>
+      <c r="U49">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V49">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W49">
+        <v>81654269350</v>
+      </c>
+      <c r="X49">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y49">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z49">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA49">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB49">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC49">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-175250042600</v>
       </c>
+      <c r="Q50">
+        <v>1839568441300</v>
+      </c>
+      <c r="R50">
+        <v>2014818483900</v>
+      </c>
+      <c r="S50">
+        <v>127654800</v>
+      </c>
+      <c r="T50">
+        <v>134613400</v>
+      </c>
+      <c r="U50">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V50">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W50">
+        <v>81654269350</v>
+      </c>
+      <c r="X50">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y50">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z50">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA50">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB50">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC50">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-176988939600</v>
       </c>
+      <c r="Q51">
+        <v>1856683415800</v>
+      </c>
+      <c r="R51">
+        <v>2033672355400</v>
+      </c>
+      <c r="S51">
+        <v>128750600</v>
+      </c>
+      <c r="T51">
+        <v>135729200</v>
+      </c>
+      <c r="U51">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V51">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W51">
+        <v>81654269350</v>
+      </c>
+      <c r="X51">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y51">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z51">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA51">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB51">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC51">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-168884060200</v>
       </c>
+      <c r="Q52">
+        <v>1877988413700</v>
+      </c>
+      <c r="R52">
+        <v>2046872473900</v>
+      </c>
+      <c r="S52">
+        <v>130174800</v>
+      </c>
+      <c r="T52">
+        <v>136588900</v>
+      </c>
+      <c r="U52">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V52">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W52">
+        <v>81654269350</v>
+      </c>
+      <c r="X52">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y52">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z52">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA52">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB52">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC52">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-169868404600</v>
       </c>
+      <c r="Q53">
+        <v>1894268478700</v>
+      </c>
+      <c r="R53">
+        <v>2064136883300</v>
+      </c>
+      <c r="S53">
+        <v>131375400</v>
+      </c>
+      <c r="T53">
+        <v>137660700</v>
+      </c>
+      <c r="U53">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V53">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W53">
+        <v>81654269350</v>
+      </c>
+      <c r="X53">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y53">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z53">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA53">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB53">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC53">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-172328572900</v>
       </c>
+      <c r="Q54">
+        <v>1907510085800</v>
+      </c>
+      <c r="R54">
+        <v>2079838658700</v>
+      </c>
+      <c r="S54">
+        <v>132283500</v>
+      </c>
+      <c r="T54">
+        <v>138561500</v>
+      </c>
+      <c r="U54">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V54">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W54">
+        <v>81654269350</v>
+      </c>
+      <c r="X54">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y54">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z54">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA54">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB54">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC54">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-180727519800</v>
       </c>
+      <c r="Q55">
+        <v>1919122043900</v>
+      </c>
+      <c r="R55">
+        <v>2099849563700</v>
+      </c>
+      <c r="S55">
+        <v>133033700</v>
+      </c>
+      <c r="T55">
+        <v>139748500</v>
+      </c>
+      <c r="U55">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V55">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W55">
+        <v>81654269350</v>
+      </c>
+      <c r="X55">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y55">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z55">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA55">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB55">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC55">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-178972864700</v>
       </c>
+      <c r="Q56">
+        <v>1939068559100</v>
+      </c>
+      <c r="R56">
+        <v>2118041423800</v>
+      </c>
+      <c r="S56">
+        <v>134286800</v>
+      </c>
+      <c r="T56">
+        <v>141064300</v>
+      </c>
+      <c r="U56">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V56">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W56">
+        <v>81654269350</v>
+      </c>
+      <c r="X56">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y56">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z56">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA56">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB56">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC56">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-173902896000</v>
       </c>
+      <c r="Q57">
+        <v>1960595904500</v>
+      </c>
+      <c r="R57">
+        <v>2134498800500</v>
+      </c>
+      <c r="S57">
+        <v>135696300</v>
+      </c>
+      <c r="T57">
+        <v>142078900</v>
+      </c>
+      <c r="U57">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V57">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W57">
+        <v>81654269350</v>
+      </c>
+      <c r="X57">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y57">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z57">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA57">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB57">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC57">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-176082854100</v>
       </c>
+      <c r="Q58">
+        <v>1975440422600</v>
+      </c>
+      <c r="R58">
+        <v>2151523276700</v>
+      </c>
+      <c r="S58">
+        <v>136782100</v>
+      </c>
+      <c r="T58">
+        <v>143124400</v>
+      </c>
+      <c r="U58">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V58">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W58">
+        <v>81654269350</v>
+      </c>
+      <c r="X58">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y58">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z58">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA58">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB58">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC58">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-177820211100</v>
       </c>
+      <c r="Q59">
+        <v>1987347683500</v>
+      </c>
+      <c r="R59">
+        <v>2165167894600</v>
+      </c>
+      <c r="S59">
+        <v>137575000</v>
+      </c>
+      <c r="T59">
+        <v>144104400</v>
+      </c>
+      <c r="U59">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V59">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W59">
+        <v>81654269350</v>
+      </c>
+      <c r="X59">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y59">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z59">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA59">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB59">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC59">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-182321064000</v>
       </c>
+      <c r="Q60">
+        <v>2007159159300</v>
+      </c>
+      <c r="R60">
+        <v>2189480223300</v>
+      </c>
+      <c r="S60">
+        <v>138755800</v>
+      </c>
+      <c r="T60">
+        <v>145382900</v>
+      </c>
+      <c r="U60">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V60">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W60">
+        <v>81654269350</v>
+      </c>
+      <c r="X60">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y60">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z60">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA60">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB60">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC60">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-179522457500</v>
       </c>
+      <c r="Q61">
+        <v>2029320374400</v>
+      </c>
+      <c r="R61">
+        <v>2208842831900</v>
+      </c>
+      <c r="S61">
+        <v>140205000</v>
+      </c>
+      <c r="T61">
+        <v>146470800</v>
+      </c>
+      <c r="U61">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V61">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W61">
+        <v>81654269350</v>
+      </c>
+      <c r="X61">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y61">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z61">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA61">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB61">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC61">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-158542778400</v>
       </c>
+      <c r="Q62">
+        <v>2068764114900</v>
+      </c>
+      <c r="R62">
+        <v>2227306893300</v>
+      </c>
+      <c r="S62">
+        <v>142830500</v>
+      </c>
+      <c r="T62">
+        <v>147563400</v>
+      </c>
+      <c r="U62">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V62">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W62">
+        <v>81654269350</v>
+      </c>
+      <c r="X62">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y62">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z62">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA62">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB62">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC62">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-129900296900</v>
       </c>
+      <c r="Q63">
+        <v>2117025572100</v>
+      </c>
+      <c r="R63">
+        <v>2246925869000</v>
+      </c>
+      <c r="S63">
+        <v>145685900</v>
+      </c>
+      <c r="T63">
+        <v>148626800</v>
+      </c>
+      <c r="U63">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V63">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W63">
+        <v>81654269350</v>
+      </c>
+      <c r="X63">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y63">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z63">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA63">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB63">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC63">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-95011168000</v>
       </c>
+      <c r="Q64">
+        <v>2171496018400</v>
+      </c>
+      <c r="R64">
+        <v>2266507186400</v>
+      </c>
+      <c r="S64">
+        <v>148797600</v>
+      </c>
+      <c r="T64">
+        <v>149740500</v>
+      </c>
+      <c r="U64">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V64">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W64">
+        <v>81654269350</v>
+      </c>
+      <c r="X64">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y64">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z64">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA64">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB64">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC64">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-63680020900</v>
       </c>
+      <c r="Q65">
+        <v>2218489018100</v>
+      </c>
+      <c r="R65">
+        <v>2282169039000</v>
+      </c>
+      <c r="S65">
+        <v>151286600</v>
+      </c>
+      <c r="T65">
+        <v>150658300</v>
+      </c>
+      <c r="U65">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V65">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W65">
+        <v>81654269350</v>
+      </c>
+      <c r="X65">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y65">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z65">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA65">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB65">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC65">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-80347908700</v>
       </c>
+      <c r="Q66">
+        <v>2258223606800</v>
+      </c>
+      <c r="R66">
+        <v>2338571515500</v>
+      </c>
+      <c r="S66">
+        <v>153256500</v>
+      </c>
+      <c r="T66">
+        <v>153312900</v>
+      </c>
+      <c r="U66">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V66">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W66">
+        <v>81654269350</v>
+      </c>
+      <c r="X66">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y66">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z66">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA66">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB66">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC66">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-129732304300</v>
       </c>
+      <c r="Q67">
+        <v>2278001591700</v>
+      </c>
+      <c r="R67">
+        <v>2407733896000</v>
+      </c>
+      <c r="S67">
+        <v>154455300</v>
+      </c>
+      <c r="T67">
+        <v>156781700</v>
+      </c>
+      <c r="U67">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V67">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W67">
+        <v>81654269350</v>
+      </c>
+      <c r="X67">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y67">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z67">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA67">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB67">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC67">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-153137660300</v>
       </c>
+      <c r="Q68">
+        <v>2310151584400</v>
+      </c>
+      <c r="R68">
+        <v>2463289244700</v>
+      </c>
+      <c r="S68">
+        <v>156523100</v>
+      </c>
+      <c r="T68">
+        <v>159448000</v>
+      </c>
+      <c r="U68">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V68">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W68">
+        <v>81654269350</v>
+      </c>
+      <c r="X68">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y68">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z68">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA68">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB68">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC68">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-160876867600</v>
       </c>
+      <c r="Q69">
+        <v>2334911245100</v>
+      </c>
+      <c r="R69">
+        <v>2495788112700</v>
+      </c>
+      <c r="S69">
+        <v>158046200</v>
+      </c>
+      <c r="T69">
+        <v>161321700</v>
+      </c>
+      <c r="U69">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V69">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W69">
+        <v>81654269350</v>
+      </c>
+      <c r="X69">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y69">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z69">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA69">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB69">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC69">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-164718788300</v>
       </c>
+      <c r="Q70">
+        <v>2355207619600</v>
+      </c>
+      <c r="R70">
+        <v>2519926407900</v>
+      </c>
+      <c r="S70">
+        <v>159216200</v>
+      </c>
+      <c r="T70">
+        <v>162701300</v>
+      </c>
+      <c r="U70">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V70">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W70">
+        <v>81654269350</v>
+      </c>
+      <c r="X70">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y70">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z70">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA70">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB70">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC70">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-164719423300</v>
       </c>
+      <c r="Q71">
+        <v>2355240144600</v>
+      </c>
+      <c r="R71">
+        <v>2519959567900</v>
+      </c>
+      <c r="S71">
+        <v>159217200</v>
+      </c>
+      <c r="T71">
+        <v>162703400</v>
+      </c>
+      <c r="U71">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V71">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W71">
+        <v>81654269350</v>
+      </c>
+      <c r="X71">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y71">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z71">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA71">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB71">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-208636794800</v>
       </c>
+      <c r="Q72">
+        <v>2423050999900</v>
+      </c>
+      <c r="R72">
+        <v>2631687794700</v>
+      </c>
+      <c r="S72">
+        <v>163320700</v>
+      </c>
+      <c r="T72">
+        <v>170437400</v>
+      </c>
+      <c r="U72">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V72">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W72">
+        <v>81654269350</v>
+      </c>
+      <c r="X72">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y72">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z72">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA72">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB72">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC72">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-229682938800</v>
       </c>
+      <c r="Q73">
+        <v>2453291668000</v>
+      </c>
+      <c r="R73">
+        <v>2682974606800</v>
+      </c>
+      <c r="S73">
+        <v>165268600</v>
+      </c>
+      <c r="T73">
+        <v>173699600</v>
+      </c>
+      <c r="U73">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V73">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W73">
+        <v>81654269350</v>
+      </c>
+      <c r="X73">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y73">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z73">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA73">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB73">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC73">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-250248340100</v>
       </c>
+      <c r="Q74">
+        <v>2489268628200</v>
+      </c>
+      <c r="R74">
+        <v>2739516968300</v>
+      </c>
+      <c r="S74">
+        <v>167579400</v>
+      </c>
+      <c r="T74">
+        <v>177027000</v>
+      </c>
+      <c r="U74">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V74">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W74">
+        <v>81654269350</v>
+      </c>
+      <c r="X74">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y74">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z74">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA74">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB74">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC74">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-352471408200</v>
       </c>
+      <c r="Q75">
+        <v>2512080975800</v>
+      </c>
+      <c r="R75">
+        <v>2864552384000</v>
+      </c>
+      <c r="S75">
+        <v>168948600</v>
+      </c>
+      <c r="T75">
+        <v>185618600</v>
+      </c>
+      <c r="U75">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V75">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W75">
+        <v>81654269350</v>
+      </c>
+      <c r="X75">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y75">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z75">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA75">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB75">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC75">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-399693253000</v>
       </c>
+      <c r="Q76">
+        <v>2547785512000</v>
+      </c>
+      <c r="R76">
+        <v>2947478765000</v>
+      </c>
+      <c r="S76">
+        <v>171814200</v>
+      </c>
+      <c r="T76">
+        <v>192151600</v>
+      </c>
+      <c r="U76">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V76">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W76">
+        <v>81654269350</v>
+      </c>
+      <c r="X76">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y76">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z76">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA76">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB76">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC76">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-418996290700</v>
       </c>
+      <c r="Q77">
+        <v>2583788801700</v>
+      </c>
+      <c r="R77">
+        <v>3002785092400</v>
+      </c>
+      <c r="S77">
+        <v>174145600</v>
+      </c>
+      <c r="T77">
+        <v>197369200</v>
+      </c>
+      <c r="U77">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V77">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W77">
+        <v>81654269350</v>
+      </c>
+      <c r="X77">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y77">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z77">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA77">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB77">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC77">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-403529223900</v>
       </c>
+      <c r="Q78">
+        <v>2629867507200</v>
+      </c>
+      <c r="R78">
+        <v>3033396731100</v>
+      </c>
+      <c r="S78">
+        <v>177551100</v>
+      </c>
+      <c r="T78">
+        <v>199825100</v>
+      </c>
+      <c r="U78">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V78">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W78">
+        <v>81654269350</v>
+      </c>
+      <c r="X78">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y78">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z78">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA78">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB78">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC78">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-380658946600</v>
       </c>
+      <c r="Q79">
+        <v>2690228331800</v>
+      </c>
+      <c r="R79">
+        <v>3070887278400</v>
+      </c>
+      <c r="S79">
+        <v>181368200</v>
+      </c>
+      <c r="T79">
+        <v>202160500</v>
+      </c>
+      <c r="U79">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V79">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W79">
+        <v>81654269350</v>
+      </c>
+      <c r="X79">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y79">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z79">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA79">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB79">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC79">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-386195407300</v>
       </c>
+      <c r="Q80">
+        <v>2726616060700</v>
+      </c>
+      <c r="R80">
+        <v>3112811468000</v>
+      </c>
+      <c r="S80">
+        <v>183511500</v>
+      </c>
+      <c r="T80">
+        <v>204779000</v>
+      </c>
+      <c r="U80">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V80">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W80">
+        <v>81654269350</v>
+      </c>
+      <c r="X80">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y80">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z80">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA80">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB80">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC80">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-383715410200</v>
       </c>
+      <c r="Q81">
+        <v>2763702799200</v>
+      </c>
+      <c r="R81">
+        <v>3147418209400</v>
+      </c>
+      <c r="S81">
+        <v>185908500</v>
+      </c>
+      <c r="T81">
+        <v>206851100</v>
+      </c>
+      <c r="U81">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V81">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W81">
+        <v>81654269350</v>
+      </c>
+      <c r="X81">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y81">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z81">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA81">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB81">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC81">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-381634985500</v>
       </c>
+      <c r="Q82">
+        <v>2809388242600</v>
+      </c>
+      <c r="R82">
+        <v>3191023228100</v>
+      </c>
+      <c r="S82">
+        <v>188484300</v>
+      </c>
+      <c r="T82">
+        <v>209525100</v>
+      </c>
+      <c r="U82">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V82">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W82">
+        <v>81654269350</v>
+      </c>
+      <c r="X82">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y82">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z82">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA82">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB82">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC82">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-368701058300</v>
       </c>
+      <c r="Q83">
+        <v>2871520322200</v>
+      </c>
+      <c r="R83">
+        <v>3240221380500</v>
+      </c>
+      <c r="S83">
+        <v>192176200</v>
+      </c>
+      <c r="T83">
+        <v>212821100</v>
+      </c>
+      <c r="U83">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V83">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W83">
+        <v>81654269350</v>
+      </c>
+      <c r="X83">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y83">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z83">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA83">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB83">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC83">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-293423207700</v>
       </c>
+      <c r="Q84">
+        <v>2982113957900</v>
+      </c>
+      <c r="R84">
+        <v>3275537165600</v>
+      </c>
+      <c r="S84">
+        <v>199325300</v>
+      </c>
+      <c r="T84">
+        <v>214870000</v>
+      </c>
+      <c r="U84">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V84">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W84">
+        <v>81654269350</v>
+      </c>
+      <c r="X84">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y84">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z84">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA84">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB84">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC84">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-217784262900</v>
       </c>
+      <c r="Q85">
+        <v>3100636638100</v>
+      </c>
+      <c r="R85">
+        <v>3318420901000</v>
+      </c>
+      <c r="S85">
+        <v>207573300</v>
+      </c>
+      <c r="T85">
+        <v>217400000</v>
+      </c>
+      <c r="U85">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V85">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W85">
+        <v>81654269350</v>
+      </c>
+      <c r="X85">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y85">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z85">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA85">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB85">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC85">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-163475660100</v>
       </c>
+      <c r="Q86">
+        <v>3209281736700</v>
+      </c>
+      <c r="R86">
+        <v>3372757396800</v>
+      </c>
+      <c r="S86">
+        <v>214294700</v>
+      </c>
+      <c r="T86">
+        <v>220952600</v>
+      </c>
+      <c r="U86">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V86">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W86">
+        <v>81654269350</v>
+      </c>
+      <c r="X86">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y86">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z86">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA86">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB86">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC86">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-219677794200</v>
       </c>
+      <c r="Q87">
+        <v>3244328286100</v>
+      </c>
+      <c r="R87">
+        <v>3464006080300</v>
+      </c>
+      <c r="S87">
+        <v>216690900</v>
+      </c>
+      <c r="T87">
+        <v>225903200</v>
+      </c>
+      <c r="U87">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V87">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W87">
+        <v>81654269350</v>
+      </c>
+      <c r="X87">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y87">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z87">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA87">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB87">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC87">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-232504645200</v>
       </c>
+      <c r="Q88">
+        <v>3281728025700</v>
+      </c>
+      <c r="R88">
+        <v>3514232670900</v>
+      </c>
+      <c r="S88">
+        <v>219070900</v>
+      </c>
+      <c r="T88">
+        <v>229184800</v>
+      </c>
+      <c r="U88">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V88">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W88">
+        <v>81654269350</v>
+      </c>
+      <c r="X88">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y88">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z88">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA88">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB88">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-266831522400</v>
       </c>
+      <c r="Q89">
+        <v>3316682607000</v>
+      </c>
+      <c r="R89">
+        <v>3583514129400</v>
+      </c>
+      <c r="S89">
+        <v>221184900</v>
+      </c>
+      <c r="T89">
+        <v>233068700</v>
+      </c>
+      <c r="U89">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V89">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W89">
+        <v>81654269350</v>
+      </c>
+      <c r="X89">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y89">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z89">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA89">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB89">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC89">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-274673374100</v>
       </c>
+      <c r="Q90">
+        <v>3348539385800</v>
+      </c>
+      <c r="R90">
+        <v>3623212759900</v>
+      </c>
+      <c r="S90">
+        <v>223181000</v>
+      </c>
+      <c r="T90">
+        <v>235579300</v>
+      </c>
+      <c r="U90">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V90">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W90">
+        <v>81654269350</v>
+      </c>
+      <c r="X90">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y90">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z90">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA90">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB90">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC90">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-289107308800</v>
       </c>
+      <c r="Q91">
+        <v>3375437185500</v>
+      </c>
+      <c r="R91">
+        <v>3664544494300</v>
+      </c>
+      <c r="S91">
+        <v>224825000</v>
+      </c>
+      <c r="T91">
+        <v>238059200</v>
+      </c>
+      <c r="U91">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V91">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W91">
+        <v>81654269350</v>
+      </c>
+      <c r="X91">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y91">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z91">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA91">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB91">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC91">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-291086413700</v>
       </c>
+      <c r="Q92">
+        <v>3406905693900</v>
+      </c>
+      <c r="R92">
+        <v>3697992107600</v>
+      </c>
+      <c r="S92">
+        <v>226870900</v>
+      </c>
+      <c r="T92">
+        <v>240141500</v>
+      </c>
+      <c r="U92">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V92">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W92">
+        <v>81654269350</v>
+      </c>
+      <c r="X92">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y92">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z92">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA92">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB92">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC92">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-332155005300</v>
       </c>
+      <c r="Q93">
+        <v>3435327130600</v>
+      </c>
+      <c r="R93">
+        <v>3767482135900</v>
+      </c>
+      <c r="S93">
+        <v>228614300</v>
+      </c>
+      <c r="T93">
+        <v>243500300</v>
+      </c>
+      <c r="U93">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V93">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W93">
+        <v>81654269350</v>
+      </c>
+      <c r="X93">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y93">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z93">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA93">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB93">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC93">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-349000133300</v>
       </c>
+      <c r="Q94">
+        <v>3458552616800</v>
+      </c>
+      <c r="R94">
+        <v>3807552750100</v>
+      </c>
+      <c r="S94">
+        <v>230079500</v>
+      </c>
+      <c r="T94">
+        <v>246028400</v>
+      </c>
+      <c r="U94">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V94">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W94">
+        <v>81654269350</v>
+      </c>
+      <c r="X94">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y94">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z94">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA94">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB94">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC94">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-396029249700</v>
       </c>
+      <c r="Q95">
+        <v>3480578659400</v>
+      </c>
+      <c r="R95">
+        <v>3876607909100</v>
+      </c>
+      <c r="S95">
+        <v>231335400</v>
+      </c>
+      <c r="T95">
+        <v>249497500</v>
+      </c>
+      <c r="U95">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V95">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W95">
+        <v>81654269350</v>
+      </c>
+      <c r="X95">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y95">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z95">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA95">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB95">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC95">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-488518936600</v>
       </c>
+      <c r="Q96">
+        <v>3504827288900</v>
+      </c>
+      <c r="R96">
+        <v>3993346225500</v>
+      </c>
+      <c r="S96">
+        <v>232776600</v>
+      </c>
+      <c r="T96">
+        <v>256320800</v>
+      </c>
+      <c r="U96">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V96">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W96">
+        <v>81654269350</v>
+      </c>
+      <c r="X96">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y96">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z96">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA96">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB96">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC96">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-507545256200</v>
       </c>
+      <c r="Q97">
+        <v>3539621382500</v>
+      </c>
+      <c r="R97">
+        <v>4047166638700</v>
+      </c>
+      <c r="S97">
+        <v>234805400</v>
+      </c>
+      <c r="T97">
+        <v>259628400</v>
+      </c>
+      <c r="U97">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V97">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W97">
+        <v>81654269350</v>
+      </c>
+      <c r="X97">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y97">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z97">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA97">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB97">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC97">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-506317530600</v>
       </c>
+      <c r="Q98">
+        <v>3574402009200</v>
+      </c>
+      <c r="R98">
+        <v>4080719539800</v>
+      </c>
+      <c r="S98">
+        <v>236887700</v>
+      </c>
+      <c r="T98">
+        <v>261559300</v>
+      </c>
+      <c r="U98">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V98">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W98">
+        <v>81654269350</v>
+      </c>
+      <c r="X98">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y98">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z98">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA98">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB98">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC98">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-526574995500</v>
       </c>
+      <c r="Q99">
+        <v>3601391037400</v>
+      </c>
+      <c r="R99">
+        <v>4127966032900</v>
+      </c>
+      <c r="S99">
+        <v>238552400</v>
+      </c>
+      <c r="T99">
+        <v>264288100</v>
+      </c>
+      <c r="U99">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V99">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W99">
+        <v>81654269350</v>
+      </c>
+      <c r="X99">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y99">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z99">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA99">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB99">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC99">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-544953828200</v>
       </c>
+      <c r="Q100">
+        <v>3625467658800</v>
+      </c>
+      <c r="R100">
+        <v>4170421487000</v>
+      </c>
+      <c r="S100">
+        <v>239916000</v>
+      </c>
+      <c r="T100">
+        <v>266788600</v>
+      </c>
+      <c r="U100">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V100">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W100">
+        <v>81654269350</v>
+      </c>
+      <c r="X100">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y100">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z100">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA100">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB100">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC100">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-579068141200</v>
       </c>
+      <c r="Q101">
+        <v>3645045626700</v>
+      </c>
+      <c r="R101">
+        <v>4224113767900</v>
+      </c>
+      <c r="S101">
+        <v>240954600</v>
+      </c>
+      <c r="T101">
+        <v>270088800</v>
+      </c>
+      <c r="U101">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V101">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W101">
+        <v>81654269350</v>
+      </c>
+      <c r="X101">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y101">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z101">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA101">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB101">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC101">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-647964325100</v>
       </c>
+      <c r="Q102">
+        <v>3663607792200</v>
+      </c>
+      <c r="R102">
+        <v>4311572117300</v>
+      </c>
+      <c r="S102">
+        <v>241878900</v>
+      </c>
+      <c r="T102">
+        <v>275344500</v>
+      </c>
+      <c r="U102">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V102">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W102">
+        <v>81654269350</v>
+      </c>
+      <c r="X102">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y102">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z102">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA102">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB102">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC102">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-628668186800</v>
       </c>
+      <c r="Q103">
+        <v>3756373474700</v>
+      </c>
+      <c r="R103">
+        <v>4385041661500</v>
+      </c>
+      <c r="S103">
+        <v>247114000</v>
+      </c>
+      <c r="T103">
+        <v>280087800</v>
+      </c>
+      <c r="U103">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V103">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W103">
+        <v>81654269350</v>
+      </c>
+      <c r="X103">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y103">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z103">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA103">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB103">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC103">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-549403758900</v>
       </c>
+      <c r="Q104">
+        <v>3858228009900</v>
+      </c>
+      <c r="R104">
+        <v>4407631768800</v>
+      </c>
+      <c r="S104">
+        <v>253146900</v>
+      </c>
+      <c r="T104">
+        <v>281468400</v>
+      </c>
+      <c r="U104">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V104">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W104">
+        <v>81654269350</v>
+      </c>
+      <c r="X104">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y104">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z104">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA104">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB104">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC104">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-558082782800</v>
       </c>
+      <c r="Q105">
+        <v>3900551584800</v>
+      </c>
+      <c r="R105">
+        <v>4458634367600</v>
+      </c>
+      <c r="S105">
+        <v>255613600</v>
+      </c>
+      <c r="T105">
+        <v>284360200</v>
+      </c>
+      <c r="U105">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V105">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W105">
+        <v>81654269350</v>
+      </c>
+      <c r="X105">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y105">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z105">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA105">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB105">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC105">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-575569683200</v>
       </c>
+      <c r="Q106">
+        <v>3934044845100</v>
+      </c>
+      <c r="R106">
+        <v>4509614528300</v>
+      </c>
+      <c r="S106">
+        <v>257577400</v>
+      </c>
+      <c r="T106">
+        <v>287263700</v>
+      </c>
+      <c r="U106">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V106">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W106">
+        <v>81654269350</v>
+      </c>
+      <c r="X106">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y106">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z106">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA106">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB106">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC106">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-583630871600</v>
       </c>
+      <c r="Q107">
+        <v>3961370911800</v>
+      </c>
+      <c r="R107">
+        <v>4545001783400</v>
+      </c>
+      <c r="S107">
+        <v>259128200</v>
+      </c>
+      <c r="T107">
+        <v>289183300</v>
+      </c>
+      <c r="U107">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V107">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W107">
+        <v>81654269350</v>
+      </c>
+      <c r="X107">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y107">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z107">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA107">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB107">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC107">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-570877319500</v>
       </c>
+      <c r="Q108">
+        <v>4006637623400</v>
+      </c>
+      <c r="R108">
+        <v>4577514942900</v>
+      </c>
+      <c r="S108">
+        <v>261379300</v>
+      </c>
+      <c r="T108">
+        <v>291048600</v>
+      </c>
+      <c r="U108">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V108">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W108">
+        <v>81654269350</v>
+      </c>
+      <c r="X108">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y108">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z108">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA108">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB108">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC108">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-582341857900</v>
       </c>
+      <c r="Q109">
+        <v>4041410294000</v>
+      </c>
+      <c r="R109">
+        <v>4623752151900</v>
+      </c>
+      <c r="S109">
+        <v>262978000</v>
+      </c>
+      <c r="T109">
+        <v>293377800</v>
+      </c>
+      <c r="U109">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V109">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W109">
+        <v>81654269350</v>
+      </c>
+      <c r="X109">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y109">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z109">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA109">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB109">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC109">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-581359496300</v>
       </c>
+      <c r="Q110">
+        <v>4085268678300</v>
+      </c>
+      <c r="R110">
+        <v>4666628174600</v>
+      </c>
+      <c r="S110">
+        <v>265224600</v>
+      </c>
+      <c r="T110">
+        <v>295849900</v>
+      </c>
+      <c r="U110">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V110">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W110">
+        <v>81654269350</v>
+      </c>
+      <c r="X110">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y110">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z110">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA110">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB110">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC110">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-576651208500</v>
       </c>
+      <c r="Q111">
+        <v>4130843693900</v>
+      </c>
+      <c r="R111">
+        <v>4707494902400</v>
+      </c>
+      <c r="S111">
+        <v>267538400</v>
+      </c>
+      <c r="T111">
+        <v>298096300</v>
+      </c>
+      <c r="U111">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V111">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W111">
+        <v>81654269350</v>
+      </c>
+      <c r="X111">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y111">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z111">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA111">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB111">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC111">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-603897068500</v>
       </c>
+      <c r="Q112">
+        <v>4151764903400</v>
+      </c>
+      <c r="R112">
+        <v>4755661971900</v>
+      </c>
+      <c r="S112">
+        <v>268853700</v>
+      </c>
+      <c r="T112">
+        <v>300567100</v>
+      </c>
+      <c r="U112">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V112">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W112">
+        <v>81654269350</v>
+      </c>
+      <c r="X112">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y112">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z112">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA112">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB112">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC112">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-659003526000</v>
       </c>
+      <c r="Q113">
+        <v>4176037913400</v>
+      </c>
+      <c r="R113">
+        <v>4835041439400</v>
+      </c>
+      <c r="S113">
+        <v>270131700</v>
+      </c>
+      <c r="T113">
+        <v>305457200</v>
+      </c>
+      <c r="U113">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V113">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W113">
+        <v>81654269350</v>
+      </c>
+      <c r="X113">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y113">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z113">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA113">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB113">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC113">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-719259377600</v>
       </c>
+      <c r="Q114">
+        <v>4207097216100</v>
+      </c>
+      <c r="R114">
+        <v>4926356593700</v>
+      </c>
+      <c r="S114">
+        <v>271991500</v>
+      </c>
+      <c r="T114">
+        <v>310813300</v>
+      </c>
+      <c r="U114">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V114">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W114">
+        <v>81654269350</v>
+      </c>
+      <c r="X114">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y114">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z114">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA114">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB114">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC114">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-750890762500</v>
       </c>
+      <c r="Q115">
+        <v>4241745723200</v>
+      </c>
+      <c r="R115">
+        <v>4992636485700</v>
+      </c>
+      <c r="S115">
+        <v>273977300</v>
+      </c>
+      <c r="T115">
+        <v>315113300</v>
+      </c>
+      <c r="U115">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V115">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W115">
+        <v>81654269350</v>
+      </c>
+      <c r="X115">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y115">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z115">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA115">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB115">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC115">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-797522446000</v>
       </c>
+      <c r="Q116">
+        <v>4292021440200</v>
+      </c>
+      <c r="R116">
+        <v>5089543886200</v>
+      </c>
+      <c r="S116">
+        <v>276923200</v>
+      </c>
+      <c r="T116">
+        <v>322515300</v>
+      </c>
+      <c r="U116">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V116">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W116">
+        <v>81654269350</v>
+      </c>
+      <c r="X116">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y116">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z116">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA116">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB116">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC116">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-797538860000</v>
       </c>
+      <c r="Q117">
+        <v>4292159859200</v>
+      </c>
+      <c r="R117">
+        <v>5089698719200</v>
+      </c>
+      <c r="S117">
+        <v>276935000</v>
+      </c>
+      <c r="T117">
+        <v>322541400</v>
+      </c>
+      <c r="U117">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V117">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W117">
+        <v>81654269350</v>
+      </c>
+      <c r="X117">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y117">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z117">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA117">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB117">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-797539880000</v>
       </c>
+      <c r="Q118">
+        <v>4292159859200</v>
+      </c>
+      <c r="R118">
+        <v>5089699739200</v>
+      </c>
+      <c r="S118">
+        <v>276935000</v>
+      </c>
+      <c r="T118">
+        <v>322541500</v>
+      </c>
+      <c r="U118">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V118">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W118">
+        <v>81654269350</v>
+      </c>
+      <c r="X118">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y118">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z118">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA118">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB118">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-800029955900</v>
       </c>
+      <c r="Q119">
+        <v>4303589508600</v>
+      </c>
+      <c r="R119">
+        <v>5103619464500</v>
+      </c>
+      <c r="S119">
+        <v>277803300</v>
+      </c>
+      <c r="T119">
+        <v>323515000</v>
+      </c>
+      <c r="U119">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V119">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W119">
+        <v>81654269350</v>
+      </c>
+      <c r="X119">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y119">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z119">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA119">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB119">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC119">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-800019755900</v>
       </c>
+      <c r="Q120">
+        <v>4303599708600</v>
+      </c>
+      <c r="R120">
+        <v>5103619464500</v>
+      </c>
+      <c r="S120">
+        <v>277804300</v>
+      </c>
+      <c r="T120">
+        <v>323515000</v>
+      </c>
+      <c r="U120">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V120">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W120">
+        <v>81654269350</v>
+      </c>
+      <c r="X120">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y120">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z120">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA120">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB120">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-800010575900</v>
       </c>
+      <c r="Q121">
+        <v>4303608888600</v>
+      </c>
+      <c r="R121">
+        <v>5103619464500</v>
+      </c>
+      <c r="S121">
+        <v>277805200</v>
+      </c>
+      <c r="T121">
+        <v>323515000</v>
+      </c>
+      <c r="U121">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V121">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W121">
+        <v>81654269350</v>
+      </c>
+      <c r="X121">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y121">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z121">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA121">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB121">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>-800000275900</v>
       </c>
+      <c r="Q122">
+        <v>4303619188600</v>
+      </c>
+      <c r="R122">
+        <v>5103619464500</v>
+      </c>
+      <c r="S122">
+        <v>277806200</v>
+      </c>
+      <c r="T122">
+        <v>323515000</v>
+      </c>
+      <c r="U122">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V122">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W122">
+        <v>81654269350</v>
+      </c>
+      <c r="X122">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y122">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z122">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA122">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB122">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,10 +11309,49 @@
       <c r="P123">
         <v>-799998215900</v>
       </c>
+      <c r="Q123">
+        <v>4303621248600</v>
+      </c>
+      <c r="R123">
+        <v>5103619464500</v>
+      </c>
+      <c r="S123">
+        <v>277806400</v>
+      </c>
+      <c r="T123">
+        <v>323515000</v>
+      </c>
+      <c r="U123">
+        <v>35275584004.9</v>
+      </c>
+      <c r="V123">
+        <v>41832946430.3</v>
+      </c>
+      <c r="W123">
+        <v>81654269350</v>
+      </c>
+      <c r="X123">
+        <v>5195857.4</v>
+      </c>
+      <c r="Y123">
+        <v>2277101.6</v>
+      </c>
+      <c r="Z123">
+        <v>2651762.3</v>
+      </c>
+      <c r="AA123">
+        <v>-374660.7</v>
+      </c>
+      <c r="AB123">
+        <v>-6557362425.4</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P123"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC123"/>
   </ignoredErrors>
 </worksheet>
 </file>